--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>118230400</v>
+        <v>148346400</v>
       </c>
       <c r="E8" s="3">
-        <v>145915400</v>
+        <v>119264200</v>
       </c>
       <c r="F8" s="3">
-        <v>140354000</v>
+        <v>147191200</v>
       </c>
       <c r="G8" s="3">
-        <v>127567800</v>
+        <v>141581200</v>
       </c>
       <c r="H8" s="3">
-        <v>134040500</v>
+        <v>128683200</v>
       </c>
       <c r="I8" s="3">
-        <v>137986800</v>
+        <v>135212500</v>
       </c>
       <c r="J8" s="3">
+        <v>139193200</v>
+      </c>
+      <c r="K8" s="3">
         <v>132761400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119444600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>95553500</v>
+        <v>128180300</v>
       </c>
       <c r="E9" s="3">
-        <v>125236800</v>
+        <v>96388900</v>
       </c>
       <c r="F9" s="3">
-        <v>118083300</v>
+        <v>126331700</v>
       </c>
       <c r="G9" s="3">
-        <v>106240300</v>
+        <v>119115700</v>
       </c>
       <c r="H9" s="3">
-        <v>114190900</v>
+        <v>107169200</v>
       </c>
       <c r="I9" s="3">
-        <v>118668500</v>
+        <v>115189300</v>
       </c>
       <c r="J9" s="3">
+        <v>119706100</v>
+      </c>
+      <c r="K9" s="3">
         <v>114643300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99624800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22677000</v>
+        <v>20166100</v>
       </c>
       <c r="E10" s="3">
-        <v>20678600</v>
+        <v>22875300</v>
       </c>
       <c r="F10" s="3">
-        <v>22270700</v>
+        <v>20859400</v>
       </c>
       <c r="G10" s="3">
-        <v>21327600</v>
+        <v>22465500</v>
       </c>
       <c r="H10" s="3">
-        <v>19849600</v>
+        <v>21514000</v>
       </c>
       <c r="I10" s="3">
-        <v>19318200</v>
+        <v>20023200</v>
       </c>
       <c r="J10" s="3">
+        <v>19487100</v>
+      </c>
+      <c r="K10" s="3">
         <v>18118100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19819800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +889,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8467800</v>
+        <v>1084300</v>
       </c>
       <c r="E14" s="3">
-        <v>454600</v>
+        <v>8541800</v>
       </c>
       <c r="F14" s="3">
-        <v>999200</v>
+        <v>458500</v>
       </c>
       <c r="G14" s="3">
-        <v>921200</v>
+        <v>1007900</v>
       </c>
       <c r="H14" s="3">
-        <v>765300</v>
+        <v>929300</v>
       </c>
       <c r="I14" s="3">
-        <v>989300</v>
+        <v>772000</v>
       </c>
       <c r="J14" s="3">
+        <v>997900</v>
+      </c>
+      <c r="K14" s="3">
         <v>815800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1426200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,15 +949,18 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>206400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>292300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>116248600</v>
+        <v>141878000</v>
       </c>
       <c r="E17" s="3">
-        <v>137422400</v>
+        <v>117264900</v>
       </c>
       <c r="F17" s="3">
-        <v>130308400</v>
+        <v>138623900</v>
       </c>
       <c r="G17" s="3">
-        <v>118792600</v>
+        <v>131447800</v>
       </c>
       <c r="H17" s="3">
-        <v>125575000</v>
+        <v>119831200</v>
       </c>
       <c r="I17" s="3">
-        <v>130600500</v>
+        <v>126672900</v>
       </c>
       <c r="J17" s="3">
+        <v>131742400</v>
+      </c>
+      <c r="K17" s="3">
         <v>126464300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113979300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1981900</v>
+        <v>6468400</v>
       </c>
       <c r="E18" s="3">
-        <v>8493000</v>
+        <v>1999200</v>
       </c>
       <c r="F18" s="3">
-        <v>10045600</v>
+        <v>8567300</v>
       </c>
       <c r="G18" s="3">
-        <v>8775200</v>
+        <v>10133400</v>
       </c>
       <c r="H18" s="3">
-        <v>8465600</v>
+        <v>8851900</v>
       </c>
       <c r="I18" s="3">
-        <v>7386200</v>
+        <v>8539600</v>
       </c>
       <c r="J18" s="3">
+        <v>7450800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6297000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5465300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>315100</v>
+        <v>558200</v>
       </c>
       <c r="E20" s="3">
-        <v>292100</v>
+        <v>317900</v>
       </c>
       <c r="F20" s="3">
-        <v>239400</v>
+        <v>294600</v>
       </c>
       <c r="G20" s="3">
-        <v>235000</v>
+        <v>241500</v>
       </c>
       <c r="H20" s="3">
-        <v>-80200</v>
+        <v>237000</v>
       </c>
       <c r="I20" s="3">
-        <v>153700</v>
+        <v>-80900</v>
       </c>
       <c r="J20" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K20" s="3">
         <v>129600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>72800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3230700</v>
+        <v>8540600</v>
       </c>
       <c r="E21" s="3">
-        <v>9259100</v>
+        <v>3251300</v>
       </c>
       <c r="F21" s="3">
-        <v>11024000</v>
+        <v>9336100</v>
       </c>
       <c r="G21" s="3">
-        <v>9888800</v>
+        <v>11114300</v>
       </c>
       <c r="H21" s="3">
-        <v>9183800</v>
+        <v>9968100</v>
       </c>
       <c r="I21" s="3">
-        <v>8730900</v>
+        <v>9257600</v>
       </c>
       <c r="J21" s="3">
+        <v>8797500</v>
+      </c>
+      <c r="K21" s="3">
         <v>7972800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6387300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>617100</v>
+        <v>797500</v>
       </c>
       <c r="E22" s="3">
-        <v>345900</v>
+        <v>622500</v>
       </c>
       <c r="F22" s="3">
-        <v>325000</v>
+        <v>348900</v>
       </c>
       <c r="G22" s="3">
-        <v>535800</v>
+        <v>327800</v>
       </c>
       <c r="H22" s="3">
-        <v>558900</v>
+        <v>540500</v>
       </c>
       <c r="I22" s="3">
-        <v>678600</v>
+        <v>563800</v>
       </c>
       <c r="J22" s="3">
+        <v>684500</v>
+      </c>
+      <c r="K22" s="3">
         <v>623700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>386200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1679900</v>
+        <v>6229100</v>
       </c>
       <c r="E23" s="3">
-        <v>8439200</v>
+        <v>1694600</v>
       </c>
       <c r="F23" s="3">
-        <v>9960000</v>
+        <v>8513000</v>
       </c>
       <c r="G23" s="3">
-        <v>8474400</v>
+        <v>10047000</v>
       </c>
       <c r="H23" s="3">
-        <v>7826500</v>
+        <v>8548500</v>
       </c>
       <c r="I23" s="3">
-        <v>6861400</v>
+        <v>7895000</v>
       </c>
       <c r="J23" s="3">
+        <v>6921400</v>
+      </c>
+      <c r="K23" s="3">
         <v>5802900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5151900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1618500</v>
+        <v>1571700</v>
       </c>
       <c r="E24" s="3">
-        <v>1189100</v>
+        <v>1632600</v>
       </c>
       <c r="F24" s="3">
-        <v>2676900</v>
+        <v>1199500</v>
       </c>
       <c r="G24" s="3">
-        <v>1970900</v>
+        <v>2700300</v>
       </c>
       <c r="H24" s="3">
-        <v>1966500</v>
+        <v>1988100</v>
       </c>
       <c r="I24" s="3">
-        <v>1605300</v>
+        <v>1983700</v>
       </c>
       <c r="J24" s="3">
+        <v>1619300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1205600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1186700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61500</v>
+        <v>4657500</v>
       </c>
       <c r="E26" s="3">
-        <v>7250100</v>
+        <v>62000</v>
       </c>
       <c r="F26" s="3">
-        <v>7283000</v>
+        <v>7313500</v>
       </c>
       <c r="G26" s="3">
-        <v>6503500</v>
+        <v>7346700</v>
       </c>
       <c r="H26" s="3">
-        <v>5860000</v>
+        <v>6560300</v>
       </c>
       <c r="I26" s="3">
-        <v>5256100</v>
+        <v>5911300</v>
       </c>
       <c r="J26" s="3">
+        <v>5302100</v>
+      </c>
+      <c r="K26" s="3">
         <v>4597300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3965100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2532000</v>
+        <v>4018400</v>
       </c>
       <c r="E27" s="3">
-        <v>6566000</v>
+        <v>2554100</v>
       </c>
       <c r="F27" s="3">
-        <v>6589100</v>
+        <v>6623400</v>
       </c>
       <c r="G27" s="3">
-        <v>5762300</v>
+        <v>6646700</v>
       </c>
       <c r="H27" s="3">
-        <v>5181500</v>
+        <v>5812700</v>
       </c>
       <c r="I27" s="3">
-        <v>4609400</v>
+        <v>5226800</v>
       </c>
       <c r="J27" s="3">
+        <v>4649700</v>
+      </c>
+      <c r="K27" s="3">
         <v>4134000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,39 +1345,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-469900</v>
+        <v>-26600</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-474100</v>
       </c>
       <c r="F29" s="3">
-        <v>-482000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>-486200</v>
+      </c>
+      <c r="H29" s="3">
+        <v>70900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1176200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-315100</v>
+        <v>-558200</v>
       </c>
       <c r="E32" s="3">
-        <v>-292100</v>
+        <v>-317900</v>
       </c>
       <c r="F32" s="3">
-        <v>-239400</v>
+        <v>-294600</v>
       </c>
       <c r="G32" s="3">
-        <v>-235000</v>
+        <v>-241500</v>
       </c>
       <c r="H32" s="3">
-        <v>80200</v>
+        <v>-237000</v>
       </c>
       <c r="I32" s="3">
-        <v>-153700</v>
+        <v>80900</v>
       </c>
       <c r="J32" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-129600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-72800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2062000</v>
+        <v>3991800</v>
       </c>
       <c r="E33" s="3">
-        <v>6566000</v>
+        <v>2080100</v>
       </c>
       <c r="F33" s="3">
-        <v>6107100</v>
+        <v>6623400</v>
       </c>
       <c r="G33" s="3">
-        <v>5832600</v>
+        <v>6160500</v>
       </c>
       <c r="H33" s="3">
-        <v>5181500</v>
+        <v>5883600</v>
       </c>
       <c r="I33" s="3">
-        <v>4609400</v>
+        <v>5226800</v>
       </c>
       <c r="J33" s="3">
+        <v>4649700</v>
+      </c>
+      <c r="K33" s="3">
         <v>4134000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4576700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2062000</v>
+        <v>3991800</v>
       </c>
       <c r="E35" s="3">
-        <v>6566000</v>
+        <v>2080100</v>
       </c>
       <c r="F35" s="3">
-        <v>6107100</v>
+        <v>6623400</v>
       </c>
       <c r="G35" s="3">
-        <v>5832600</v>
+        <v>6160500</v>
       </c>
       <c r="H35" s="3">
-        <v>5181500</v>
+        <v>5883600</v>
       </c>
       <c r="I35" s="3">
-        <v>4609400</v>
+        <v>5226800</v>
       </c>
       <c r="J35" s="3">
+        <v>4649700</v>
+      </c>
+      <c r="K35" s="3">
         <v>4134000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4576700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34399200</v>
+        <v>24357900</v>
       </c>
       <c r="E41" s="3">
-        <v>26240000</v>
+        <v>34768900</v>
       </c>
       <c r="F41" s="3">
-        <v>28892800</v>
+        <v>26522000</v>
       </c>
       <c r="G41" s="3">
-        <v>28850000</v>
+        <v>29203300</v>
       </c>
       <c r="H41" s="3">
-        <v>24208700</v>
+        <v>29160000</v>
       </c>
       <c r="I41" s="3">
-        <v>23557600</v>
+        <v>24468900</v>
       </c>
       <c r="J41" s="3">
+        <v>23810800</v>
+      </c>
+      <c r="K41" s="3">
         <v>33539500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36472600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1710,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46060000</v>
+        <v>43826000</v>
       </c>
       <c r="E43" s="3">
-        <v>33204600</v>
+        <v>46555000</v>
       </c>
       <c r="F43" s="3">
-        <v>38248800</v>
+        <v>33561500</v>
       </c>
       <c r="G43" s="3">
-        <v>34814300</v>
+        <v>38659900</v>
       </c>
       <c r="H43" s="3">
-        <v>31907900</v>
+        <v>35188400</v>
       </c>
       <c r="I43" s="3">
-        <v>30449700</v>
+        <v>32250800</v>
       </c>
       <c r="J43" s="3">
+        <v>30777000</v>
+      </c>
+      <c r="K43" s="3">
         <v>53363900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38370700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1776,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1809,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,99 +1842,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>627331000</v>
+        <v>577695000</v>
       </c>
       <c r="E47" s="3">
-        <v>608551000</v>
+        <v>634073000</v>
       </c>
       <c r="F47" s="3">
-        <v>625478000</v>
+        <v>615091000</v>
       </c>
       <c r="G47" s="3">
-        <v>594184000</v>
+        <v>632200000</v>
       </c>
       <c r="H47" s="3">
-        <v>575184000</v>
+        <v>600569000</v>
       </c>
       <c r="I47" s="3">
-        <v>979112000</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>581365000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>989634000</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>723251000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24746700</v>
+        <v>29046800</v>
       </c>
       <c r="E48" s="3">
-        <v>26880100</v>
+        <v>25012700</v>
       </c>
       <c r="F48" s="3">
-        <v>25135400</v>
+        <v>27169000</v>
       </c>
       <c r="G48" s="3">
-        <v>23937500</v>
+        <v>25405500</v>
       </c>
       <c r="H48" s="3">
-        <v>21885300</v>
+        <v>24194700</v>
       </c>
       <c r="I48" s="3">
-        <v>20574300</v>
+        <v>22120500</v>
       </c>
       <c r="J48" s="3">
+        <v>20795400</v>
+      </c>
+      <c r="K48" s="3">
         <v>20476600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1655100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23948500</v>
+        <v>25134800</v>
       </c>
       <c r="E49" s="3">
-        <v>20380000</v>
+        <v>24205800</v>
       </c>
       <c r="F49" s="3">
-        <v>21906200</v>
+        <v>20599000</v>
       </c>
       <c r="G49" s="3">
-        <v>22332200</v>
+        <v>22141600</v>
       </c>
       <c r="H49" s="3">
-        <v>21083800</v>
+        <v>22572200</v>
       </c>
       <c r="I49" s="3">
-        <v>39479700</v>
+        <v>21310400</v>
       </c>
       <c r="J49" s="3">
+        <v>39904000</v>
+      </c>
+      <c r="K49" s="3">
         <v>44897200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30158700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29974300</v>
+        <v>40223600</v>
       </c>
       <c r="E52" s="3">
-        <v>6429900</v>
+        <v>30296400</v>
       </c>
       <c r="F52" s="3">
-        <v>2763700</v>
+        <v>6499000</v>
       </c>
       <c r="G52" s="3">
-        <v>5568000</v>
+        <v>2793400</v>
       </c>
       <c r="H52" s="3">
-        <v>2840500</v>
+        <v>5627800</v>
       </c>
       <c r="I52" s="3">
-        <v>2639600</v>
+        <v>2871100</v>
       </c>
       <c r="J52" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3563000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5797400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1021900000</v>
+        <v>866618000</v>
       </c>
       <c r="E54" s="3">
-        <v>955401000</v>
+        <v>1032890000</v>
       </c>
       <c r="F54" s="3">
-        <v>980276000</v>
+        <v>965668000</v>
       </c>
       <c r="G54" s="3">
-        <v>974003000</v>
+        <v>990811000</v>
       </c>
       <c r="H54" s="3">
-        <v>922396000</v>
+        <v>984470000</v>
       </c>
       <c r="I54" s="3">
-        <v>829474000</v>
+        <v>932309000</v>
       </c>
       <c r="J54" s="3">
+        <v>838388000</v>
+      </c>
+      <c r="K54" s="3">
         <v>836525000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>853599000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2139,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,69 +2169,78 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1564700</v>
+        <v>773500</v>
       </c>
       <c r="E58" s="3">
-        <v>2553900</v>
+        <v>1581500</v>
       </c>
       <c r="F58" s="3">
-        <v>4145000</v>
+        <v>2581400</v>
       </c>
       <c r="G58" s="3">
-        <v>3609100</v>
+        <v>4189500</v>
       </c>
       <c r="H58" s="3">
-        <v>3057900</v>
+        <v>3647900</v>
       </c>
       <c r="I58" s="3">
-        <v>5625100</v>
+        <v>3090800</v>
       </c>
       <c r="J58" s="3">
+        <v>5685500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4952000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7362100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>325693000</v>
+        <v>209561000</v>
       </c>
       <c r="E59" s="3">
-        <v>323834000</v>
+        <v>329193000</v>
       </c>
       <c r="F59" s="3">
-        <v>325367000</v>
+        <v>327314000</v>
       </c>
       <c r="G59" s="3">
-        <v>347702000</v>
+        <v>328864000</v>
       </c>
       <c r="H59" s="3">
-        <v>332459000</v>
+        <v>351438000</v>
       </c>
       <c r="I59" s="3">
-        <v>318439000</v>
+        <v>336032000</v>
       </c>
       <c r="J59" s="3">
+        <v>321861000</v>
+      </c>
+      <c r="K59" s="3">
         <v>301801000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55893300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,69 +2268,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19334700</v>
+        <v>16797900</v>
       </c>
       <c r="E61" s="3">
-        <v>10446400</v>
+        <v>19542500</v>
       </c>
       <c r="F61" s="3">
-        <v>9281400</v>
+        <v>10558600</v>
       </c>
       <c r="G61" s="3">
-        <v>8496300</v>
+        <v>9381100</v>
       </c>
       <c r="H61" s="3">
-        <v>8166900</v>
+        <v>8587600</v>
       </c>
       <c r="I61" s="3">
-        <v>8218500</v>
+        <v>8254700</v>
       </c>
       <c r="J61" s="3">
+        <v>8306900</v>
+      </c>
+      <c r="K61" s="3">
         <v>16658900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12232300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14644000</v>
+        <v>15816900</v>
       </c>
       <c r="E62" s="3">
-        <v>16315200</v>
+        <v>14801400</v>
       </c>
       <c r="F62" s="3">
-        <v>18583700</v>
+        <v>16490500</v>
       </c>
       <c r="G62" s="3">
-        <v>17051900</v>
+        <v>18783400</v>
       </c>
       <c r="H62" s="3">
-        <v>17411000</v>
+        <v>17235200</v>
       </c>
       <c r="I62" s="3">
-        <v>13439500</v>
+        <v>17598100</v>
       </c>
       <c r="J62" s="3">
+        <v>13584000</v>
+      </c>
+      <c r="K62" s="3">
         <v>16362400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4453400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>953357000</v>
+        <v>789047000</v>
       </c>
       <c r="E66" s="3">
-        <v>878968000</v>
+        <v>963603000</v>
       </c>
       <c r="F66" s="3">
-        <v>902760000</v>
+        <v>888414000</v>
       </c>
       <c r="G66" s="3">
-        <v>898817000</v>
+        <v>912462000</v>
       </c>
       <c r="H66" s="3">
-        <v>850785000</v>
+        <v>908477000</v>
       </c>
       <c r="I66" s="3">
-        <v>771364000</v>
+        <v>859929000</v>
       </c>
       <c r="J66" s="3">
+        <v>779653000</v>
+      </c>
+      <c r="K66" s="3">
         <v>777665000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>799115000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29147500</v>
+        <v>28779300</v>
       </c>
       <c r="E72" s="3">
-        <v>35235900</v>
+        <v>29460800</v>
       </c>
       <c r="F72" s="3">
-        <v>32341600</v>
+        <v>35614600</v>
       </c>
       <c r="G72" s="3">
-        <v>31689400</v>
+        <v>32689200</v>
       </c>
       <c r="H72" s="3">
-        <v>28010000</v>
+        <v>32029900</v>
       </c>
       <c r="I72" s="3">
-        <v>78142500</v>
+        <v>28311000</v>
       </c>
       <c r="J72" s="3">
+        <v>78982200</v>
+      </c>
+      <c r="K72" s="3">
         <v>59954100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24918800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68545900</v>
+        <v>77571700</v>
       </c>
       <c r="E76" s="3">
-        <v>76432900</v>
+        <v>69282600</v>
       </c>
       <c r="F76" s="3">
-        <v>77515500</v>
+        <v>77254300</v>
       </c>
       <c r="G76" s="3">
-        <v>75185600</v>
+        <v>78348600</v>
       </c>
       <c r="H76" s="3">
-        <v>71610500</v>
+        <v>75993600</v>
       </c>
       <c r="I76" s="3">
-        <v>58110600</v>
+        <v>72380000</v>
       </c>
       <c r="J76" s="3">
+        <v>58735100</v>
+      </c>
+      <c r="K76" s="3">
         <v>58859400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54484700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2062000</v>
+        <v>3991800</v>
       </c>
       <c r="E81" s="3">
-        <v>6566000</v>
+        <v>2080100</v>
       </c>
       <c r="F81" s="3">
-        <v>6107100</v>
+        <v>6623400</v>
       </c>
       <c r="G81" s="3">
-        <v>5832600</v>
+        <v>6160500</v>
       </c>
       <c r="H81" s="3">
-        <v>5181500</v>
+        <v>5883600</v>
       </c>
       <c r="I81" s="3">
-        <v>4609400</v>
+        <v>5226800</v>
       </c>
       <c r="J81" s="3">
+        <v>4649700</v>
+      </c>
+      <c r="K81" s="3">
         <v>4134000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4576700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>932200</v>
+        <v>1524100</v>
       </c>
       <c r="E83" s="3">
-        <v>473200</v>
+        <v>940400</v>
       </c>
       <c r="F83" s="3">
-        <v>737900</v>
+        <v>477400</v>
       </c>
       <c r="G83" s="3">
-        <v>877300</v>
+        <v>744300</v>
       </c>
       <c r="H83" s="3">
-        <v>797100</v>
+        <v>885000</v>
       </c>
       <c r="I83" s="3">
-        <v>1189100</v>
+        <v>804100</v>
       </c>
       <c r="J83" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1543800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>848700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8382100</v>
+        <v>8770000</v>
       </c>
       <c r="E89" s="3">
-        <v>18144500</v>
+        <v>8455400</v>
       </c>
       <c r="F89" s="3">
-        <v>14865800</v>
+        <v>18303100</v>
       </c>
       <c r="G89" s="3">
-        <v>19934200</v>
+        <v>14995800</v>
       </c>
       <c r="H89" s="3">
-        <v>14176300</v>
+        <v>20108500</v>
       </c>
       <c r="I89" s="3">
-        <v>5820500</v>
+        <v>14300200</v>
       </c>
       <c r="J89" s="3">
+        <v>5871400</v>
+      </c>
+      <c r="K89" s="3">
         <v>11545500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20080400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-507300</v>
+        <v>-511700</v>
       </c>
       <c r="E91" s="3">
-        <v>-431500</v>
+        <v>-511700</v>
       </c>
       <c r="F91" s="3">
-        <v>-518300</v>
+        <v>-435300</v>
       </c>
       <c r="G91" s="3">
-        <v>-507300</v>
+        <v>-522800</v>
       </c>
       <c r="H91" s="3">
-        <v>-387600</v>
+        <v>-511700</v>
       </c>
       <c r="I91" s="3">
-        <v>-382100</v>
+        <v>-391000</v>
       </c>
       <c r="J91" s="3">
+        <v>-385400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-372200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-437800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2332200</v>
+        <v>-11812600</v>
       </c>
       <c r="E94" s="3">
-        <v>-13546000</v>
+        <v>-2352500</v>
       </c>
       <c r="F94" s="3">
-        <v>-11275400</v>
+        <v>-13664500</v>
       </c>
       <c r="G94" s="3">
-        <v>-10461700</v>
+        <v>-11373900</v>
       </c>
       <c r="H94" s="3">
-        <v>-9145200</v>
+        <v>-10553200</v>
       </c>
       <c r="I94" s="3">
-        <v>-12597400</v>
+        <v>-9225200</v>
       </c>
       <c r="J94" s="3">
+        <v>-12707500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8207600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4020300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3748600</v>
+        <v>-3619600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3401600</v>
+        <v>-3781300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3209500</v>
+        <v>-3431300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2895400</v>
+        <v>-3237500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2454000</v>
+        <v>-2920700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2145500</v>
+        <v>-2475500</v>
       </c>
       <c r="J96" s="3">
+        <v>-2164300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1968700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2076500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4303100</v>
+        <v>-7765400</v>
       </c>
       <c r="E100" s="3">
-        <v>-6709900</v>
+        <v>4340700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3160000</v>
+        <v>-6768500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6377200</v>
+        <v>-3187700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4532500</v>
+        <v>-6432900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2106000</v>
+        <v>-4572200</v>
       </c>
       <c r="J100" s="3">
+        <v>-2124400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2905300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6526400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2146600</v>
+        <v>521700</v>
       </c>
       <c r="E101" s="3">
-        <v>-534700</v>
+        <v>2165400</v>
       </c>
       <c r="F101" s="3">
-        <v>-302000</v>
+        <v>-539400</v>
       </c>
       <c r="G101" s="3">
-        <v>1295600</v>
+        <v>-304600</v>
       </c>
       <c r="H101" s="3">
-        <v>768600</v>
+        <v>1307000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1497700</v>
+        <v>775300</v>
       </c>
       <c r="J101" s="3">
+        <v>-1510800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-368900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>968400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12499600</v>
+        <v>-10286300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2646200</v>
+        <v>12608900</v>
       </c>
       <c r="F102" s="3">
-        <v>128500</v>
+        <v>-2669300</v>
       </c>
       <c r="G102" s="3">
-        <v>4390900</v>
+        <v>129600</v>
       </c>
       <c r="H102" s="3">
-        <v>1267100</v>
+        <v>4429300</v>
       </c>
       <c r="I102" s="3">
-        <v>-10380500</v>
+        <v>1278200</v>
       </c>
       <c r="J102" s="3">
+        <v>-10471300</v>
+      </c>
+      <c r="K102" s="3">
         <v>63700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10499700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>148346400</v>
+        <v>158431700</v>
       </c>
       <c r="E8" s="3">
-        <v>119264200</v>
+        <v>127372300</v>
       </c>
       <c r="F8" s="3">
-        <v>147191200</v>
+        <v>157197900</v>
       </c>
       <c r="G8" s="3">
-        <v>141581200</v>
+        <v>151206600</v>
       </c>
       <c r="H8" s="3">
-        <v>128683200</v>
+        <v>137431700</v>
       </c>
       <c r="I8" s="3">
-        <v>135212500</v>
+        <v>144404900</v>
       </c>
       <c r="J8" s="3">
-        <v>139193200</v>
+        <v>148656200</v>
       </c>
       <c r="K8" s="3">
         <v>132761400</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>128180300</v>
+        <v>136894700</v>
       </c>
       <c r="E9" s="3">
-        <v>96388900</v>
+        <v>102941900</v>
       </c>
       <c r="F9" s="3">
-        <v>126331700</v>
+        <v>134920400</v>
       </c>
       <c r="G9" s="3">
-        <v>119115700</v>
+        <v>127213800</v>
       </c>
       <c r="H9" s="3">
-        <v>107169200</v>
+        <v>114455000</v>
       </c>
       <c r="I9" s="3">
-        <v>115189300</v>
+        <v>123020400</v>
       </c>
       <c r="J9" s="3">
-        <v>119706100</v>
+        <v>127844300</v>
       </c>
       <c r="K9" s="3">
         <v>114643300</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20166100</v>
+        <v>21537100</v>
       </c>
       <c r="E10" s="3">
-        <v>22875300</v>
+        <v>24430400</v>
       </c>
       <c r="F10" s="3">
-        <v>20859400</v>
+        <v>22277600</v>
       </c>
       <c r="G10" s="3">
-        <v>22465500</v>
+        <v>23992800</v>
       </c>
       <c r="H10" s="3">
-        <v>21514000</v>
+        <v>22976600</v>
       </c>
       <c r="I10" s="3">
-        <v>20023200</v>
+        <v>21384500</v>
       </c>
       <c r="J10" s="3">
-        <v>19487100</v>
+        <v>20811900</v>
       </c>
       <c r="K10" s="3">
         <v>18118100</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1084300</v>
+        <v>1158100</v>
       </c>
       <c r="E14" s="3">
-        <v>8541800</v>
+        <v>9122500</v>
       </c>
       <c r="F14" s="3">
-        <v>458500</v>
+        <v>489700</v>
       </c>
       <c r="G14" s="3">
-        <v>1007900</v>
+        <v>1076400</v>
       </c>
       <c r="H14" s="3">
-        <v>929300</v>
+        <v>992500</v>
       </c>
       <c r="I14" s="3">
-        <v>772000</v>
+        <v>824500</v>
       </c>
       <c r="J14" s="3">
-        <v>997900</v>
+        <v>1065800</v>
       </c>
       <c r="K14" s="3">
         <v>815800</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>141878000</v>
+        <v>151523600</v>
       </c>
       <c r="E17" s="3">
-        <v>117264900</v>
+        <v>125237200</v>
       </c>
       <c r="F17" s="3">
-        <v>138623900</v>
+        <v>148048200</v>
       </c>
       <c r="G17" s="3">
-        <v>131447800</v>
+        <v>140384200</v>
       </c>
       <c r="H17" s="3">
-        <v>119831200</v>
+        <v>127978000</v>
       </c>
       <c r="I17" s="3">
-        <v>126672900</v>
+        <v>135284700</v>
       </c>
       <c r="J17" s="3">
-        <v>131742400</v>
+        <v>140698900</v>
       </c>
       <c r="K17" s="3">
         <v>126464300</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6468400</v>
+        <v>6908100</v>
       </c>
       <c r="E18" s="3">
-        <v>1999200</v>
+        <v>2135100</v>
       </c>
       <c r="F18" s="3">
-        <v>8567300</v>
+        <v>9149700</v>
       </c>
       <c r="G18" s="3">
-        <v>10133400</v>
+        <v>10822400</v>
       </c>
       <c r="H18" s="3">
-        <v>8851900</v>
+        <v>9453700</v>
       </c>
       <c r="I18" s="3">
-        <v>8539600</v>
+        <v>9120200</v>
       </c>
       <c r="J18" s="3">
-        <v>7450800</v>
+        <v>7957400</v>
       </c>
       <c r="K18" s="3">
         <v>6297000</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>558200</v>
+        <v>596200</v>
       </c>
       <c r="E20" s="3">
-        <v>317900</v>
+        <v>339500</v>
       </c>
       <c r="F20" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="G20" s="3">
-        <v>241500</v>
+        <v>257900</v>
       </c>
       <c r="H20" s="3">
-        <v>237000</v>
+        <v>253100</v>
       </c>
       <c r="I20" s="3">
-        <v>-80900</v>
+        <v>-86400</v>
       </c>
       <c r="J20" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="K20" s="3">
         <v>129600</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8540600</v>
+        <v>9132600</v>
       </c>
       <c r="E21" s="3">
-        <v>3251300</v>
+        <v>3479300</v>
       </c>
       <c r="F21" s="3">
-        <v>9336100</v>
+        <v>9974400</v>
       </c>
       <c r="G21" s="3">
-        <v>11114300</v>
+        <v>11875400</v>
       </c>
       <c r="H21" s="3">
-        <v>9968100</v>
+        <v>10652300</v>
       </c>
       <c r="I21" s="3">
-        <v>9257600</v>
+        <v>9892900</v>
       </c>
       <c r="J21" s="3">
-        <v>8797500</v>
+        <v>9404500</v>
       </c>
       <c r="K21" s="3">
         <v>7972800</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>797500</v>
+        <v>851700</v>
       </c>
       <c r="E22" s="3">
-        <v>622500</v>
+        <v>664800</v>
       </c>
       <c r="F22" s="3">
-        <v>348900</v>
+        <v>372600</v>
       </c>
       <c r="G22" s="3">
-        <v>327800</v>
+        <v>350100</v>
       </c>
       <c r="H22" s="3">
-        <v>540500</v>
+        <v>577300</v>
       </c>
       <c r="I22" s="3">
-        <v>563800</v>
+        <v>602100</v>
       </c>
       <c r="J22" s="3">
-        <v>684500</v>
+        <v>731000</v>
       </c>
       <c r="K22" s="3">
         <v>623700</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6229100</v>
+        <v>6652600</v>
       </c>
       <c r="E23" s="3">
-        <v>1694600</v>
+        <v>1809800</v>
       </c>
       <c r="F23" s="3">
-        <v>8513000</v>
+        <v>9091800</v>
       </c>
       <c r="G23" s="3">
-        <v>10047000</v>
+        <v>10730100</v>
       </c>
       <c r="H23" s="3">
-        <v>8548500</v>
+        <v>9129600</v>
       </c>
       <c r="I23" s="3">
-        <v>7895000</v>
+        <v>8431700</v>
       </c>
       <c r="J23" s="3">
-        <v>6921400</v>
+        <v>7391900</v>
       </c>
       <c r="K23" s="3">
         <v>5802900</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1571700</v>
+        <v>1678500</v>
       </c>
       <c r="E24" s="3">
-        <v>1632600</v>
+        <v>1743600</v>
       </c>
       <c r="F24" s="3">
-        <v>1199500</v>
+        <v>1281100</v>
       </c>
       <c r="G24" s="3">
-        <v>2700300</v>
+        <v>2883900</v>
       </c>
       <c r="H24" s="3">
-        <v>1988100</v>
+        <v>2123300</v>
       </c>
       <c r="I24" s="3">
-        <v>1983700</v>
+        <v>2118600</v>
       </c>
       <c r="J24" s="3">
-        <v>1619300</v>
+        <v>1729400</v>
       </c>
       <c r="K24" s="3">
         <v>1205600</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4657500</v>
+        <v>4974100</v>
       </c>
       <c r="E26" s="3">
-        <v>62000</v>
+        <v>66200</v>
       </c>
       <c r="F26" s="3">
-        <v>7313500</v>
+        <v>7810700</v>
       </c>
       <c r="G26" s="3">
-        <v>7346700</v>
+        <v>7846200</v>
       </c>
       <c r="H26" s="3">
-        <v>6560300</v>
+        <v>7006300</v>
       </c>
       <c r="I26" s="3">
-        <v>5911300</v>
+        <v>6313100</v>
       </c>
       <c r="J26" s="3">
-        <v>5302100</v>
+        <v>5662500</v>
       </c>
       <c r="K26" s="3">
         <v>4597300</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4018400</v>
+        <v>4291600</v>
       </c>
       <c r="E27" s="3">
-        <v>2554100</v>
+        <v>2727800</v>
       </c>
       <c r="F27" s="3">
-        <v>6623400</v>
+        <v>7073700</v>
       </c>
       <c r="G27" s="3">
-        <v>6646700</v>
+        <v>7098600</v>
       </c>
       <c r="H27" s="3">
-        <v>5812700</v>
+        <v>6207900</v>
       </c>
       <c r="I27" s="3">
-        <v>5226800</v>
+        <v>5582100</v>
       </c>
       <c r="J27" s="3">
-        <v>4649700</v>
+        <v>4965800</v>
       </c>
       <c r="K27" s="3">
         <v>4134000</v>
@@ -1355,19 +1355,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-26600</v>
+        <v>-28400</v>
       </c>
       <c r="E29" s="3">
-        <v>-474100</v>
+        <v>-506300</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-486200</v>
+        <v>-519300</v>
       </c>
       <c r="H29" s="3">
-        <v>70900</v>
+        <v>75700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-558200</v>
+        <v>-596200</v>
       </c>
       <c r="E32" s="3">
-        <v>-317900</v>
+        <v>-339500</v>
       </c>
       <c r="F32" s="3">
-        <v>-294600</v>
+        <v>-314700</v>
       </c>
       <c r="G32" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="H32" s="3">
-        <v>-237000</v>
+        <v>-253100</v>
       </c>
       <c r="I32" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="J32" s="3">
-        <v>-155100</v>
+        <v>-165600</v>
       </c>
       <c r="K32" s="3">
         <v>-129600</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3991800</v>
+        <v>4263200</v>
       </c>
       <c r="E33" s="3">
-        <v>2080100</v>
+        <v>2221500</v>
       </c>
       <c r="F33" s="3">
-        <v>6623400</v>
+        <v>7073700</v>
       </c>
       <c r="G33" s="3">
-        <v>6160500</v>
+        <v>6579300</v>
       </c>
       <c r="H33" s="3">
-        <v>5883600</v>
+        <v>6283600</v>
       </c>
       <c r="I33" s="3">
-        <v>5226800</v>
+        <v>5582100</v>
       </c>
       <c r="J33" s="3">
-        <v>4649700</v>
+        <v>4965800</v>
       </c>
       <c r="K33" s="3">
         <v>4134000</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3991800</v>
+        <v>4263200</v>
       </c>
       <c r="E35" s="3">
-        <v>2080100</v>
+        <v>2221500</v>
       </c>
       <c r="F35" s="3">
-        <v>6623400</v>
+        <v>7073700</v>
       </c>
       <c r="G35" s="3">
-        <v>6160500</v>
+        <v>6579300</v>
       </c>
       <c r="H35" s="3">
-        <v>5883600</v>
+        <v>6283600</v>
       </c>
       <c r="I35" s="3">
-        <v>5226800</v>
+        <v>5582100</v>
       </c>
       <c r="J35" s="3">
-        <v>4649700</v>
+        <v>4965800</v>
       </c>
       <c r="K35" s="3">
         <v>4134000</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24357900</v>
+        <v>25962300</v>
       </c>
       <c r="E41" s="3">
-        <v>34768900</v>
+        <v>37059100</v>
       </c>
       <c r="F41" s="3">
-        <v>26522000</v>
+        <v>28268900</v>
       </c>
       <c r="G41" s="3">
-        <v>29203300</v>
+        <v>31126800</v>
       </c>
       <c r="H41" s="3">
-        <v>29160000</v>
+        <v>31080700</v>
       </c>
       <c r="I41" s="3">
-        <v>24468900</v>
+        <v>26080600</v>
       </c>
       <c r="J41" s="3">
-        <v>23810800</v>
+        <v>25379100</v>
       </c>
       <c r="K41" s="3">
         <v>33539500</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43826000</v>
+        <v>46712700</v>
       </c>
       <c r="E43" s="3">
-        <v>46555000</v>
+        <v>49621500</v>
       </c>
       <c r="F43" s="3">
-        <v>33561500</v>
+        <v>35772100</v>
       </c>
       <c r="G43" s="3">
-        <v>38659900</v>
+        <v>41206300</v>
       </c>
       <c r="H43" s="3">
-        <v>35188400</v>
+        <v>37506200</v>
       </c>
       <c r="I43" s="3">
-        <v>32250800</v>
+        <v>34375100</v>
       </c>
       <c r="J43" s="3">
-        <v>30777000</v>
+        <v>32804200</v>
       </c>
       <c r="K43" s="3">
         <v>53363900</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>577695000</v>
+        <v>615747000</v>
       </c>
       <c r="E47" s="3">
-        <v>634073000</v>
+        <v>675838000</v>
       </c>
       <c r="F47" s="3">
-        <v>615091000</v>
+        <v>655606000</v>
       </c>
       <c r="G47" s="3">
-        <v>632200000</v>
+        <v>673841000</v>
       </c>
       <c r="H47" s="3">
-        <v>600569000</v>
+        <v>640128000</v>
       </c>
       <c r="I47" s="3">
-        <v>581365000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>989634000</v>
+        <v>619659000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29046800</v>
+        <v>30960000</v>
       </c>
       <c r="E48" s="3">
-        <v>25012700</v>
+        <v>26660200</v>
       </c>
       <c r="F48" s="3">
-        <v>27169000</v>
+        <v>28958600</v>
       </c>
       <c r="G48" s="3">
-        <v>25405500</v>
+        <v>27078900</v>
       </c>
       <c r="H48" s="3">
-        <v>24194700</v>
+        <v>25788400</v>
       </c>
       <c r="I48" s="3">
-        <v>22120500</v>
+        <v>23577600</v>
       </c>
       <c r="J48" s="3">
-        <v>20795400</v>
+        <v>22165200</v>
       </c>
       <c r="K48" s="3">
         <v>20476600</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25134800</v>
+        <v>26790300</v>
       </c>
       <c r="E49" s="3">
-        <v>24205800</v>
+        <v>25800200</v>
       </c>
       <c r="F49" s="3">
-        <v>20599000</v>
+        <v>21955800</v>
       </c>
       <c r="G49" s="3">
-        <v>22141600</v>
+        <v>23600000</v>
       </c>
       <c r="H49" s="3">
-        <v>22572200</v>
+        <v>24059000</v>
       </c>
       <c r="I49" s="3">
-        <v>21310400</v>
+        <v>22714000</v>
       </c>
       <c r="J49" s="3">
-        <v>39904000</v>
+        <v>42532400</v>
       </c>
       <c r="K49" s="3">
         <v>44897200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>40223600</v>
+        <v>42873000</v>
       </c>
       <c r="E52" s="3">
-        <v>30296400</v>
+        <v>32292000</v>
       </c>
       <c r="F52" s="3">
-        <v>6499000</v>
+        <v>6927100</v>
       </c>
       <c r="G52" s="3">
-        <v>2793400</v>
+        <v>2977400</v>
       </c>
       <c r="H52" s="3">
-        <v>5627800</v>
+        <v>5998500</v>
       </c>
       <c r="I52" s="3">
-        <v>2871100</v>
+        <v>3060200</v>
       </c>
       <c r="J52" s="3">
-        <v>2668000</v>
+        <v>2843700</v>
       </c>
       <c r="K52" s="3">
         <v>3563000</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>866618000</v>
+        <v>923701000</v>
       </c>
       <c r="E54" s="3">
-        <v>1032890000</v>
+        <v>1100920000</v>
       </c>
       <c r="F54" s="3">
-        <v>965668000</v>
+        <v>1029270000</v>
       </c>
       <c r="G54" s="3">
-        <v>990811000</v>
+        <v>1056070000</v>
       </c>
       <c r="H54" s="3">
-        <v>984470000</v>
+        <v>1049320000</v>
       </c>
       <c r="I54" s="3">
-        <v>932309000</v>
+        <v>993718000</v>
       </c>
       <c r="J54" s="3">
-        <v>838388000</v>
+        <v>893611000</v>
       </c>
       <c r="K54" s="3">
         <v>836525000</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>773500</v>
+        <v>824500</v>
       </c>
       <c r="E58" s="3">
-        <v>1581500</v>
+        <v>1685600</v>
       </c>
       <c r="F58" s="3">
-        <v>2581400</v>
+        <v>2751400</v>
       </c>
       <c r="G58" s="3">
-        <v>4189500</v>
+        <v>4465400</v>
       </c>
       <c r="H58" s="3">
-        <v>3647900</v>
+        <v>3888200</v>
       </c>
       <c r="I58" s="3">
-        <v>3090800</v>
+        <v>3294400</v>
       </c>
       <c r="J58" s="3">
-        <v>5685500</v>
+        <v>6060000</v>
       </c>
       <c r="K58" s="3">
         <v>4952000</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209561000</v>
+        <v>223365000</v>
       </c>
       <c r="E59" s="3">
-        <v>329193000</v>
+        <v>350877000</v>
       </c>
       <c r="F59" s="3">
-        <v>327314000</v>
+        <v>348874000</v>
       </c>
       <c r="G59" s="3">
-        <v>328864000</v>
+        <v>350525000</v>
       </c>
       <c r="H59" s="3">
-        <v>351438000</v>
+        <v>374587000</v>
       </c>
       <c r="I59" s="3">
-        <v>336032000</v>
+        <v>358166000</v>
       </c>
       <c r="J59" s="3">
-        <v>321861000</v>
+        <v>343061000</v>
       </c>
       <c r="K59" s="3">
         <v>301801000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16797900</v>
+        <v>17904400</v>
       </c>
       <c r="E61" s="3">
-        <v>19542500</v>
+        <v>20829700</v>
       </c>
       <c r="F61" s="3">
-        <v>10558600</v>
+        <v>11254100</v>
       </c>
       <c r="G61" s="3">
-        <v>9381100</v>
+        <v>9999100</v>
       </c>
       <c r="H61" s="3">
-        <v>8587600</v>
+        <v>9153300</v>
       </c>
       <c r="I61" s="3">
-        <v>8254700</v>
+        <v>8798400</v>
       </c>
       <c r="J61" s="3">
-        <v>8306900</v>
+        <v>8854000</v>
       </c>
       <c r="K61" s="3">
         <v>16658900</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15816900</v>
+        <v>16858700</v>
       </c>
       <c r="E62" s="3">
-        <v>14801400</v>
+        <v>15776300</v>
       </c>
       <c r="F62" s="3">
-        <v>16490500</v>
+        <v>17576700</v>
       </c>
       <c r="G62" s="3">
-        <v>18783400</v>
+        <v>20020600</v>
       </c>
       <c r="H62" s="3">
-        <v>17235200</v>
+        <v>18370400</v>
       </c>
       <c r="I62" s="3">
-        <v>17598100</v>
+        <v>18757200</v>
       </c>
       <c r="J62" s="3">
-        <v>13584000</v>
+        <v>14478700</v>
       </c>
       <c r="K62" s="3">
         <v>16362400</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>789047000</v>
+        <v>841019000</v>
       </c>
       <c r="E66" s="3">
-        <v>963603000</v>
+        <v>1027070000</v>
       </c>
       <c r="F66" s="3">
-        <v>888414000</v>
+        <v>946932000</v>
       </c>
       <c r="G66" s="3">
-        <v>912462000</v>
+        <v>972564000</v>
       </c>
       <c r="H66" s="3">
-        <v>908477000</v>
+        <v>968316000</v>
       </c>
       <c r="I66" s="3">
-        <v>859929000</v>
+        <v>916570000</v>
       </c>
       <c r="J66" s="3">
-        <v>779653000</v>
+        <v>831007000</v>
       </c>
       <c r="K66" s="3">
         <v>777665000</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28779300</v>
+        <v>30675000</v>
       </c>
       <c r="E72" s="3">
-        <v>29460800</v>
+        <v>31401300</v>
       </c>
       <c r="F72" s="3">
-        <v>35614600</v>
+        <v>37960400</v>
       </c>
       <c r="G72" s="3">
-        <v>32689200</v>
+        <v>34842300</v>
       </c>
       <c r="H72" s="3">
-        <v>32029900</v>
+        <v>34139700</v>
       </c>
       <c r="I72" s="3">
-        <v>28311000</v>
+        <v>30175800</v>
       </c>
       <c r="J72" s="3">
-        <v>78982200</v>
+        <v>84184600</v>
       </c>
       <c r="K72" s="3">
         <v>59954100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77571700</v>
+        <v>82681200</v>
       </c>
       <c r="E76" s="3">
-        <v>69282600</v>
+        <v>73846100</v>
       </c>
       <c r="F76" s="3">
-        <v>77254300</v>
+        <v>82342900</v>
       </c>
       <c r="G76" s="3">
-        <v>78348600</v>
+        <v>83509200</v>
       </c>
       <c r="H76" s="3">
-        <v>75993600</v>
+        <v>80999100</v>
       </c>
       <c r="I76" s="3">
-        <v>72380000</v>
+        <v>77147600</v>
       </c>
       <c r="J76" s="3">
-        <v>58735100</v>
+        <v>62603800</v>
       </c>
       <c r="K76" s="3">
         <v>58859400</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3991800</v>
+        <v>4263200</v>
       </c>
       <c r="E81" s="3">
-        <v>2080100</v>
+        <v>2221500</v>
       </c>
       <c r="F81" s="3">
-        <v>6623400</v>
+        <v>7073700</v>
       </c>
       <c r="G81" s="3">
-        <v>6160500</v>
+        <v>6579300</v>
       </c>
       <c r="H81" s="3">
-        <v>5883600</v>
+        <v>6283600</v>
       </c>
       <c r="I81" s="3">
-        <v>5226800</v>
+        <v>5582100</v>
       </c>
       <c r="J81" s="3">
-        <v>4649700</v>
+        <v>4965800</v>
       </c>
       <c r="K81" s="3">
         <v>4134000</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1524100</v>
+        <v>1627700</v>
       </c>
       <c r="E83" s="3">
-        <v>940400</v>
+        <v>1004300</v>
       </c>
       <c r="F83" s="3">
-        <v>477400</v>
+        <v>509800</v>
       </c>
       <c r="G83" s="3">
-        <v>744300</v>
+        <v>794900</v>
       </c>
       <c r="H83" s="3">
-        <v>885000</v>
+        <v>945100</v>
       </c>
       <c r="I83" s="3">
-        <v>804100</v>
+        <v>858800</v>
       </c>
       <c r="J83" s="3">
-        <v>1199500</v>
+        <v>1281100</v>
       </c>
       <c r="K83" s="3">
         <v>1543800</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8770000</v>
+        <v>9366200</v>
       </c>
       <c r="E89" s="3">
-        <v>8455400</v>
+        <v>9030300</v>
       </c>
       <c r="F89" s="3">
-        <v>18303100</v>
+        <v>19547400</v>
       </c>
       <c r="G89" s="3">
-        <v>14995800</v>
+        <v>16015300</v>
       </c>
       <c r="H89" s="3">
-        <v>20108500</v>
+        <v>21475500</v>
       </c>
       <c r="I89" s="3">
-        <v>14300200</v>
+        <v>15272400</v>
       </c>
       <c r="J89" s="3">
-        <v>5871400</v>
+        <v>6270600</v>
       </c>
       <c r="K89" s="3">
         <v>11545500</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-511700</v>
+        <v>-546500</v>
       </c>
       <c r="E91" s="3">
-        <v>-511700</v>
+        <v>-546500</v>
       </c>
       <c r="F91" s="3">
-        <v>-435300</v>
+        <v>-464900</v>
       </c>
       <c r="G91" s="3">
-        <v>-522800</v>
+        <v>-558300</v>
       </c>
       <c r="H91" s="3">
-        <v>-511700</v>
+        <v>-546500</v>
       </c>
       <c r="I91" s="3">
-        <v>-391000</v>
+        <v>-417600</v>
       </c>
       <c r="J91" s="3">
-        <v>-385400</v>
+        <v>-411600</v>
       </c>
       <c r="K91" s="3">
         <v>-372200</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11812600</v>
+        <v>-12615600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2352500</v>
+        <v>-2512500</v>
       </c>
       <c r="F94" s="3">
-        <v>-13664500</v>
+        <v>-14593400</v>
       </c>
       <c r="G94" s="3">
-        <v>-11373900</v>
+        <v>-12147200</v>
       </c>
       <c r="H94" s="3">
-        <v>-10553200</v>
+        <v>-11270700</v>
       </c>
       <c r="I94" s="3">
-        <v>-9225200</v>
+        <v>-9852400</v>
       </c>
       <c r="J94" s="3">
-        <v>-12707500</v>
+        <v>-13571400</v>
       </c>
       <c r="K94" s="3">
         <v>-8207600</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3619600</v>
+        <v>-3865700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3781300</v>
+        <v>-4038400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3431300</v>
+        <v>-3664600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3237500</v>
+        <v>-3457600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2920700</v>
+        <v>-3119300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2475500</v>
+        <v>-2643800</v>
       </c>
       <c r="J96" s="3">
-        <v>-2164300</v>
+        <v>-2311400</v>
       </c>
       <c r="K96" s="3">
         <v>-1968700</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7765400</v>
+        <v>-8293300</v>
       </c>
       <c r="E100" s="3">
-        <v>4340700</v>
+        <v>4635800</v>
       </c>
       <c r="F100" s="3">
-        <v>-6768500</v>
+        <v>-7228700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3187700</v>
+        <v>-3404400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6432900</v>
+        <v>-6870300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4572200</v>
+        <v>-4883000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2124400</v>
+        <v>-2268800</v>
       </c>
       <c r="K100" s="3">
         <v>-2905300</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>521700</v>
+        <v>557100</v>
       </c>
       <c r="E101" s="3">
-        <v>2165400</v>
+        <v>2312600</v>
       </c>
       <c r="F101" s="3">
-        <v>-539400</v>
+        <v>-576100</v>
       </c>
       <c r="G101" s="3">
-        <v>-304600</v>
+        <v>-325300</v>
       </c>
       <c r="H101" s="3">
-        <v>1307000</v>
+        <v>1395800</v>
       </c>
       <c r="I101" s="3">
-        <v>775300</v>
+        <v>828000</v>
       </c>
       <c r="J101" s="3">
-        <v>-1510800</v>
+        <v>-1613500</v>
       </c>
       <c r="K101" s="3">
         <v>-368900</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10286300</v>
+        <v>-10985600</v>
       </c>
       <c r="E102" s="3">
-        <v>12608900</v>
+        <v>13466100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2669300</v>
+        <v>-2850800</v>
       </c>
       <c r="G102" s="3">
-        <v>129600</v>
+        <v>138400</v>
       </c>
       <c r="H102" s="3">
-        <v>4429300</v>
+        <v>4730400</v>
       </c>
       <c r="I102" s="3">
-        <v>1278200</v>
+        <v>1365100</v>
       </c>
       <c r="J102" s="3">
-        <v>-10471300</v>
+        <v>-11183100</v>
       </c>
       <c r="K102" s="3">
         <v>63700</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>158431700</v>
+        <v>160213000</v>
       </c>
       <c r="E8" s="3">
-        <v>127372300</v>
+        <v>128804400</v>
       </c>
       <c r="F8" s="3">
-        <v>157197900</v>
+        <v>158965400</v>
       </c>
       <c r="G8" s="3">
-        <v>151206600</v>
+        <v>152906700</v>
       </c>
       <c r="H8" s="3">
-        <v>137431700</v>
+        <v>138976900</v>
       </c>
       <c r="I8" s="3">
-        <v>144404900</v>
+        <v>146028500</v>
       </c>
       <c r="J8" s="3">
-        <v>148656200</v>
+        <v>150327700</v>
       </c>
       <c r="K8" s="3">
         <v>132761400</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>136894700</v>
+        <v>138433800</v>
       </c>
       <c r="E9" s="3">
-        <v>102941900</v>
+        <v>104099300</v>
       </c>
       <c r="F9" s="3">
-        <v>134920400</v>
+        <v>136437400</v>
       </c>
       <c r="G9" s="3">
-        <v>127213800</v>
+        <v>128644100</v>
       </c>
       <c r="H9" s="3">
-        <v>114455000</v>
+        <v>115741900</v>
       </c>
       <c r="I9" s="3">
-        <v>123020400</v>
+        <v>124403600</v>
       </c>
       <c r="J9" s="3">
-        <v>127844300</v>
+        <v>129281700</v>
       </c>
       <c r="K9" s="3">
         <v>114643300</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21537100</v>
+        <v>21779200</v>
       </c>
       <c r="E10" s="3">
-        <v>24430400</v>
+        <v>24705100</v>
       </c>
       <c r="F10" s="3">
-        <v>22277600</v>
+        <v>22528000</v>
       </c>
       <c r="G10" s="3">
-        <v>23992800</v>
+        <v>24262500</v>
       </c>
       <c r="H10" s="3">
-        <v>22976600</v>
+        <v>23235000</v>
       </c>
       <c r="I10" s="3">
-        <v>21384500</v>
+        <v>21624900</v>
       </c>
       <c r="J10" s="3">
-        <v>20811900</v>
+        <v>21045900</v>
       </c>
       <c r="K10" s="3">
         <v>18118100</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1158100</v>
+        <v>1171100</v>
       </c>
       <c r="E14" s="3">
-        <v>9122500</v>
+        <v>9225100</v>
       </c>
       <c r="F14" s="3">
-        <v>489700</v>
+        <v>495200</v>
       </c>
       <c r="G14" s="3">
-        <v>1076400</v>
+        <v>1088500</v>
       </c>
       <c r="H14" s="3">
-        <v>992500</v>
+        <v>1003600</v>
       </c>
       <c r="I14" s="3">
-        <v>824500</v>
+        <v>833800</v>
       </c>
       <c r="J14" s="3">
-        <v>1065800</v>
+        <v>1077800</v>
       </c>
       <c r="K14" s="3">
         <v>815800</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>151523600</v>
+        <v>153227200</v>
       </c>
       <c r="E17" s="3">
-        <v>125237200</v>
+        <v>126645300</v>
       </c>
       <c r="F17" s="3">
-        <v>148048200</v>
+        <v>149712800</v>
       </c>
       <c r="G17" s="3">
-        <v>140384200</v>
+        <v>141962600</v>
       </c>
       <c r="H17" s="3">
-        <v>127978000</v>
+        <v>129416900</v>
       </c>
       <c r="I17" s="3">
-        <v>135284700</v>
+        <v>136805800</v>
       </c>
       <c r="J17" s="3">
-        <v>140698900</v>
+        <v>142280800</v>
       </c>
       <c r="K17" s="3">
         <v>126464300</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6908100</v>
+        <v>6985800</v>
       </c>
       <c r="E18" s="3">
-        <v>2135100</v>
+        <v>2159100</v>
       </c>
       <c r="F18" s="3">
-        <v>9149700</v>
+        <v>9252600</v>
       </c>
       <c r="G18" s="3">
-        <v>10822400</v>
+        <v>10944000</v>
       </c>
       <c r="H18" s="3">
-        <v>9453700</v>
+        <v>9560000</v>
       </c>
       <c r="I18" s="3">
-        <v>9120200</v>
+        <v>9222700</v>
       </c>
       <c r="J18" s="3">
-        <v>7957400</v>
+        <v>8046800</v>
       </c>
       <c r="K18" s="3">
         <v>6297000</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>596200</v>
+        <v>602900</v>
       </c>
       <c r="E20" s="3">
-        <v>339500</v>
+        <v>343300</v>
       </c>
       <c r="F20" s="3">
-        <v>314700</v>
+        <v>318200</v>
       </c>
       <c r="G20" s="3">
-        <v>257900</v>
+        <v>260800</v>
       </c>
       <c r="H20" s="3">
-        <v>253100</v>
+        <v>256000</v>
       </c>
       <c r="I20" s="3">
-        <v>-86400</v>
+        <v>-87300</v>
       </c>
       <c r="J20" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="K20" s="3">
         <v>129600</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9132600</v>
+        <v>9227900</v>
       </c>
       <c r="E21" s="3">
-        <v>3479300</v>
+        <v>3513900</v>
       </c>
       <c r="F21" s="3">
-        <v>9974400</v>
+        <v>10084200</v>
       </c>
       <c r="G21" s="3">
-        <v>11875400</v>
+        <v>12005400</v>
       </c>
       <c r="H21" s="3">
-        <v>10652300</v>
+        <v>10767900</v>
       </c>
       <c r="I21" s="3">
-        <v>9892900</v>
+        <v>10000300</v>
       </c>
       <c r="J21" s="3">
-        <v>9404500</v>
+        <v>9504500</v>
       </c>
       <c r="K21" s="3">
         <v>7972800</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>851700</v>
+        <v>861300</v>
       </c>
       <c r="E22" s="3">
-        <v>664800</v>
+        <v>672300</v>
       </c>
       <c r="F22" s="3">
-        <v>372600</v>
+        <v>376800</v>
       </c>
       <c r="G22" s="3">
-        <v>350100</v>
+        <v>354100</v>
       </c>
       <c r="H22" s="3">
-        <v>577300</v>
+        <v>583700</v>
       </c>
       <c r="I22" s="3">
-        <v>602100</v>
+        <v>608900</v>
       </c>
       <c r="J22" s="3">
-        <v>731000</v>
+        <v>739300</v>
       </c>
       <c r="K22" s="3">
         <v>623700</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6652600</v>
+        <v>6727400</v>
       </c>
       <c r="E23" s="3">
-        <v>1809800</v>
+        <v>1830200</v>
       </c>
       <c r="F23" s="3">
-        <v>9091800</v>
+        <v>9194000</v>
       </c>
       <c r="G23" s="3">
-        <v>10730100</v>
+        <v>10850700</v>
       </c>
       <c r="H23" s="3">
-        <v>9129600</v>
+        <v>9232300</v>
       </c>
       <c r="I23" s="3">
-        <v>8431700</v>
+        <v>8526500</v>
       </c>
       <c r="J23" s="3">
-        <v>7391900</v>
+        <v>7475100</v>
       </c>
       <c r="K23" s="3">
         <v>5802900</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1678500</v>
+        <v>1697400</v>
       </c>
       <c r="E24" s="3">
-        <v>1743600</v>
+        <v>1763200</v>
       </c>
       <c r="F24" s="3">
-        <v>1281100</v>
+        <v>1295500</v>
       </c>
       <c r="G24" s="3">
-        <v>2883900</v>
+        <v>2916300</v>
       </c>
       <c r="H24" s="3">
-        <v>2123300</v>
+        <v>2147200</v>
       </c>
       <c r="I24" s="3">
-        <v>2118600</v>
+        <v>2142400</v>
       </c>
       <c r="J24" s="3">
-        <v>1729400</v>
+        <v>1748800</v>
       </c>
       <c r="K24" s="3">
         <v>1205600</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4974100</v>
+        <v>5030000</v>
       </c>
       <c r="E26" s="3">
-        <v>66200</v>
+        <v>67000</v>
       </c>
       <c r="F26" s="3">
-        <v>7810700</v>
+        <v>7898500</v>
       </c>
       <c r="G26" s="3">
-        <v>7846200</v>
+        <v>7934400</v>
       </c>
       <c r="H26" s="3">
-        <v>7006300</v>
+        <v>7085100</v>
       </c>
       <c r="I26" s="3">
-        <v>6313100</v>
+        <v>6384100</v>
       </c>
       <c r="J26" s="3">
-        <v>5662500</v>
+        <v>5726200</v>
       </c>
       <c r="K26" s="3">
         <v>4597300</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4291600</v>
+        <v>4339800</v>
       </c>
       <c r="E27" s="3">
-        <v>2727800</v>
+        <v>2758400</v>
       </c>
       <c r="F27" s="3">
-        <v>7073700</v>
+        <v>7153300</v>
       </c>
       <c r="G27" s="3">
-        <v>7098600</v>
+        <v>7178400</v>
       </c>
       <c r="H27" s="3">
-        <v>6207900</v>
+        <v>6277700</v>
       </c>
       <c r="I27" s="3">
-        <v>5582100</v>
+        <v>5644900</v>
       </c>
       <c r="J27" s="3">
-        <v>4965800</v>
+        <v>5021600</v>
       </c>
       <c r="K27" s="3">
         <v>4134000</v>
@@ -1355,19 +1355,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-28400</v>
+        <v>-28700</v>
       </c>
       <c r="E29" s="3">
-        <v>-506300</v>
+        <v>-512000</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-519300</v>
+        <v>-525100</v>
       </c>
       <c r="H29" s="3">
-        <v>75700</v>
+        <v>76600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-596200</v>
+        <v>-602900</v>
       </c>
       <c r="E32" s="3">
-        <v>-339500</v>
+        <v>-343300</v>
       </c>
       <c r="F32" s="3">
-        <v>-314700</v>
+        <v>-318200</v>
       </c>
       <c r="G32" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="H32" s="3">
-        <v>-253100</v>
+        <v>-256000</v>
       </c>
       <c r="I32" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="J32" s="3">
-        <v>-165600</v>
+        <v>-167500</v>
       </c>
       <c r="K32" s="3">
         <v>-129600</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4263200</v>
+        <v>4311100</v>
       </c>
       <c r="E33" s="3">
-        <v>2221500</v>
+        <v>2246500</v>
       </c>
       <c r="F33" s="3">
-        <v>7073700</v>
+        <v>7153300</v>
       </c>
       <c r="G33" s="3">
-        <v>6579300</v>
+        <v>6653300</v>
       </c>
       <c r="H33" s="3">
-        <v>6283600</v>
+        <v>6354200</v>
       </c>
       <c r="I33" s="3">
-        <v>5582100</v>
+        <v>5644900</v>
       </c>
       <c r="J33" s="3">
-        <v>4965800</v>
+        <v>5021600</v>
       </c>
       <c r="K33" s="3">
         <v>4134000</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4263200</v>
+        <v>4311100</v>
       </c>
       <c r="E35" s="3">
-        <v>2221500</v>
+        <v>2246500</v>
       </c>
       <c r="F35" s="3">
-        <v>7073700</v>
+        <v>7153300</v>
       </c>
       <c r="G35" s="3">
-        <v>6579300</v>
+        <v>6653300</v>
       </c>
       <c r="H35" s="3">
-        <v>6283600</v>
+        <v>6354200</v>
       </c>
       <c r="I35" s="3">
-        <v>5582100</v>
+        <v>5644900</v>
       </c>
       <c r="J35" s="3">
-        <v>4965800</v>
+        <v>5021600</v>
       </c>
       <c r="K35" s="3">
         <v>4134000</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25962300</v>
+        <v>26254200</v>
       </c>
       <c r="E41" s="3">
-        <v>37059100</v>
+        <v>37475700</v>
       </c>
       <c r="F41" s="3">
-        <v>28268900</v>
+        <v>28586800</v>
       </c>
       <c r="G41" s="3">
-        <v>31126800</v>
+        <v>31476800</v>
       </c>
       <c r="H41" s="3">
-        <v>31080700</v>
+        <v>31430200</v>
       </c>
       <c r="I41" s="3">
-        <v>26080600</v>
+        <v>26373800</v>
       </c>
       <c r="J41" s="3">
-        <v>25379100</v>
+        <v>25664500</v>
       </c>
       <c r="K41" s="3">
         <v>33539500</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46712700</v>
+        <v>47237900</v>
       </c>
       <c r="E43" s="3">
-        <v>49621500</v>
+        <v>50179400</v>
       </c>
       <c r="F43" s="3">
-        <v>35772100</v>
+        <v>36174300</v>
       </c>
       <c r="G43" s="3">
-        <v>41206300</v>
+        <v>41669600</v>
       </c>
       <c r="H43" s="3">
-        <v>37506200</v>
+        <v>37927900</v>
       </c>
       <c r="I43" s="3">
-        <v>34375100</v>
+        <v>34761600</v>
       </c>
       <c r="J43" s="3">
-        <v>32804200</v>
+        <v>33173000</v>
       </c>
       <c r="K43" s="3">
         <v>53363900</v>
@@ -1852,22 +1852,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>615747000</v>
+        <v>622670000</v>
       </c>
       <c r="E47" s="3">
-        <v>675838000</v>
+        <v>683437000</v>
       </c>
       <c r="F47" s="3">
-        <v>655606000</v>
+        <v>662977000</v>
       </c>
       <c r="G47" s="3">
-        <v>673841000</v>
+        <v>681418000</v>
       </c>
       <c r="H47" s="3">
-        <v>640128000</v>
+        <v>647325000</v>
       </c>
       <c r="I47" s="3">
-        <v>619659000</v>
+        <v>626626000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30960000</v>
+        <v>31308100</v>
       </c>
       <c r="E48" s="3">
-        <v>26660200</v>
+        <v>26960000</v>
       </c>
       <c r="F48" s="3">
-        <v>28958600</v>
+        <v>29284200</v>
       </c>
       <c r="G48" s="3">
-        <v>27078900</v>
+        <v>27383400</v>
       </c>
       <c r="H48" s="3">
-        <v>25788400</v>
+        <v>26078400</v>
       </c>
       <c r="I48" s="3">
-        <v>23577600</v>
+        <v>23842700</v>
       </c>
       <c r="J48" s="3">
-        <v>22165200</v>
+        <v>22414400</v>
       </c>
       <c r="K48" s="3">
         <v>20476600</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26790300</v>
+        <v>27091500</v>
       </c>
       <c r="E49" s="3">
-        <v>25800200</v>
+        <v>26090300</v>
       </c>
       <c r="F49" s="3">
-        <v>21955800</v>
+        <v>22202700</v>
       </c>
       <c r="G49" s="3">
-        <v>23600000</v>
+        <v>23865400</v>
       </c>
       <c r="H49" s="3">
-        <v>24059000</v>
+        <v>24329500</v>
       </c>
       <c r="I49" s="3">
-        <v>22714000</v>
+        <v>22969400</v>
       </c>
       <c r="J49" s="3">
-        <v>42532400</v>
+        <v>43010600</v>
       </c>
       <c r="K49" s="3">
         <v>44897200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42873000</v>
+        <v>43355100</v>
       </c>
       <c r="E52" s="3">
-        <v>32292000</v>
+        <v>32655100</v>
       </c>
       <c r="F52" s="3">
-        <v>6927100</v>
+        <v>7004900</v>
       </c>
       <c r="G52" s="3">
-        <v>2977400</v>
+        <v>3010800</v>
       </c>
       <c r="H52" s="3">
-        <v>5998500</v>
+        <v>6065900</v>
       </c>
       <c r="I52" s="3">
-        <v>3060200</v>
+        <v>3094600</v>
       </c>
       <c r="J52" s="3">
-        <v>2843700</v>
+        <v>2875700</v>
       </c>
       <c r="K52" s="3">
         <v>3563000</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>923701000</v>
+        <v>934086000</v>
       </c>
       <c r="E54" s="3">
-        <v>1100920000</v>
+        <v>1113300000</v>
       </c>
       <c r="F54" s="3">
-        <v>1029270000</v>
+        <v>1040850000</v>
       </c>
       <c r="G54" s="3">
-        <v>1056070000</v>
+        <v>1067950000</v>
       </c>
       <c r="H54" s="3">
-        <v>1049320000</v>
+        <v>1061110000</v>
       </c>
       <c r="I54" s="3">
-        <v>993718000</v>
+        <v>1004890000</v>
       </c>
       <c r="J54" s="3">
-        <v>893611000</v>
+        <v>903659000</v>
       </c>
       <c r="K54" s="3">
         <v>836525000</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>824500</v>
+        <v>833800</v>
       </c>
       <c r="E58" s="3">
-        <v>1685600</v>
+        <v>1704600</v>
       </c>
       <c r="F58" s="3">
-        <v>2751400</v>
+        <v>2782400</v>
       </c>
       <c r="G58" s="3">
-        <v>4465400</v>
+        <v>4515700</v>
       </c>
       <c r="H58" s="3">
-        <v>3888200</v>
+        <v>3931900</v>
       </c>
       <c r="I58" s="3">
-        <v>3294400</v>
+        <v>3331400</v>
       </c>
       <c r="J58" s="3">
-        <v>6060000</v>
+        <v>6128100</v>
       </c>
       <c r="K58" s="3">
         <v>4952000</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>223365000</v>
+        <v>225876000</v>
       </c>
       <c r="E59" s="3">
-        <v>350877000</v>
+        <v>354822000</v>
       </c>
       <c r="F59" s="3">
-        <v>348874000</v>
+        <v>352797000</v>
       </c>
       <c r="G59" s="3">
-        <v>350525000</v>
+        <v>354466000</v>
       </c>
       <c r="H59" s="3">
-        <v>374587000</v>
+        <v>378798000</v>
       </c>
       <c r="I59" s="3">
-        <v>358166000</v>
+        <v>362193000</v>
       </c>
       <c r="J59" s="3">
-        <v>343061000</v>
+        <v>346918000</v>
       </c>
       <c r="K59" s="3">
         <v>301801000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17904400</v>
+        <v>18105700</v>
       </c>
       <c r="E61" s="3">
-        <v>20829700</v>
+        <v>21063900</v>
       </c>
       <c r="F61" s="3">
-        <v>11254100</v>
+        <v>11380600</v>
       </c>
       <c r="G61" s="3">
-        <v>9999100</v>
+        <v>10111500</v>
       </c>
       <c r="H61" s="3">
-        <v>9153300</v>
+        <v>9256200</v>
       </c>
       <c r="I61" s="3">
-        <v>8798400</v>
+        <v>8897300</v>
       </c>
       <c r="J61" s="3">
-        <v>8854000</v>
+        <v>8953600</v>
       </c>
       <c r="K61" s="3">
         <v>16658900</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16858700</v>
+        <v>17048200</v>
       </c>
       <c r="E62" s="3">
-        <v>15776300</v>
+        <v>15953700</v>
       </c>
       <c r="F62" s="3">
-        <v>17576700</v>
+        <v>17774300</v>
       </c>
       <c r="G62" s="3">
-        <v>20020600</v>
+        <v>20245700</v>
       </c>
       <c r="H62" s="3">
-        <v>18370400</v>
+        <v>18577000</v>
       </c>
       <c r="I62" s="3">
-        <v>18757200</v>
+        <v>18968100</v>
       </c>
       <c r="J62" s="3">
-        <v>14478700</v>
+        <v>14641500</v>
       </c>
       <c r="K62" s="3">
         <v>16362400</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>841019000</v>
+        <v>850476000</v>
       </c>
       <c r="E66" s="3">
-        <v>1027070000</v>
+        <v>1038620000</v>
       </c>
       <c r="F66" s="3">
-        <v>946932000</v>
+        <v>957578000</v>
       </c>
       <c r="G66" s="3">
-        <v>972564000</v>
+        <v>983499000</v>
       </c>
       <c r="H66" s="3">
-        <v>968316000</v>
+        <v>979203000</v>
       </c>
       <c r="I66" s="3">
-        <v>916570000</v>
+        <v>926876000</v>
       </c>
       <c r="J66" s="3">
-        <v>831007000</v>
+        <v>840351000</v>
       </c>
       <c r="K66" s="3">
         <v>777665000</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30675000</v>
+        <v>31019900</v>
       </c>
       <c r="E72" s="3">
-        <v>31401300</v>
+        <v>31754300</v>
       </c>
       <c r="F72" s="3">
-        <v>37960400</v>
+        <v>38387300</v>
       </c>
       <c r="G72" s="3">
-        <v>34842300</v>
+        <v>35234100</v>
       </c>
       <c r="H72" s="3">
-        <v>34139700</v>
+        <v>34523500</v>
       </c>
       <c r="I72" s="3">
-        <v>30175800</v>
+        <v>30515100</v>
       </c>
       <c r="J72" s="3">
-        <v>84184600</v>
+        <v>85131200</v>
       </c>
       <c r="K72" s="3">
         <v>59954100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82681200</v>
+        <v>83610800</v>
       </c>
       <c r="E76" s="3">
-        <v>73846100</v>
+        <v>74676400</v>
       </c>
       <c r="F76" s="3">
-        <v>82342900</v>
+        <v>83268700</v>
       </c>
       <c r="G76" s="3">
-        <v>83509200</v>
+        <v>84448100</v>
       </c>
       <c r="H76" s="3">
-        <v>80999100</v>
+        <v>81909800</v>
       </c>
       <c r="I76" s="3">
-        <v>77147600</v>
+        <v>78015000</v>
       </c>
       <c r="J76" s="3">
-        <v>62603800</v>
+        <v>63307700</v>
       </c>
       <c r="K76" s="3">
         <v>58859400</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4263200</v>
+        <v>4311100</v>
       </c>
       <c r="E81" s="3">
-        <v>2221500</v>
+        <v>2246500</v>
       </c>
       <c r="F81" s="3">
-        <v>7073700</v>
+        <v>7153300</v>
       </c>
       <c r="G81" s="3">
-        <v>6579300</v>
+        <v>6653300</v>
       </c>
       <c r="H81" s="3">
-        <v>6283600</v>
+        <v>6354200</v>
       </c>
       <c r="I81" s="3">
-        <v>5582100</v>
+        <v>5644900</v>
       </c>
       <c r="J81" s="3">
-        <v>4965800</v>
+        <v>5021600</v>
       </c>
       <c r="K81" s="3">
         <v>4134000</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1627700</v>
+        <v>1646000</v>
       </c>
       <c r="E83" s="3">
-        <v>1004300</v>
+        <v>1015600</v>
       </c>
       <c r="F83" s="3">
-        <v>509800</v>
+        <v>515600</v>
       </c>
       <c r="G83" s="3">
-        <v>794900</v>
+        <v>803800</v>
       </c>
       <c r="H83" s="3">
-        <v>945100</v>
+        <v>955800</v>
       </c>
       <c r="I83" s="3">
-        <v>858800</v>
+        <v>868400</v>
       </c>
       <c r="J83" s="3">
-        <v>1281100</v>
+        <v>1295500</v>
       </c>
       <c r="K83" s="3">
         <v>1543800</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9366200</v>
+        <v>9471500</v>
       </c>
       <c r="E89" s="3">
-        <v>9030300</v>
+        <v>9131800</v>
       </c>
       <c r="F89" s="3">
-        <v>19547400</v>
+        <v>19767200</v>
       </c>
       <c r="G89" s="3">
-        <v>16015300</v>
+        <v>16195400</v>
       </c>
       <c r="H89" s="3">
-        <v>21475500</v>
+        <v>21717000</v>
       </c>
       <c r="I89" s="3">
-        <v>15272400</v>
+        <v>15444100</v>
       </c>
       <c r="J89" s="3">
-        <v>6270600</v>
+        <v>6341100</v>
       </c>
       <c r="K89" s="3">
         <v>11545500</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-546500</v>
+        <v>-552600</v>
       </c>
       <c r="E91" s="3">
-        <v>-546500</v>
+        <v>-552600</v>
       </c>
       <c r="F91" s="3">
-        <v>-464900</v>
+        <v>-470100</v>
       </c>
       <c r="G91" s="3">
-        <v>-558300</v>
+        <v>-564600</v>
       </c>
       <c r="H91" s="3">
-        <v>-546500</v>
+        <v>-552600</v>
       </c>
       <c r="I91" s="3">
-        <v>-417600</v>
+        <v>-422300</v>
       </c>
       <c r="J91" s="3">
-        <v>-411600</v>
+        <v>-416300</v>
       </c>
       <c r="K91" s="3">
         <v>-372200</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12615600</v>
+        <v>-12757500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2512500</v>
+        <v>-2540700</v>
       </c>
       <c r="F94" s="3">
-        <v>-14593400</v>
+        <v>-14757500</v>
       </c>
       <c r="G94" s="3">
-        <v>-12147200</v>
+        <v>-12283800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11270700</v>
+        <v>-11397400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9852400</v>
+        <v>-9963100</v>
       </c>
       <c r="J94" s="3">
-        <v>-13571400</v>
+        <v>-13724000</v>
       </c>
       <c r="K94" s="3">
         <v>-8207600</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3865700</v>
+        <v>-3909200</v>
       </c>
       <c r="E96" s="3">
-        <v>-4038400</v>
+        <v>-4083800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3664600</v>
+        <v>-3705800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3457600</v>
+        <v>-3496500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3119300</v>
+        <v>-3154400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2643800</v>
+        <v>-2673500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2311400</v>
+        <v>-2337400</v>
       </c>
       <c r="K96" s="3">
         <v>-1968700</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8293300</v>
+        <v>-8386600</v>
       </c>
       <c r="E100" s="3">
-        <v>4635800</v>
+        <v>4687900</v>
       </c>
       <c r="F100" s="3">
-        <v>-7228700</v>
+        <v>-7310000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3404400</v>
+        <v>-3442700</v>
       </c>
       <c r="H100" s="3">
-        <v>-6870300</v>
+        <v>-6947500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4883000</v>
+        <v>-4937900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2268800</v>
+        <v>-2294300</v>
       </c>
       <c r="K100" s="3">
         <v>-2905300</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>557100</v>
+        <v>563400</v>
       </c>
       <c r="E101" s="3">
-        <v>2312600</v>
+        <v>2338600</v>
       </c>
       <c r="F101" s="3">
-        <v>-576100</v>
+        <v>-582500</v>
       </c>
       <c r="G101" s="3">
-        <v>-325300</v>
+        <v>-329000</v>
       </c>
       <c r="H101" s="3">
-        <v>1395800</v>
+        <v>1411500</v>
       </c>
       <c r="I101" s="3">
-        <v>828000</v>
+        <v>837300</v>
       </c>
       <c r="J101" s="3">
-        <v>-1613500</v>
+        <v>-1631600</v>
       </c>
       <c r="K101" s="3">
         <v>-368900</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10985600</v>
+        <v>-11109100</v>
       </c>
       <c r="E102" s="3">
-        <v>13466100</v>
+        <v>13617500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2850800</v>
+        <v>-2882800</v>
       </c>
       <c r="G102" s="3">
-        <v>138400</v>
+        <v>140000</v>
       </c>
       <c r="H102" s="3">
-        <v>4730400</v>
+        <v>4783600</v>
       </c>
       <c r="I102" s="3">
-        <v>1365100</v>
+        <v>1380400</v>
       </c>
       <c r="J102" s="3">
-        <v>-11183100</v>
+        <v>-11308900</v>
       </c>
       <c r="K102" s="3">
         <v>63700</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>160213000</v>
+        <v>133339100</v>
       </c>
       <c r="E8" s="3">
-        <v>128804400</v>
+        <v>157561100</v>
       </c>
       <c r="F8" s="3">
-        <v>158965400</v>
+        <v>126672400</v>
       </c>
       <c r="G8" s="3">
-        <v>152906700</v>
+        <v>156334100</v>
       </c>
       <c r="H8" s="3">
-        <v>138976900</v>
+        <v>150375700</v>
       </c>
       <c r="I8" s="3">
-        <v>146028500</v>
+        <v>136676500</v>
       </c>
       <c r="J8" s="3">
+        <v>143611400</v>
+      </c>
+      <c r="K8" s="3">
         <v>150327700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>132761400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119444600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>138433800</v>
+        <v>113226100</v>
       </c>
       <c r="E9" s="3">
-        <v>104099300</v>
+        <v>136142400</v>
       </c>
       <c r="F9" s="3">
-        <v>136437400</v>
+        <v>102376200</v>
       </c>
       <c r="G9" s="3">
-        <v>128644100</v>
+        <v>134179000</v>
       </c>
       <c r="H9" s="3">
-        <v>115741900</v>
+        <v>126514800</v>
       </c>
       <c r="I9" s="3">
-        <v>124403600</v>
+        <v>113826100</v>
       </c>
       <c r="J9" s="3">
+        <v>122344400</v>
+      </c>
+      <c r="K9" s="3">
         <v>129281700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114643300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99624800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21779200</v>
+        <v>20112900</v>
       </c>
       <c r="E10" s="3">
-        <v>24705100</v>
+        <v>21418700</v>
       </c>
       <c r="F10" s="3">
-        <v>22528000</v>
+        <v>24296200</v>
       </c>
       <c r="G10" s="3">
-        <v>24262500</v>
+        <v>22155100</v>
       </c>
       <c r="H10" s="3">
-        <v>23235000</v>
+        <v>23860900</v>
       </c>
       <c r="I10" s="3">
-        <v>21624900</v>
+        <v>22850400</v>
       </c>
       <c r="J10" s="3">
+        <v>21267000</v>
+      </c>
+      <c r="K10" s="3">
         <v>21045900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18118100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19819800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1171100</v>
+        <v>1411700</v>
       </c>
       <c r="E14" s="3">
-        <v>9225100</v>
+        <v>1151700</v>
       </c>
       <c r="F14" s="3">
-        <v>495200</v>
+        <v>9072400</v>
       </c>
       <c r="G14" s="3">
-        <v>1088500</v>
+        <v>487000</v>
       </c>
       <c r="H14" s="3">
-        <v>1003600</v>
+        <v>1070500</v>
       </c>
       <c r="I14" s="3">
-        <v>833800</v>
+        <v>987000</v>
       </c>
       <c r="J14" s="3">
+        <v>820000</v>
+      </c>
+      <c r="K14" s="3">
         <v>1077800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>815800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1426200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>206400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>292300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153227200</v>
+        <v>127045300</v>
       </c>
       <c r="E17" s="3">
-        <v>126645300</v>
+        <v>150691000</v>
       </c>
       <c r="F17" s="3">
-        <v>149712800</v>
+        <v>124549000</v>
       </c>
       <c r="G17" s="3">
-        <v>141962600</v>
+        <v>147234700</v>
       </c>
       <c r="H17" s="3">
-        <v>129416900</v>
+        <v>139612800</v>
       </c>
       <c r="I17" s="3">
-        <v>136805800</v>
+        <v>127274700</v>
       </c>
       <c r="J17" s="3">
+        <v>134541300</v>
+      </c>
+      <c r="K17" s="3">
         <v>142280800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126464300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113979300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6985800</v>
+        <v>6293700</v>
       </c>
       <c r="E18" s="3">
-        <v>2159100</v>
+        <v>6870200</v>
       </c>
       <c r="F18" s="3">
-        <v>9252600</v>
+        <v>2123400</v>
       </c>
       <c r="G18" s="3">
-        <v>10944000</v>
+        <v>9099500</v>
       </c>
       <c r="H18" s="3">
-        <v>9560000</v>
+        <v>10762900</v>
       </c>
       <c r="I18" s="3">
-        <v>9222700</v>
+        <v>9401800</v>
       </c>
       <c r="J18" s="3">
+        <v>9070000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8046800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6297000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5465300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>602900</v>
+        <v>470600</v>
       </c>
       <c r="E20" s="3">
-        <v>343300</v>
+        <v>592900</v>
       </c>
       <c r="F20" s="3">
-        <v>318200</v>
+        <v>337600</v>
       </c>
       <c r="G20" s="3">
-        <v>260800</v>
+        <v>312900</v>
       </c>
       <c r="H20" s="3">
-        <v>256000</v>
+        <v>256500</v>
       </c>
       <c r="I20" s="3">
-        <v>-87300</v>
+        <v>251700</v>
       </c>
       <c r="J20" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="K20" s="3">
         <v>167500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>129600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>72800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9227900</v>
+        <v>8153400</v>
       </c>
       <c r="E21" s="3">
-        <v>3513900</v>
+        <v>9088400</v>
       </c>
       <c r="F21" s="3">
-        <v>10084200</v>
+        <v>3463900</v>
       </c>
       <c r="G21" s="3">
-        <v>12005400</v>
+        <v>9921500</v>
       </c>
       <c r="H21" s="3">
-        <v>10767900</v>
+        <v>11813100</v>
       </c>
       <c r="I21" s="3">
-        <v>10000300</v>
+        <v>10597300</v>
       </c>
       <c r="J21" s="3">
+        <v>9841700</v>
+      </c>
+      <c r="K21" s="3">
         <v>9504500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7972800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6387300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>861300</v>
+        <v>1032900</v>
       </c>
       <c r="E22" s="3">
-        <v>672300</v>
+        <v>847000</v>
       </c>
       <c r="F22" s="3">
-        <v>376800</v>
+        <v>661100</v>
       </c>
       <c r="G22" s="3">
-        <v>354100</v>
+        <v>370600</v>
       </c>
       <c r="H22" s="3">
-        <v>583700</v>
+        <v>348200</v>
       </c>
       <c r="I22" s="3">
-        <v>608900</v>
+        <v>574100</v>
       </c>
       <c r="J22" s="3">
+        <v>598800</v>
+      </c>
+      <c r="K22" s="3">
         <v>739300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>623700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>386200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6727400</v>
+        <v>5731400</v>
       </c>
       <c r="E23" s="3">
-        <v>1830200</v>
+        <v>6616100</v>
       </c>
       <c r="F23" s="3">
-        <v>9194000</v>
+        <v>1799900</v>
       </c>
       <c r="G23" s="3">
-        <v>10850700</v>
+        <v>9041800</v>
       </c>
       <c r="H23" s="3">
-        <v>9232300</v>
+        <v>10671100</v>
       </c>
       <c r="I23" s="3">
-        <v>8526500</v>
+        <v>9079500</v>
       </c>
       <c r="J23" s="3">
+        <v>8385400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7475100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5802900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5151900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1697400</v>
+        <v>1812800</v>
       </c>
       <c r="E24" s="3">
-        <v>1763200</v>
+        <v>1669300</v>
       </c>
       <c r="F24" s="3">
-        <v>1295500</v>
+        <v>1734000</v>
       </c>
       <c r="G24" s="3">
-        <v>2916300</v>
+        <v>1274000</v>
       </c>
       <c r="H24" s="3">
-        <v>2147200</v>
+        <v>2868100</v>
       </c>
       <c r="I24" s="3">
-        <v>2142400</v>
+        <v>2111600</v>
       </c>
       <c r="J24" s="3">
+        <v>2106900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1748800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1205600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1186700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5030000</v>
+        <v>3918600</v>
       </c>
       <c r="E26" s="3">
-        <v>67000</v>
+        <v>4946800</v>
       </c>
       <c r="F26" s="3">
-        <v>7898500</v>
+        <v>65900</v>
       </c>
       <c r="G26" s="3">
-        <v>7934400</v>
+        <v>7767800</v>
       </c>
       <c r="H26" s="3">
-        <v>7085100</v>
+        <v>7803100</v>
       </c>
       <c r="I26" s="3">
-        <v>6384100</v>
+        <v>6967800</v>
       </c>
       <c r="J26" s="3">
+        <v>6278400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5726200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4597300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3965100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4339800</v>
+        <v>3513900</v>
       </c>
       <c r="E27" s="3">
-        <v>2758400</v>
+        <v>4268000</v>
       </c>
       <c r="F27" s="3">
-        <v>7153300</v>
+        <v>2712800</v>
       </c>
       <c r="G27" s="3">
-        <v>7178400</v>
+        <v>7034900</v>
       </c>
       <c r="H27" s="3">
-        <v>6277700</v>
+        <v>7059600</v>
       </c>
       <c r="I27" s="3">
-        <v>5644900</v>
+        <v>6173700</v>
       </c>
       <c r="J27" s="3">
+        <v>5551400</v>
+      </c>
+      <c r="K27" s="3">
         <v>5021600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4134000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,42 +1405,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-28700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-512000</v>
+        <v>-28200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-503500</v>
       </c>
       <c r="G29" s="3">
-        <v>-525100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>76600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-516400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>75300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1176200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-602900</v>
+        <v>-470600</v>
       </c>
       <c r="E32" s="3">
-        <v>-343300</v>
+        <v>-592900</v>
       </c>
       <c r="F32" s="3">
-        <v>-318200</v>
+        <v>-337600</v>
       </c>
       <c r="G32" s="3">
-        <v>-260800</v>
+        <v>-312900</v>
       </c>
       <c r="H32" s="3">
-        <v>-256000</v>
+        <v>-256500</v>
       </c>
       <c r="I32" s="3">
-        <v>87300</v>
+        <v>-251700</v>
       </c>
       <c r="J32" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-167500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-129600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-72800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4311100</v>
+        <v>3513900</v>
       </c>
       <c r="E33" s="3">
-        <v>2246500</v>
+        <v>4239700</v>
       </c>
       <c r="F33" s="3">
-        <v>7153300</v>
+        <v>2209300</v>
       </c>
       <c r="G33" s="3">
-        <v>6653300</v>
+        <v>7034900</v>
       </c>
       <c r="H33" s="3">
-        <v>6354200</v>
+        <v>6543100</v>
       </c>
       <c r="I33" s="3">
-        <v>5644900</v>
+        <v>6249000</v>
       </c>
       <c r="J33" s="3">
+        <v>5551400</v>
+      </c>
+      <c r="K33" s="3">
         <v>5021600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4134000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4576700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4311100</v>
+        <v>3513900</v>
       </c>
       <c r="E35" s="3">
-        <v>2246500</v>
+        <v>4239700</v>
       </c>
       <c r="F35" s="3">
-        <v>7153300</v>
+        <v>2209300</v>
       </c>
       <c r="G35" s="3">
-        <v>6653300</v>
+        <v>7034900</v>
       </c>
       <c r="H35" s="3">
-        <v>6354200</v>
+        <v>6543100</v>
       </c>
       <c r="I35" s="3">
-        <v>5644900</v>
+        <v>6249000</v>
       </c>
       <c r="J35" s="3">
+        <v>5551400</v>
+      </c>
+      <c r="K35" s="3">
         <v>5021600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4134000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4576700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26254200</v>
+        <v>33218000</v>
       </c>
       <c r="E41" s="3">
-        <v>37475700</v>
+        <v>25819600</v>
       </c>
       <c r="F41" s="3">
-        <v>28586800</v>
+        <v>36855400</v>
       </c>
       <c r="G41" s="3">
-        <v>31476800</v>
+        <v>28113600</v>
       </c>
       <c r="H41" s="3">
-        <v>31430200</v>
+        <v>30955800</v>
       </c>
       <c r="I41" s="3">
-        <v>26373800</v>
+        <v>30909900</v>
       </c>
       <c r="J41" s="3">
+        <v>25937300</v>
+      </c>
+      <c r="K41" s="3">
         <v>25664500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33539500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36472600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,42 +1802,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47237900</v>
+        <v>44303200</v>
       </c>
       <c r="E43" s="3">
-        <v>50179400</v>
+        <v>46456000</v>
       </c>
       <c r="F43" s="3">
-        <v>36174300</v>
+        <v>49348800</v>
       </c>
       <c r="G43" s="3">
-        <v>41669600</v>
+        <v>35575500</v>
       </c>
       <c r="H43" s="3">
-        <v>37927900</v>
+        <v>40979900</v>
       </c>
       <c r="I43" s="3">
-        <v>34761600</v>
+        <v>37300100</v>
       </c>
       <c r="J43" s="3">
+        <v>34186200</v>
+      </c>
+      <c r="K43" s="3">
         <v>33173000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53363900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38370700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,9 +1874,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1812,9 +1910,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1845,108 +1946,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>622670000</v>
+        <v>626829000</v>
       </c>
       <c r="E47" s="3">
-        <v>683437000</v>
+        <v>612363000</v>
       </c>
       <c r="F47" s="3">
-        <v>662977000</v>
+        <v>672124000</v>
       </c>
       <c r="G47" s="3">
-        <v>681418000</v>
+        <v>652003000</v>
       </c>
       <c r="H47" s="3">
-        <v>647325000</v>
+        <v>670139000</v>
       </c>
       <c r="I47" s="3">
-        <v>626626000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+        <v>636610000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>616254000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>723251000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31308100</v>
+        <v>33556800</v>
       </c>
       <c r="E48" s="3">
-        <v>26960000</v>
+        <v>30789900</v>
       </c>
       <c r="F48" s="3">
-        <v>29284200</v>
+        <v>26513700</v>
       </c>
       <c r="G48" s="3">
-        <v>27383400</v>
+        <v>28799400</v>
       </c>
       <c r="H48" s="3">
-        <v>26078400</v>
+        <v>26930100</v>
       </c>
       <c r="I48" s="3">
-        <v>23842700</v>
+        <v>25646700</v>
       </c>
       <c r="J48" s="3">
+        <v>23448000</v>
+      </c>
+      <c r="K48" s="3">
         <v>22414400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20476600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1655100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27091500</v>
+        <v>24720900</v>
       </c>
       <c r="E49" s="3">
-        <v>26090300</v>
+        <v>26643100</v>
       </c>
       <c r="F49" s="3">
-        <v>22202700</v>
+        <v>25658500</v>
       </c>
       <c r="G49" s="3">
-        <v>23865400</v>
+        <v>21835200</v>
       </c>
       <c r="H49" s="3">
-        <v>24329500</v>
+        <v>23470400</v>
       </c>
       <c r="I49" s="3">
-        <v>22969400</v>
+        <v>23926800</v>
       </c>
       <c r="J49" s="3">
+        <v>22589200</v>
+      </c>
+      <c r="K49" s="3">
         <v>43010600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44897200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30158700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43355100</v>
+        <v>39721100</v>
       </c>
       <c r="E52" s="3">
-        <v>32655100</v>
+        <v>42637400</v>
       </c>
       <c r="F52" s="3">
-        <v>7004900</v>
+        <v>32114500</v>
       </c>
       <c r="G52" s="3">
-        <v>3010800</v>
+        <v>6889000</v>
       </c>
       <c r="H52" s="3">
-        <v>6065900</v>
+        <v>2961000</v>
       </c>
       <c r="I52" s="3">
-        <v>3094600</v>
+        <v>5965500</v>
       </c>
       <c r="J52" s="3">
+        <v>3043300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2875700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3563000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5797400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>934086000</v>
+        <v>946519000</v>
       </c>
       <c r="E54" s="3">
-        <v>1113300000</v>
+        <v>918625000</v>
       </c>
       <c r="F54" s="3">
-        <v>1040850000</v>
+        <v>1094870000</v>
       </c>
       <c r="G54" s="3">
-        <v>1067950000</v>
+        <v>1023620000</v>
       </c>
       <c r="H54" s="3">
-        <v>1061110000</v>
+        <v>1050270000</v>
       </c>
       <c r="I54" s="3">
-        <v>1004890000</v>
+        <v>1043550000</v>
       </c>
       <c r="J54" s="3">
+        <v>988257000</v>
+      </c>
+      <c r="K54" s="3">
         <v>903659000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>836525000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>853599000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,8 +2269,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2172,75 +2302,84 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>833800</v>
+        <v>1894000</v>
       </c>
       <c r="E58" s="3">
-        <v>1704600</v>
+        <v>820000</v>
       </c>
       <c r="F58" s="3">
-        <v>2782400</v>
+        <v>1676400</v>
       </c>
       <c r="G58" s="3">
-        <v>4515700</v>
+        <v>2736300</v>
       </c>
       <c r="H58" s="3">
-        <v>3931900</v>
+        <v>4440900</v>
       </c>
       <c r="I58" s="3">
-        <v>3331400</v>
+        <v>3866800</v>
       </c>
       <c r="J58" s="3">
+        <v>3276300</v>
+      </c>
+      <c r="K58" s="3">
         <v>6128100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4952000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7362100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>225876000</v>
+        <v>230630000</v>
       </c>
       <c r="E59" s="3">
-        <v>354822000</v>
+        <v>222137000</v>
       </c>
       <c r="F59" s="3">
-        <v>352797000</v>
+        <v>348949000</v>
       </c>
       <c r="G59" s="3">
-        <v>354466000</v>
+        <v>346957000</v>
       </c>
       <c r="H59" s="3">
-        <v>378798000</v>
+        <v>348599000</v>
       </c>
       <c r="I59" s="3">
-        <v>362193000</v>
+        <v>372528000</v>
       </c>
       <c r="J59" s="3">
+        <v>356198000</v>
+      </c>
+      <c r="K59" s="3">
         <v>346918000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>301801000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55893300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2271,75 +2410,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18105700</v>
+        <v>16327300</v>
       </c>
       <c r="E61" s="3">
-        <v>21063900</v>
+        <v>17806000</v>
       </c>
       <c r="F61" s="3">
-        <v>11380600</v>
+        <v>20715200</v>
       </c>
       <c r="G61" s="3">
-        <v>10111500</v>
+        <v>11192300</v>
       </c>
       <c r="H61" s="3">
-        <v>9256200</v>
+        <v>9944100</v>
       </c>
       <c r="I61" s="3">
-        <v>8897300</v>
+        <v>9103000</v>
       </c>
       <c r="J61" s="3">
+        <v>8750100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8953600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16658900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12232300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17048200</v>
+        <v>17551900</v>
       </c>
       <c r="E62" s="3">
-        <v>15953700</v>
+        <v>16766100</v>
       </c>
       <c r="F62" s="3">
-        <v>17774300</v>
+        <v>15689600</v>
       </c>
       <c r="G62" s="3">
-        <v>20245700</v>
+        <v>17480100</v>
       </c>
       <c r="H62" s="3">
-        <v>18577000</v>
+        <v>19910600</v>
       </c>
       <c r="I62" s="3">
-        <v>18968100</v>
+        <v>18269500</v>
       </c>
       <c r="J62" s="3">
+        <v>18654200</v>
+      </c>
+      <c r="K62" s="3">
         <v>14641500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16362400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4453400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>850476000</v>
+        <v>862275000</v>
       </c>
       <c r="E66" s="3">
-        <v>1038620000</v>
+        <v>836398000</v>
       </c>
       <c r="F66" s="3">
-        <v>957578000</v>
+        <v>1021430000</v>
       </c>
       <c r="G66" s="3">
-        <v>983499000</v>
+        <v>941728000</v>
       </c>
       <c r="H66" s="3">
-        <v>979203000</v>
+        <v>967220000</v>
       </c>
       <c r="I66" s="3">
-        <v>926876000</v>
+        <v>962995000</v>
       </c>
       <c r="J66" s="3">
+        <v>911534000</v>
+      </c>
+      <c r="K66" s="3">
         <v>840351000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>777665000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>799115000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31019900</v>
+        <v>34099100</v>
       </c>
       <c r="E72" s="3">
-        <v>31754300</v>
+        <v>30506400</v>
       </c>
       <c r="F72" s="3">
-        <v>38387300</v>
+        <v>31228700</v>
       </c>
       <c r="G72" s="3">
-        <v>35234100</v>
+        <v>37751900</v>
       </c>
       <c r="H72" s="3">
-        <v>34523500</v>
+        <v>34650900</v>
       </c>
       <c r="I72" s="3">
-        <v>30515100</v>
+        <v>33952100</v>
       </c>
       <c r="J72" s="3">
+        <v>30010000</v>
+      </c>
+      <c r="K72" s="3">
         <v>85131200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59954100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24918800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83610800</v>
+        <v>84243200</v>
       </c>
       <c r="E76" s="3">
-        <v>74676400</v>
+        <v>82226800</v>
       </c>
       <c r="F76" s="3">
-        <v>83268700</v>
+        <v>73440300</v>
       </c>
       <c r="G76" s="3">
-        <v>84448100</v>
+        <v>81890400</v>
       </c>
       <c r="H76" s="3">
-        <v>81909800</v>
+        <v>83050300</v>
       </c>
       <c r="I76" s="3">
-        <v>78015000</v>
+        <v>80554000</v>
       </c>
       <c r="J76" s="3">
+        <v>76723600</v>
+      </c>
+      <c r="K76" s="3">
         <v>63307700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58859400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54484700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4311100</v>
+        <v>3513900</v>
       </c>
       <c r="E81" s="3">
-        <v>2246500</v>
+        <v>4239700</v>
       </c>
       <c r="F81" s="3">
-        <v>7153300</v>
+        <v>2209300</v>
       </c>
       <c r="G81" s="3">
-        <v>6653300</v>
+        <v>7034900</v>
       </c>
       <c r="H81" s="3">
-        <v>6354200</v>
+        <v>6543100</v>
       </c>
       <c r="I81" s="3">
-        <v>5644900</v>
+        <v>6249000</v>
       </c>
       <c r="J81" s="3">
+        <v>5551400</v>
+      </c>
+      <c r="K81" s="3">
         <v>5021600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4134000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4576700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1646000</v>
+        <v>1383400</v>
       </c>
       <c r="E83" s="3">
-        <v>1015600</v>
+        <v>1618700</v>
       </c>
       <c r="F83" s="3">
-        <v>515600</v>
+        <v>998800</v>
       </c>
       <c r="G83" s="3">
-        <v>803800</v>
+        <v>507000</v>
       </c>
       <c r="H83" s="3">
-        <v>955800</v>
+        <v>790500</v>
       </c>
       <c r="I83" s="3">
-        <v>868400</v>
+        <v>939900</v>
       </c>
       <c r="J83" s="3">
+        <v>854100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1295500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1543800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>848700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9471500</v>
+        <v>26625500</v>
       </c>
       <c r="E89" s="3">
-        <v>9131800</v>
+        <v>9326500</v>
       </c>
       <c r="F89" s="3">
-        <v>19767200</v>
+        <v>8980600</v>
       </c>
       <c r="G89" s="3">
-        <v>16195400</v>
+        <v>19440000</v>
       </c>
       <c r="H89" s="3">
-        <v>21717000</v>
+        <v>15927300</v>
       </c>
       <c r="I89" s="3">
-        <v>15444100</v>
+        <v>21357500</v>
       </c>
       <c r="J89" s="3">
+        <v>15188500</v>
+      </c>
+      <c r="K89" s="3">
         <v>6341100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11545500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20080400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-552600</v>
+        <v>-457600</v>
       </c>
       <c r="E91" s="3">
-        <v>-552600</v>
+        <v>-543500</v>
       </c>
       <c r="F91" s="3">
-        <v>-470100</v>
+        <v>-543500</v>
       </c>
       <c r="G91" s="3">
-        <v>-564600</v>
+        <v>-462300</v>
       </c>
       <c r="H91" s="3">
-        <v>-552600</v>
+        <v>-555300</v>
       </c>
       <c r="I91" s="3">
-        <v>-422300</v>
+        <v>-543500</v>
       </c>
       <c r="J91" s="3">
+        <v>-415300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-416300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-372200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-437800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12757500</v>
+        <v>-13447400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2540700</v>
+        <v>-12988600</v>
       </c>
       <c r="F94" s="3">
-        <v>-14757500</v>
+        <v>-2498700</v>
       </c>
       <c r="G94" s="3">
-        <v>-12283800</v>
+        <v>-14513200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11397400</v>
+        <v>-12080500</v>
       </c>
       <c r="I94" s="3">
-        <v>-9963100</v>
+        <v>-11208700</v>
       </c>
       <c r="J94" s="3">
+        <v>-9798200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13724000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8207600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4020300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3909200</v>
+        <v>-2050500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4083800</v>
+        <v>-3844500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3705800</v>
+        <v>-4016200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3496500</v>
+        <v>-3644500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3154400</v>
+        <v>-3438600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2673500</v>
+        <v>-3102200</v>
       </c>
       <c r="J96" s="3">
+        <v>-2629300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2337400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1968700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2076500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8386600</v>
+        <v>-5796100</v>
       </c>
       <c r="E100" s="3">
-        <v>4687900</v>
+        <v>-8207700</v>
       </c>
       <c r="F100" s="3">
-        <v>-7310000</v>
+        <v>4610300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3442700</v>
+        <v>-7189000</v>
       </c>
       <c r="H100" s="3">
-        <v>-6947500</v>
+        <v>-3385700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4937900</v>
+        <v>-6832500</v>
       </c>
       <c r="J100" s="3">
+        <v>-4856200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2294300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2905300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6526400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>563400</v>
+        <v>-867000</v>
       </c>
       <c r="E101" s="3">
-        <v>2338600</v>
+        <v>554100</v>
       </c>
       <c r="F101" s="3">
-        <v>-582500</v>
+        <v>2299900</v>
       </c>
       <c r="G101" s="3">
-        <v>-329000</v>
+        <v>-572900</v>
       </c>
       <c r="H101" s="3">
-        <v>1411500</v>
+        <v>-323500</v>
       </c>
       <c r="I101" s="3">
-        <v>837300</v>
+        <v>1388200</v>
       </c>
       <c r="J101" s="3">
+        <v>823500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1631600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-368900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>968400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11109100</v>
+        <v>6514900</v>
       </c>
       <c r="E102" s="3">
-        <v>13617500</v>
+        <v>-11315800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2882800</v>
+        <v>13392100</v>
       </c>
       <c r="G102" s="3">
-        <v>140000</v>
+        <v>-2835100</v>
       </c>
       <c r="H102" s="3">
-        <v>4783600</v>
+        <v>137600</v>
       </c>
       <c r="I102" s="3">
-        <v>1380400</v>
+        <v>4704400</v>
       </c>
       <c r="J102" s="3">
+        <v>1357600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11308900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>63700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10499700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>133339100</v>
+        <v>138846500</v>
       </c>
       <c r="E8" s="3">
-        <v>157561100</v>
+        <v>164069000</v>
       </c>
       <c r="F8" s="3">
-        <v>126672400</v>
+        <v>131904500</v>
       </c>
       <c r="G8" s="3">
-        <v>156334100</v>
+        <v>162791400</v>
       </c>
       <c r="H8" s="3">
-        <v>150375700</v>
+        <v>156586800</v>
       </c>
       <c r="I8" s="3">
-        <v>136676500</v>
+        <v>142321800</v>
       </c>
       <c r="J8" s="3">
-        <v>143611400</v>
+        <v>149543100</v>
       </c>
       <c r="K8" s="3">
         <v>150327700</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>113226100</v>
+        <v>117902800</v>
       </c>
       <c r="E9" s="3">
-        <v>136142400</v>
+        <v>141765600</v>
       </c>
       <c r="F9" s="3">
-        <v>102376200</v>
+        <v>106604800</v>
       </c>
       <c r="G9" s="3">
-        <v>134179000</v>
+        <v>139721100</v>
       </c>
       <c r="H9" s="3">
-        <v>126514800</v>
+        <v>131740300</v>
       </c>
       <c r="I9" s="3">
-        <v>113826100</v>
+        <v>118527600</v>
       </c>
       <c r="J9" s="3">
-        <v>122344400</v>
+        <v>127397700</v>
       </c>
       <c r="K9" s="3">
         <v>129281700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20112900</v>
+        <v>20943700</v>
       </c>
       <c r="E10" s="3">
-        <v>21418700</v>
+        <v>22303400</v>
       </c>
       <c r="F10" s="3">
-        <v>24296200</v>
+        <v>25299700</v>
       </c>
       <c r="G10" s="3">
-        <v>22155100</v>
+        <v>23070200</v>
       </c>
       <c r="H10" s="3">
-        <v>23860900</v>
+        <v>24846500</v>
       </c>
       <c r="I10" s="3">
-        <v>22850400</v>
+        <v>23794200</v>
       </c>
       <c r="J10" s="3">
-        <v>21267000</v>
+        <v>22145400</v>
       </c>
       <c r="K10" s="3">
         <v>21045900</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1411700</v>
+        <v>1470000</v>
       </c>
       <c r="E14" s="3">
-        <v>1151700</v>
+        <v>1199300</v>
       </c>
       <c r="F14" s="3">
-        <v>9072400</v>
+        <v>9447100</v>
       </c>
       <c r="G14" s="3">
-        <v>487000</v>
+        <v>507100</v>
       </c>
       <c r="H14" s="3">
-        <v>1070500</v>
+        <v>1114700</v>
       </c>
       <c r="I14" s="3">
-        <v>987000</v>
+        <v>1027800</v>
       </c>
       <c r="J14" s="3">
-        <v>820000</v>
+        <v>853800</v>
       </c>
       <c r="K14" s="3">
         <v>1077800</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>127045300</v>
+        <v>132292800</v>
       </c>
       <c r="E17" s="3">
-        <v>150691000</v>
+        <v>156915100</v>
       </c>
       <c r="F17" s="3">
-        <v>124549000</v>
+        <v>129693400</v>
       </c>
       <c r="G17" s="3">
-        <v>147234700</v>
+        <v>153316100</v>
       </c>
       <c r="H17" s="3">
-        <v>139612800</v>
+        <v>145379400</v>
       </c>
       <c r="I17" s="3">
-        <v>127274700</v>
+        <v>132531700</v>
       </c>
       <c r="J17" s="3">
-        <v>134541300</v>
+        <v>140098400</v>
       </c>
       <c r="K17" s="3">
         <v>142280800</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6293700</v>
+        <v>6553700</v>
       </c>
       <c r="E18" s="3">
-        <v>6870200</v>
+        <v>7153900</v>
       </c>
       <c r="F18" s="3">
-        <v>2123400</v>
+        <v>2211100</v>
       </c>
       <c r="G18" s="3">
-        <v>9099500</v>
+        <v>9475300</v>
       </c>
       <c r="H18" s="3">
-        <v>10762900</v>
+        <v>11207400</v>
       </c>
       <c r="I18" s="3">
-        <v>9401800</v>
+        <v>9790100</v>
       </c>
       <c r="J18" s="3">
-        <v>9070000</v>
+        <v>9444700</v>
       </c>
       <c r="K18" s="3">
         <v>8046800</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>470600</v>
+        <v>490000</v>
       </c>
       <c r="E20" s="3">
-        <v>592900</v>
+        <v>617400</v>
       </c>
       <c r="F20" s="3">
-        <v>337600</v>
+        <v>351600</v>
       </c>
       <c r="G20" s="3">
-        <v>312900</v>
+        <v>325800</v>
       </c>
       <c r="H20" s="3">
-        <v>256500</v>
+        <v>267000</v>
       </c>
       <c r="I20" s="3">
-        <v>251700</v>
+        <v>262100</v>
       </c>
       <c r="J20" s="3">
-        <v>-85900</v>
+        <v>-89400</v>
       </c>
       <c r="K20" s="3">
         <v>167500</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8153400</v>
+        <v>8480200</v>
       </c>
       <c r="E21" s="3">
-        <v>9088400</v>
+        <v>9452100</v>
       </c>
       <c r="F21" s="3">
-        <v>3463900</v>
+        <v>3599700</v>
       </c>
       <c r="G21" s="3">
-        <v>9921500</v>
+        <v>10327600</v>
       </c>
       <c r="H21" s="3">
-        <v>11813100</v>
+        <v>12295300</v>
       </c>
       <c r="I21" s="3">
-        <v>10597300</v>
+        <v>11028200</v>
       </c>
       <c r="J21" s="3">
-        <v>9841700</v>
+        <v>10242100</v>
       </c>
       <c r="K21" s="3">
         <v>9504500</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1032900</v>
+        <v>1075500</v>
       </c>
       <c r="E22" s="3">
-        <v>847000</v>
+        <v>882000</v>
       </c>
       <c r="F22" s="3">
-        <v>661100</v>
+        <v>688400</v>
       </c>
       <c r="G22" s="3">
-        <v>370600</v>
+        <v>385900</v>
       </c>
       <c r="H22" s="3">
-        <v>348200</v>
+        <v>362600</v>
       </c>
       <c r="I22" s="3">
-        <v>574100</v>
+        <v>597800</v>
       </c>
       <c r="J22" s="3">
-        <v>598800</v>
+        <v>623500</v>
       </c>
       <c r="K22" s="3">
         <v>739300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5731400</v>
+        <v>5968200</v>
       </c>
       <c r="E23" s="3">
-        <v>6616100</v>
+        <v>6889300</v>
       </c>
       <c r="F23" s="3">
-        <v>1799900</v>
+        <v>1874200</v>
       </c>
       <c r="G23" s="3">
-        <v>9041800</v>
+        <v>9415300</v>
       </c>
       <c r="H23" s="3">
-        <v>10671100</v>
+        <v>11111900</v>
       </c>
       <c r="I23" s="3">
-        <v>9079500</v>
+        <v>9454500</v>
       </c>
       <c r="J23" s="3">
-        <v>8385400</v>
+        <v>8731700</v>
       </c>
       <c r="K23" s="3">
         <v>7475100</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1812800</v>
+        <v>1887700</v>
       </c>
       <c r="E24" s="3">
-        <v>1669300</v>
+        <v>1738300</v>
       </c>
       <c r="F24" s="3">
-        <v>1734000</v>
+        <v>1805600</v>
       </c>
       <c r="G24" s="3">
-        <v>1274000</v>
+        <v>1326700</v>
       </c>
       <c r="H24" s="3">
-        <v>2868100</v>
+        <v>2986500</v>
       </c>
       <c r="I24" s="3">
-        <v>2111600</v>
+        <v>2198900</v>
       </c>
       <c r="J24" s="3">
-        <v>2106900</v>
+        <v>2194000</v>
       </c>
       <c r="K24" s="3">
         <v>1748800</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3918600</v>
+        <v>4080400</v>
       </c>
       <c r="E26" s="3">
-        <v>4946800</v>
+        <v>5151100</v>
       </c>
       <c r="F26" s="3">
-        <v>65900</v>
+        <v>68600</v>
       </c>
       <c r="G26" s="3">
-        <v>7767800</v>
+        <v>8088600</v>
       </c>
       <c r="H26" s="3">
-        <v>7803100</v>
+        <v>8125400</v>
       </c>
       <c r="I26" s="3">
-        <v>6967800</v>
+        <v>7255600</v>
       </c>
       <c r="J26" s="3">
-        <v>6278400</v>
+        <v>6537800</v>
       </c>
       <c r="K26" s="3">
         <v>5726200</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="E27" s="3">
-        <v>4268000</v>
+        <v>4444300</v>
       </c>
       <c r="F27" s="3">
-        <v>2712800</v>
+        <v>2824800</v>
       </c>
       <c r="G27" s="3">
-        <v>7034900</v>
+        <v>7325400</v>
       </c>
       <c r="H27" s="3">
-        <v>7059600</v>
+        <v>7351200</v>
       </c>
       <c r="I27" s="3">
-        <v>6173700</v>
+        <v>6428700</v>
       </c>
       <c r="J27" s="3">
-        <v>5551400</v>
+        <v>5780700</v>
       </c>
       <c r="K27" s="3">
         <v>5021600</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-28200</v>
+        <v>-29400</v>
       </c>
       <c r="F29" s="3">
-        <v>-503500</v>
+        <v>-524300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-516400</v>
+        <v>-537800</v>
       </c>
       <c r="I29" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-470600</v>
+        <v>-490000</v>
       </c>
       <c r="E32" s="3">
-        <v>-592900</v>
+        <v>-617400</v>
       </c>
       <c r="F32" s="3">
-        <v>-337600</v>
+        <v>-351600</v>
       </c>
       <c r="G32" s="3">
-        <v>-312900</v>
+        <v>-325800</v>
       </c>
       <c r="H32" s="3">
-        <v>-256500</v>
+        <v>-267000</v>
       </c>
       <c r="I32" s="3">
-        <v>-251700</v>
+        <v>-262100</v>
       </c>
       <c r="J32" s="3">
-        <v>85900</v>
+        <v>89400</v>
       </c>
       <c r="K32" s="3">
         <v>-167500</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="E33" s="3">
-        <v>4239700</v>
+        <v>4414900</v>
       </c>
       <c r="F33" s="3">
-        <v>2209300</v>
+        <v>2300500</v>
       </c>
       <c r="G33" s="3">
-        <v>7034900</v>
+        <v>7325400</v>
       </c>
       <c r="H33" s="3">
-        <v>6543100</v>
+        <v>6813400</v>
       </c>
       <c r="I33" s="3">
-        <v>6249000</v>
+        <v>6507100</v>
       </c>
       <c r="J33" s="3">
-        <v>5551400</v>
+        <v>5780700</v>
       </c>
       <c r="K33" s="3">
         <v>5021600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="E35" s="3">
-        <v>4239700</v>
+        <v>4414900</v>
       </c>
       <c r="F35" s="3">
-        <v>2209300</v>
+        <v>2300500</v>
       </c>
       <c r="G35" s="3">
-        <v>7034900</v>
+        <v>7325400</v>
       </c>
       <c r="H35" s="3">
-        <v>6543100</v>
+        <v>6813400</v>
       </c>
       <c r="I35" s="3">
-        <v>6249000</v>
+        <v>6507100</v>
       </c>
       <c r="J35" s="3">
-        <v>5551400</v>
+        <v>5780700</v>
       </c>
       <c r="K35" s="3">
         <v>5021600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33218000</v>
+        <v>34590000</v>
       </c>
       <c r="E41" s="3">
-        <v>25819600</v>
+        <v>26886100</v>
       </c>
       <c r="F41" s="3">
-        <v>36855400</v>
+        <v>38377700</v>
       </c>
       <c r="G41" s="3">
-        <v>28113600</v>
+        <v>29274800</v>
       </c>
       <c r="H41" s="3">
-        <v>30955800</v>
+        <v>32234400</v>
       </c>
       <c r="I41" s="3">
-        <v>30909900</v>
+        <v>32186600</v>
       </c>
       <c r="J41" s="3">
-        <v>25937300</v>
+        <v>27008600</v>
       </c>
       <c r="K41" s="3">
         <v>25664500</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44303200</v>
+        <v>46133100</v>
       </c>
       <c r="E43" s="3">
-        <v>46456000</v>
+        <v>48374900</v>
       </c>
       <c r="F43" s="3">
-        <v>49348800</v>
+        <v>51387100</v>
       </c>
       <c r="G43" s="3">
-        <v>35575500</v>
+        <v>37044900</v>
       </c>
       <c r="H43" s="3">
-        <v>40979900</v>
+        <v>42672500</v>
       </c>
       <c r="I43" s="3">
-        <v>37300100</v>
+        <v>38840800</v>
       </c>
       <c r="J43" s="3">
-        <v>34186200</v>
+        <v>35598200</v>
       </c>
       <c r="K43" s="3">
         <v>33173000</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>626829000</v>
+        <v>652720000</v>
       </c>
       <c r="E47" s="3">
-        <v>612363000</v>
+        <v>637656000</v>
       </c>
       <c r="F47" s="3">
-        <v>672124000</v>
+        <v>699886000</v>
       </c>
       <c r="G47" s="3">
-        <v>652003000</v>
+        <v>678934000</v>
       </c>
       <c r="H47" s="3">
-        <v>670139000</v>
+        <v>697818000</v>
       </c>
       <c r="I47" s="3">
-        <v>636610000</v>
+        <v>662905000</v>
       </c>
       <c r="J47" s="3">
-        <v>616254000</v>
+        <v>641707000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33556800</v>
+        <v>34942800</v>
       </c>
       <c r="E48" s="3">
-        <v>30789900</v>
+        <v>32061700</v>
       </c>
       <c r="F48" s="3">
-        <v>26513700</v>
+        <v>27608800</v>
       </c>
       <c r="G48" s="3">
-        <v>28799400</v>
+        <v>29989000</v>
       </c>
       <c r="H48" s="3">
-        <v>26930100</v>
+        <v>28042500</v>
       </c>
       <c r="I48" s="3">
-        <v>25646700</v>
+        <v>26706000</v>
       </c>
       <c r="J48" s="3">
-        <v>23448000</v>
+        <v>24416500</v>
       </c>
       <c r="K48" s="3">
         <v>22414400</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24720900</v>
+        <v>25741900</v>
       </c>
       <c r="E49" s="3">
-        <v>26643100</v>
+        <v>27743600</v>
       </c>
       <c r="F49" s="3">
-        <v>25658500</v>
+        <v>26718300</v>
       </c>
       <c r="G49" s="3">
-        <v>21835200</v>
+        <v>22737000</v>
       </c>
       <c r="H49" s="3">
-        <v>23470400</v>
+        <v>24439800</v>
       </c>
       <c r="I49" s="3">
-        <v>23926800</v>
+        <v>24915100</v>
       </c>
       <c r="J49" s="3">
-        <v>22589200</v>
+        <v>23522300</v>
       </c>
       <c r="K49" s="3">
         <v>43010600</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39721100</v>
+        <v>41361800</v>
       </c>
       <c r="E52" s="3">
-        <v>42637400</v>
+        <v>44398500</v>
       </c>
       <c r="F52" s="3">
-        <v>32114500</v>
+        <v>33441000</v>
       </c>
       <c r="G52" s="3">
-        <v>6889000</v>
+        <v>7173500</v>
       </c>
       <c r="H52" s="3">
-        <v>2961000</v>
+        <v>3083300</v>
       </c>
       <c r="I52" s="3">
-        <v>5965500</v>
+        <v>6211900</v>
       </c>
       <c r="J52" s="3">
-        <v>3043300</v>
+        <v>3169000</v>
       </c>
       <c r="K52" s="3">
         <v>2875700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>946519000</v>
+        <v>985614000</v>
       </c>
       <c r="E54" s="3">
-        <v>918625000</v>
+        <v>956568000</v>
       </c>
       <c r="F54" s="3">
-        <v>1094870000</v>
+        <v>1140090000</v>
       </c>
       <c r="G54" s="3">
-        <v>1023620000</v>
+        <v>1065900000</v>
       </c>
       <c r="H54" s="3">
-        <v>1050270000</v>
+        <v>1093650000</v>
       </c>
       <c r="I54" s="3">
-        <v>1043550000</v>
+        <v>1086650000</v>
       </c>
       <c r="J54" s="3">
-        <v>988257000</v>
+        <v>1029080000</v>
       </c>
       <c r="K54" s="3">
         <v>903659000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1894000</v>
+        <v>1972200</v>
       </c>
       <c r="E58" s="3">
-        <v>820000</v>
+        <v>853800</v>
       </c>
       <c r="F58" s="3">
-        <v>1676400</v>
+        <v>1745600</v>
       </c>
       <c r="G58" s="3">
-        <v>2736300</v>
+        <v>2849300</v>
       </c>
       <c r="H58" s="3">
-        <v>4440900</v>
+        <v>4624300</v>
       </c>
       <c r="I58" s="3">
-        <v>3866800</v>
+        <v>4026500</v>
       </c>
       <c r="J58" s="3">
-        <v>3276300</v>
+        <v>3411600</v>
       </c>
       <c r="K58" s="3">
         <v>6128100</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230630000</v>
+        <v>231636000</v>
       </c>
       <c r="E59" s="3">
-        <v>222137000</v>
+        <v>219446000</v>
       </c>
       <c r="F59" s="3">
-        <v>348949000</v>
+        <v>354320000</v>
       </c>
       <c r="G59" s="3">
-        <v>346957000</v>
+        <v>361288000</v>
       </c>
       <c r="H59" s="3">
-        <v>348599000</v>
+        <v>362998000</v>
       </c>
       <c r="I59" s="3">
-        <v>372528000</v>
+        <v>387915000</v>
       </c>
       <c r="J59" s="3">
-        <v>356198000</v>
+        <v>370910000</v>
       </c>
       <c r="K59" s="3">
         <v>346918000</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16327300</v>
+        <v>25521400</v>
       </c>
       <c r="E61" s="3">
-        <v>17806000</v>
+        <v>30407900</v>
       </c>
       <c r="F61" s="3">
-        <v>20715200</v>
+        <v>30612500</v>
       </c>
       <c r="G61" s="3">
-        <v>11192300</v>
+        <v>11654600</v>
       </c>
       <c r="H61" s="3">
-        <v>9944100</v>
+        <v>10354800</v>
       </c>
       <c r="I61" s="3">
-        <v>9103000</v>
+        <v>9479000</v>
       </c>
       <c r="J61" s="3">
-        <v>8750100</v>
+        <v>9111500</v>
       </c>
       <c r="K61" s="3">
         <v>8953600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17551900</v>
+        <v>18276900</v>
       </c>
       <c r="E62" s="3">
-        <v>16766100</v>
+        <v>17458600</v>
       </c>
       <c r="F62" s="3">
-        <v>15689600</v>
+        <v>16337700</v>
       </c>
       <c r="G62" s="3">
-        <v>17480100</v>
+        <v>18202100</v>
       </c>
       <c r="H62" s="3">
-        <v>19910600</v>
+        <v>20733000</v>
       </c>
       <c r="I62" s="3">
-        <v>18269500</v>
+        <v>19024100</v>
       </c>
       <c r="J62" s="3">
-        <v>18654200</v>
+        <v>19424700</v>
       </c>
       <c r="K62" s="3">
         <v>14641500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>862275000</v>
+        <v>897891000</v>
       </c>
       <c r="E66" s="3">
-        <v>836398000</v>
+        <v>870945000</v>
       </c>
       <c r="F66" s="3">
-        <v>1021430000</v>
+        <v>1063620000</v>
       </c>
       <c r="G66" s="3">
-        <v>941728000</v>
+        <v>980625000</v>
       </c>
       <c r="H66" s="3">
-        <v>967220000</v>
+        <v>1007170000</v>
       </c>
       <c r="I66" s="3">
-        <v>962995000</v>
+        <v>1002770000</v>
       </c>
       <c r="J66" s="3">
-        <v>911534000</v>
+        <v>949184000</v>
       </c>
       <c r="K66" s="3">
         <v>840351000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34099100</v>
+        <v>35507600</v>
       </c>
       <c r="E72" s="3">
-        <v>30506400</v>
+        <v>31766400</v>
       </c>
       <c r="F72" s="3">
-        <v>31228700</v>
+        <v>32518600</v>
       </c>
       <c r="G72" s="3">
-        <v>37751900</v>
+        <v>39311200</v>
       </c>
       <c r="H72" s="3">
-        <v>34650900</v>
+        <v>36082100</v>
       </c>
       <c r="I72" s="3">
-        <v>33952100</v>
+        <v>35354400</v>
       </c>
       <c r="J72" s="3">
-        <v>30010000</v>
+        <v>31249500</v>
       </c>
       <c r="K72" s="3">
         <v>85131200</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84243200</v>
+        <v>87722800</v>
       </c>
       <c r="E76" s="3">
-        <v>82226800</v>
+        <v>85623100</v>
       </c>
       <c r="F76" s="3">
-        <v>73440300</v>
+        <v>76473700</v>
       </c>
       <c r="G76" s="3">
-        <v>81890400</v>
+        <v>85272800</v>
       </c>
       <c r="H76" s="3">
-        <v>83050300</v>
+        <v>86480600</v>
       </c>
       <c r="I76" s="3">
-        <v>80554000</v>
+        <v>83881200</v>
       </c>
       <c r="J76" s="3">
-        <v>76723600</v>
+        <v>79892600</v>
       </c>
       <c r="K76" s="3">
         <v>63307700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="E81" s="3">
-        <v>4239700</v>
+        <v>4414900</v>
       </c>
       <c r="F81" s="3">
-        <v>2209300</v>
+        <v>2300500</v>
       </c>
       <c r="G81" s="3">
-        <v>7034900</v>
+        <v>7325400</v>
       </c>
       <c r="H81" s="3">
-        <v>6543100</v>
+        <v>6813400</v>
       </c>
       <c r="I81" s="3">
-        <v>6249000</v>
+        <v>6507100</v>
       </c>
       <c r="J81" s="3">
-        <v>5551400</v>
+        <v>5780700</v>
       </c>
       <c r="K81" s="3">
         <v>5021600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1383400</v>
+        <v>1440600</v>
       </c>
       <c r="E83" s="3">
-        <v>1618700</v>
+        <v>1685600</v>
       </c>
       <c r="F83" s="3">
-        <v>998800</v>
+        <v>1040000</v>
       </c>
       <c r="G83" s="3">
-        <v>507000</v>
+        <v>528000</v>
       </c>
       <c r="H83" s="3">
-        <v>790500</v>
+        <v>823200</v>
       </c>
       <c r="I83" s="3">
-        <v>939900</v>
+        <v>978800</v>
       </c>
       <c r="J83" s="3">
-        <v>854100</v>
+        <v>889300</v>
       </c>
       <c r="K83" s="3">
         <v>1295500</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26625500</v>
+        <v>27725200</v>
       </c>
       <c r="E89" s="3">
-        <v>9326500</v>
+        <v>9711700</v>
       </c>
       <c r="F89" s="3">
-        <v>8980600</v>
+        <v>9351600</v>
       </c>
       <c r="G89" s="3">
-        <v>19440000</v>
+        <v>20243000</v>
       </c>
       <c r="H89" s="3">
-        <v>15927300</v>
+        <v>16585100</v>
       </c>
       <c r="I89" s="3">
-        <v>21357500</v>
+        <v>22239700</v>
       </c>
       <c r="J89" s="3">
-        <v>15188500</v>
+        <v>15815800</v>
       </c>
       <c r="K89" s="3">
         <v>6341100</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-457600</v>
+        <v>-476500</v>
       </c>
       <c r="E91" s="3">
-        <v>-543500</v>
+        <v>-565900</v>
       </c>
       <c r="F91" s="3">
-        <v>-543500</v>
+        <v>-565900</v>
       </c>
       <c r="G91" s="3">
-        <v>-462300</v>
+        <v>-481400</v>
       </c>
       <c r="H91" s="3">
-        <v>-555300</v>
+        <v>-578200</v>
       </c>
       <c r="I91" s="3">
-        <v>-543500</v>
+        <v>-565900</v>
       </c>
       <c r="J91" s="3">
-        <v>-415300</v>
+        <v>-432400</v>
       </c>
       <c r="K91" s="3">
         <v>-416300</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13447400</v>
+        <v>-14002900</v>
       </c>
       <c r="E94" s="3">
-        <v>-12988600</v>
+        <v>-13525100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2498700</v>
+        <v>-2601900</v>
       </c>
       <c r="G94" s="3">
-        <v>-14513200</v>
+        <v>-15112700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12080500</v>
+        <v>-12579400</v>
       </c>
       <c r="I94" s="3">
-        <v>-11208700</v>
+        <v>-11671700</v>
       </c>
       <c r="J94" s="3">
-        <v>-9798200</v>
+        <v>-10202900</v>
       </c>
       <c r="K94" s="3">
         <v>-13724000</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2050500</v>
+        <v>-2135200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3844500</v>
+        <v>-4003300</v>
       </c>
       <c r="F96" s="3">
-        <v>-4016200</v>
+        <v>-4182100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3644500</v>
+        <v>-3795000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3438600</v>
+        <v>-3580600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3102200</v>
+        <v>-3230300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2629300</v>
+        <v>-2737900</v>
       </c>
       <c r="K96" s="3">
         <v>-2337400</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5796100</v>
+        <v>-6035500</v>
       </c>
       <c r="E100" s="3">
-        <v>-8207700</v>
+        <v>-8546800</v>
       </c>
       <c r="F100" s="3">
-        <v>4610300</v>
+        <v>4800700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7189000</v>
+        <v>-7485900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3385700</v>
+        <v>-3525500</v>
       </c>
       <c r="I100" s="3">
-        <v>-6832500</v>
+        <v>-7114700</v>
       </c>
       <c r="J100" s="3">
-        <v>-4856200</v>
+        <v>-5056800</v>
       </c>
       <c r="K100" s="3">
         <v>-2294300</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-867000</v>
+        <v>-902800</v>
       </c>
       <c r="E101" s="3">
-        <v>554100</v>
+        <v>577000</v>
       </c>
       <c r="F101" s="3">
-        <v>2299900</v>
+        <v>2394900</v>
       </c>
       <c r="G101" s="3">
-        <v>-572900</v>
+        <v>-596600</v>
       </c>
       <c r="H101" s="3">
-        <v>-323500</v>
+        <v>-336900</v>
       </c>
       <c r="I101" s="3">
-        <v>1388200</v>
+        <v>1445500</v>
       </c>
       <c r="J101" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="K101" s="3">
         <v>-1631600</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6514900</v>
+        <v>6784000</v>
       </c>
       <c r="E102" s="3">
-        <v>-11315800</v>
+        <v>-11783200</v>
       </c>
       <c r="F102" s="3">
-        <v>13392100</v>
+        <v>13945300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2835100</v>
+        <v>-2952200</v>
       </c>
       <c r="H102" s="3">
-        <v>137600</v>
+        <v>143300</v>
       </c>
       <c r="I102" s="3">
-        <v>4704400</v>
+        <v>4898700</v>
       </c>
       <c r="J102" s="3">
-        <v>1357600</v>
+        <v>1413600</v>
       </c>
       <c r="K102" s="3">
         <v>-11308900</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138846500</v>
+        <v>132320100</v>
       </c>
       <c r="E8" s="3">
-        <v>164069000</v>
+        <v>156357100</v>
       </c>
       <c r="F8" s="3">
-        <v>131904500</v>
+        <v>125704400</v>
       </c>
       <c r="G8" s="3">
-        <v>162791400</v>
+        <v>155139400</v>
       </c>
       <c r="H8" s="3">
-        <v>156586800</v>
+        <v>149226500</v>
       </c>
       <c r="I8" s="3">
-        <v>142321800</v>
+        <v>135632000</v>
       </c>
       <c r="J8" s="3">
-        <v>149543100</v>
+        <v>142513900</v>
       </c>
       <c r="K8" s="3">
         <v>150327700</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>117902800</v>
+        <v>112360900</v>
       </c>
       <c r="E9" s="3">
-        <v>141765600</v>
+        <v>135102000</v>
       </c>
       <c r="F9" s="3">
-        <v>106604800</v>
+        <v>101593900</v>
       </c>
       <c r="G9" s="3">
-        <v>139721100</v>
+        <v>133153600</v>
       </c>
       <c r="H9" s="3">
-        <v>131740300</v>
+        <v>125547900</v>
       </c>
       <c r="I9" s="3">
-        <v>118527600</v>
+        <v>112956300</v>
       </c>
       <c r="J9" s="3">
-        <v>127397700</v>
+        <v>121409500</v>
       </c>
       <c r="K9" s="3">
         <v>129281700</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20943700</v>
+        <v>19959200</v>
       </c>
       <c r="E10" s="3">
-        <v>22303400</v>
+        <v>21255000</v>
       </c>
       <c r="F10" s="3">
-        <v>25299700</v>
+        <v>24110500</v>
       </c>
       <c r="G10" s="3">
-        <v>23070200</v>
+        <v>21985800</v>
       </c>
       <c r="H10" s="3">
-        <v>24846500</v>
+        <v>23678600</v>
       </c>
       <c r="I10" s="3">
-        <v>23794200</v>
+        <v>22675800</v>
       </c>
       <c r="J10" s="3">
-        <v>22145400</v>
+        <v>21104400</v>
       </c>
       <c r="K10" s="3">
         <v>21045900</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1470000</v>
+        <v>1400900</v>
       </c>
       <c r="E14" s="3">
-        <v>1199300</v>
+        <v>1142900</v>
       </c>
       <c r="F14" s="3">
-        <v>9447100</v>
+        <v>9003100</v>
       </c>
       <c r="G14" s="3">
-        <v>507100</v>
+        <v>483300</v>
       </c>
       <c r="H14" s="3">
-        <v>1114700</v>
+        <v>1062300</v>
       </c>
       <c r="I14" s="3">
-        <v>1027800</v>
+        <v>979500</v>
       </c>
       <c r="J14" s="3">
-        <v>853800</v>
+        <v>813700</v>
       </c>
       <c r="K14" s="3">
         <v>1077800</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>132292800</v>
+        <v>126074400</v>
       </c>
       <c r="E17" s="3">
-        <v>156915100</v>
+        <v>149539400</v>
       </c>
       <c r="F17" s="3">
-        <v>129693400</v>
+        <v>123597200</v>
       </c>
       <c r="G17" s="3">
-        <v>153316100</v>
+        <v>146109500</v>
       </c>
       <c r="H17" s="3">
-        <v>145379400</v>
+        <v>138545900</v>
       </c>
       <c r="I17" s="3">
-        <v>132531700</v>
+        <v>126302100</v>
       </c>
       <c r="J17" s="3">
-        <v>140098400</v>
+        <v>133513200</v>
       </c>
       <c r="K17" s="3">
         <v>142280800</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6553700</v>
+        <v>6245600</v>
       </c>
       <c r="E18" s="3">
-        <v>7153900</v>
+        <v>6817700</v>
       </c>
       <c r="F18" s="3">
-        <v>2211100</v>
+        <v>2107200</v>
       </c>
       <c r="G18" s="3">
-        <v>9475300</v>
+        <v>9029900</v>
       </c>
       <c r="H18" s="3">
-        <v>11207400</v>
+        <v>10680600</v>
       </c>
       <c r="I18" s="3">
-        <v>9790100</v>
+        <v>9329900</v>
       </c>
       <c r="J18" s="3">
-        <v>9444700</v>
+        <v>9000700</v>
       </c>
       <c r="K18" s="3">
         <v>8046800</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>490000</v>
+        <v>467000</v>
       </c>
       <c r="E20" s="3">
-        <v>617400</v>
+        <v>588400</v>
       </c>
       <c r="F20" s="3">
-        <v>351600</v>
+        <v>335000</v>
       </c>
       <c r="G20" s="3">
-        <v>325800</v>
+        <v>310500</v>
       </c>
       <c r="H20" s="3">
-        <v>267000</v>
+        <v>254500</v>
       </c>
       <c r="I20" s="3">
-        <v>262100</v>
+        <v>249800</v>
       </c>
       <c r="J20" s="3">
-        <v>-89400</v>
+        <v>-85200</v>
       </c>
       <c r="K20" s="3">
         <v>167500</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8480200</v>
+        <v>8089700</v>
       </c>
       <c r="E21" s="3">
-        <v>9452100</v>
+        <v>9017300</v>
       </c>
       <c r="F21" s="3">
-        <v>3599700</v>
+        <v>3436400</v>
       </c>
       <c r="G21" s="3">
-        <v>10327600</v>
+        <v>9845100</v>
       </c>
       <c r="H21" s="3">
-        <v>12295300</v>
+        <v>11722000</v>
       </c>
       <c r="I21" s="3">
-        <v>11028200</v>
+        <v>10515400</v>
       </c>
       <c r="J21" s="3">
-        <v>10242100</v>
+        <v>9765700</v>
       </c>
       <c r="K21" s="3">
         <v>9504500</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1075500</v>
+        <v>1025000</v>
       </c>
       <c r="E22" s="3">
-        <v>882000</v>
+        <v>840500</v>
       </c>
       <c r="F22" s="3">
-        <v>688400</v>
+        <v>656100</v>
       </c>
       <c r="G22" s="3">
-        <v>385900</v>
+        <v>367700</v>
       </c>
       <c r="H22" s="3">
-        <v>362600</v>
+        <v>345600</v>
       </c>
       <c r="I22" s="3">
-        <v>597800</v>
+        <v>569700</v>
       </c>
       <c r="J22" s="3">
-        <v>623500</v>
+        <v>594200</v>
       </c>
       <c r="K22" s="3">
         <v>739300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5968200</v>
+        <v>5687600</v>
       </c>
       <c r="E23" s="3">
-        <v>6889300</v>
+        <v>6565500</v>
       </c>
       <c r="F23" s="3">
-        <v>1874200</v>
+        <v>1786100</v>
       </c>
       <c r="G23" s="3">
-        <v>9415300</v>
+        <v>8972700</v>
       </c>
       <c r="H23" s="3">
-        <v>11111900</v>
+        <v>10589600</v>
       </c>
       <c r="I23" s="3">
-        <v>9454500</v>
+        <v>9010100</v>
       </c>
       <c r="J23" s="3">
-        <v>8731700</v>
+        <v>8321300</v>
       </c>
       <c r="K23" s="3">
         <v>7475100</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1887700</v>
+        <v>1799000</v>
       </c>
       <c r="E24" s="3">
-        <v>1738300</v>
+        <v>1656600</v>
       </c>
       <c r="F24" s="3">
-        <v>1805600</v>
+        <v>1720800</v>
       </c>
       <c r="G24" s="3">
-        <v>1326700</v>
+        <v>1264300</v>
       </c>
       <c r="H24" s="3">
-        <v>2986500</v>
+        <v>2846100</v>
       </c>
       <c r="I24" s="3">
-        <v>2198900</v>
+        <v>2095500</v>
       </c>
       <c r="J24" s="3">
-        <v>2194000</v>
+        <v>2090800</v>
       </c>
       <c r="K24" s="3">
         <v>1748800</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4080400</v>
+        <v>3888600</v>
       </c>
       <c r="E26" s="3">
-        <v>5151100</v>
+        <v>4909000</v>
       </c>
       <c r="F26" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="G26" s="3">
-        <v>8088600</v>
+        <v>7708400</v>
       </c>
       <c r="H26" s="3">
-        <v>8125400</v>
+        <v>7743400</v>
       </c>
       <c r="I26" s="3">
-        <v>7255600</v>
+        <v>6914600</v>
       </c>
       <c r="J26" s="3">
-        <v>6537800</v>
+        <v>6230500</v>
       </c>
       <c r="K26" s="3">
         <v>5726200</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="E27" s="3">
-        <v>4444300</v>
+        <v>4235400</v>
       </c>
       <c r="F27" s="3">
-        <v>2824800</v>
+        <v>2692000</v>
       </c>
       <c r="G27" s="3">
-        <v>7325400</v>
+        <v>6981100</v>
       </c>
       <c r="H27" s="3">
-        <v>7351200</v>
+        <v>7005600</v>
       </c>
       <c r="I27" s="3">
-        <v>6428700</v>
+        <v>6126600</v>
       </c>
       <c r="J27" s="3">
-        <v>5780700</v>
+        <v>5509000</v>
       </c>
       <c r="K27" s="3">
         <v>5021600</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-29400</v>
+        <v>-28000</v>
       </c>
       <c r="F29" s="3">
-        <v>-524300</v>
+        <v>-499700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-537800</v>
+        <v>-512500</v>
       </c>
       <c r="I29" s="3">
-        <v>78400</v>
+        <v>74700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-490000</v>
+        <v>-467000</v>
       </c>
       <c r="E32" s="3">
-        <v>-617400</v>
+        <v>-588400</v>
       </c>
       <c r="F32" s="3">
-        <v>-351600</v>
+        <v>-335000</v>
       </c>
       <c r="G32" s="3">
-        <v>-325800</v>
+        <v>-310500</v>
       </c>
       <c r="H32" s="3">
-        <v>-267000</v>
+        <v>-254500</v>
       </c>
       <c r="I32" s="3">
-        <v>-262100</v>
+        <v>-249800</v>
       </c>
       <c r="J32" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="K32" s="3">
         <v>-167500</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="E33" s="3">
-        <v>4414900</v>
+        <v>4207300</v>
       </c>
       <c r="F33" s="3">
-        <v>2300500</v>
+        <v>2192400</v>
       </c>
       <c r="G33" s="3">
-        <v>7325400</v>
+        <v>6981100</v>
       </c>
       <c r="H33" s="3">
-        <v>6813400</v>
+        <v>6493100</v>
       </c>
       <c r="I33" s="3">
-        <v>6507100</v>
+        <v>6201300</v>
       </c>
       <c r="J33" s="3">
-        <v>5780700</v>
+        <v>5509000</v>
       </c>
       <c r="K33" s="3">
         <v>5021600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="E35" s="3">
-        <v>4414900</v>
+        <v>4207300</v>
       </c>
       <c r="F35" s="3">
-        <v>2300500</v>
+        <v>2192400</v>
       </c>
       <c r="G35" s="3">
-        <v>7325400</v>
+        <v>6981100</v>
       </c>
       <c r="H35" s="3">
-        <v>6813400</v>
+        <v>6493100</v>
       </c>
       <c r="I35" s="3">
-        <v>6507100</v>
+        <v>6201300</v>
       </c>
       <c r="J35" s="3">
-        <v>5780700</v>
+        <v>5509000</v>
       </c>
       <c r="K35" s="3">
         <v>5021600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34590000</v>
+        <v>32964200</v>
       </c>
       <c r="E41" s="3">
-        <v>26886100</v>
+        <v>25622300</v>
       </c>
       <c r="F41" s="3">
-        <v>38377700</v>
+        <v>36573800</v>
       </c>
       <c r="G41" s="3">
-        <v>29274800</v>
+        <v>27898800</v>
       </c>
       <c r="H41" s="3">
-        <v>32234400</v>
+        <v>30719200</v>
       </c>
       <c r="I41" s="3">
-        <v>32186600</v>
+        <v>30673700</v>
       </c>
       <c r="J41" s="3">
-        <v>27008600</v>
+        <v>25739100</v>
       </c>
       <c r="K41" s="3">
         <v>25664500</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46133100</v>
+        <v>43964700</v>
       </c>
       <c r="E43" s="3">
-        <v>48374900</v>
+        <v>46101000</v>
       </c>
       <c r="F43" s="3">
-        <v>51387100</v>
+        <v>48971700</v>
       </c>
       <c r="G43" s="3">
-        <v>37044900</v>
+        <v>35303600</v>
       </c>
       <c r="H43" s="3">
-        <v>42672500</v>
+        <v>40666700</v>
       </c>
       <c r="I43" s="3">
-        <v>38840800</v>
+        <v>37015100</v>
       </c>
       <c r="J43" s="3">
-        <v>35598200</v>
+        <v>33924900</v>
       </c>
       <c r="K43" s="3">
         <v>33173000</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>652720000</v>
+        <v>622039000</v>
       </c>
       <c r="E47" s="3">
-        <v>637656000</v>
+        <v>607684000</v>
       </c>
       <c r="F47" s="3">
-        <v>699886000</v>
+        <v>666988000</v>
       </c>
       <c r="G47" s="3">
-        <v>678934000</v>
+        <v>647021000</v>
       </c>
       <c r="H47" s="3">
-        <v>697818000</v>
+        <v>665017000</v>
       </c>
       <c r="I47" s="3">
-        <v>662905000</v>
+        <v>631745000</v>
       </c>
       <c r="J47" s="3">
-        <v>641707000</v>
+        <v>611544000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34942800</v>
+        <v>33300400</v>
       </c>
       <c r="E48" s="3">
-        <v>32061700</v>
+        <v>30554600</v>
       </c>
       <c r="F48" s="3">
-        <v>27608800</v>
+        <v>26311100</v>
       </c>
       <c r="G48" s="3">
-        <v>29989000</v>
+        <v>28579400</v>
       </c>
       <c r="H48" s="3">
-        <v>28042500</v>
+        <v>26724300</v>
       </c>
       <c r="I48" s="3">
-        <v>26706000</v>
+        <v>25450700</v>
       </c>
       <c r="J48" s="3">
-        <v>24416500</v>
+        <v>23268800</v>
       </c>
       <c r="K48" s="3">
         <v>22414400</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25741900</v>
+        <v>24532000</v>
       </c>
       <c r="E49" s="3">
-        <v>27743600</v>
+        <v>26439500</v>
       </c>
       <c r="F49" s="3">
-        <v>26718300</v>
+        <v>25462400</v>
       </c>
       <c r="G49" s="3">
-        <v>22737000</v>
+        <v>21668300</v>
       </c>
       <c r="H49" s="3">
-        <v>24439800</v>
+        <v>23291000</v>
       </c>
       <c r="I49" s="3">
-        <v>24915100</v>
+        <v>23744000</v>
       </c>
       <c r="J49" s="3">
-        <v>23522300</v>
+        <v>22416600</v>
       </c>
       <c r="K49" s="3">
         <v>43010600</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41361800</v>
+        <v>39417600</v>
       </c>
       <c r="E52" s="3">
-        <v>44398500</v>
+        <v>42311600</v>
       </c>
       <c r="F52" s="3">
-        <v>33441000</v>
+        <v>31869100</v>
       </c>
       <c r="G52" s="3">
-        <v>7173500</v>
+        <v>6836400</v>
       </c>
       <c r="H52" s="3">
-        <v>3083300</v>
+        <v>2938400</v>
       </c>
       <c r="I52" s="3">
-        <v>6211900</v>
+        <v>5919900</v>
       </c>
       <c r="J52" s="3">
-        <v>3169000</v>
+        <v>3020100</v>
       </c>
       <c r="K52" s="3">
         <v>2875700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>985614000</v>
+        <v>939285000</v>
       </c>
       <c r="E54" s="3">
-        <v>956568000</v>
+        <v>911605000</v>
       </c>
       <c r="F54" s="3">
-        <v>1140090000</v>
+        <v>1086500000</v>
       </c>
       <c r="G54" s="3">
-        <v>1065900000</v>
+        <v>1015800000</v>
       </c>
       <c r="H54" s="3">
-        <v>1093650000</v>
+        <v>1042240000</v>
       </c>
       <c r="I54" s="3">
-        <v>1086650000</v>
+        <v>1035570000</v>
       </c>
       <c r="J54" s="3">
-        <v>1029080000</v>
+        <v>980705000</v>
       </c>
       <c r="K54" s="3">
         <v>903659000</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1972200</v>
+        <v>1879500</v>
       </c>
       <c r="E58" s="3">
-        <v>853800</v>
+        <v>813700</v>
       </c>
       <c r="F58" s="3">
-        <v>1745600</v>
+        <v>1663600</v>
       </c>
       <c r="G58" s="3">
-        <v>2849300</v>
+        <v>2715400</v>
       </c>
       <c r="H58" s="3">
-        <v>4624300</v>
+        <v>4407000</v>
       </c>
       <c r="I58" s="3">
-        <v>4026500</v>
+        <v>3837300</v>
       </c>
       <c r="J58" s="3">
-        <v>3411600</v>
+        <v>3251200</v>
       </c>
       <c r="K58" s="3">
         <v>6128100</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>231636000</v>
+        <v>220748000</v>
       </c>
       <c r="E59" s="3">
-        <v>219446000</v>
+        <v>209131000</v>
       </c>
       <c r="F59" s="3">
-        <v>354320000</v>
+        <v>337665000</v>
       </c>
       <c r="G59" s="3">
-        <v>361288000</v>
+        <v>344305000</v>
       </c>
       <c r="H59" s="3">
-        <v>362998000</v>
+        <v>345935000</v>
       </c>
       <c r="I59" s="3">
-        <v>387915000</v>
+        <v>369681000</v>
       </c>
       <c r="J59" s="3">
-        <v>370910000</v>
+        <v>353475000</v>
       </c>
       <c r="K59" s="3">
         <v>346918000</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25521400</v>
+        <v>24321800</v>
       </c>
       <c r="E61" s="3">
-        <v>30407900</v>
+        <v>28978600</v>
       </c>
       <c r="F61" s="3">
-        <v>30612500</v>
+        <v>29173600</v>
       </c>
       <c r="G61" s="3">
-        <v>11654600</v>
+        <v>11106700</v>
       </c>
       <c r="H61" s="3">
-        <v>10354800</v>
+        <v>9868100</v>
       </c>
       <c r="I61" s="3">
-        <v>9479000</v>
+        <v>9033400</v>
       </c>
       <c r="J61" s="3">
-        <v>9111500</v>
+        <v>8683200</v>
       </c>
       <c r="K61" s="3">
         <v>8953600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18276900</v>
+        <v>17417800</v>
       </c>
       <c r="E62" s="3">
-        <v>17458600</v>
+        <v>16637900</v>
       </c>
       <c r="F62" s="3">
-        <v>16337700</v>
+        <v>15569700</v>
       </c>
       <c r="G62" s="3">
-        <v>18202100</v>
+        <v>17346500</v>
       </c>
       <c r="H62" s="3">
-        <v>20733000</v>
+        <v>19758400</v>
       </c>
       <c r="I62" s="3">
-        <v>19024100</v>
+        <v>18129900</v>
       </c>
       <c r="J62" s="3">
-        <v>19424700</v>
+        <v>18511600</v>
       </c>
       <c r="K62" s="3">
         <v>14641500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>897891000</v>
+        <v>855686000</v>
       </c>
       <c r="E66" s="3">
-        <v>870945000</v>
+        <v>830006000</v>
       </c>
       <c r="F66" s="3">
-        <v>1063620000</v>
+        <v>1013620000</v>
       </c>
       <c r="G66" s="3">
-        <v>980625000</v>
+        <v>934532000</v>
       </c>
       <c r="H66" s="3">
-        <v>1007170000</v>
+        <v>959828000</v>
       </c>
       <c r="I66" s="3">
-        <v>1002770000</v>
+        <v>955636000</v>
       </c>
       <c r="J66" s="3">
-        <v>949184000</v>
+        <v>904568000</v>
       </c>
       <c r="K66" s="3">
         <v>840351000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35507600</v>
+        <v>33838500</v>
       </c>
       <c r="E72" s="3">
-        <v>31766400</v>
+        <v>30273300</v>
       </c>
       <c r="F72" s="3">
-        <v>32518600</v>
+        <v>30990100</v>
       </c>
       <c r="G72" s="3">
-        <v>39311200</v>
+        <v>37463400</v>
       </c>
       <c r="H72" s="3">
-        <v>36082100</v>
+        <v>34386100</v>
       </c>
       <c r="I72" s="3">
-        <v>35354400</v>
+        <v>33692600</v>
       </c>
       <c r="J72" s="3">
-        <v>31249500</v>
+        <v>29780600</v>
       </c>
       <c r="K72" s="3">
         <v>85131200</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87722800</v>
+        <v>83599400</v>
       </c>
       <c r="E76" s="3">
-        <v>85623100</v>
+        <v>81598500</v>
       </c>
       <c r="F76" s="3">
-        <v>76473700</v>
+        <v>72879100</v>
       </c>
       <c r="G76" s="3">
-        <v>85272800</v>
+        <v>81264600</v>
       </c>
       <c r="H76" s="3">
-        <v>86480600</v>
+        <v>82415600</v>
       </c>
       <c r="I76" s="3">
-        <v>83881200</v>
+        <v>79938400</v>
       </c>
       <c r="J76" s="3">
-        <v>79892600</v>
+        <v>76137300</v>
       </c>
       <c r="K76" s="3">
         <v>63307700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="E81" s="3">
-        <v>4414900</v>
+        <v>4207300</v>
       </c>
       <c r="F81" s="3">
-        <v>2300500</v>
+        <v>2192400</v>
       </c>
       <c r="G81" s="3">
-        <v>7325400</v>
+        <v>6981100</v>
       </c>
       <c r="H81" s="3">
-        <v>6813400</v>
+        <v>6493100</v>
       </c>
       <c r="I81" s="3">
-        <v>6507100</v>
+        <v>6201300</v>
       </c>
       <c r="J81" s="3">
-        <v>5780700</v>
+        <v>5509000</v>
       </c>
       <c r="K81" s="3">
         <v>5021600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1440600</v>
+        <v>1372900</v>
       </c>
       <c r="E83" s="3">
-        <v>1685600</v>
+        <v>1606400</v>
       </c>
       <c r="F83" s="3">
-        <v>1040000</v>
+        <v>991100</v>
       </c>
       <c r="G83" s="3">
-        <v>528000</v>
+        <v>503200</v>
       </c>
       <c r="H83" s="3">
-        <v>823200</v>
+        <v>784500</v>
       </c>
       <c r="I83" s="3">
-        <v>978800</v>
+        <v>932800</v>
       </c>
       <c r="J83" s="3">
-        <v>889300</v>
+        <v>847500</v>
       </c>
       <c r="K83" s="3">
         <v>1295500</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27725200</v>
+        <v>26422000</v>
       </c>
       <c r="E89" s="3">
-        <v>9711700</v>
+        <v>9255200</v>
       </c>
       <c r="F89" s="3">
-        <v>9351600</v>
+        <v>8912000</v>
       </c>
       <c r="G89" s="3">
-        <v>20243000</v>
+        <v>19291500</v>
       </c>
       <c r="H89" s="3">
-        <v>16585100</v>
+        <v>15805600</v>
       </c>
       <c r="I89" s="3">
-        <v>22239700</v>
+        <v>21194300</v>
       </c>
       <c r="J89" s="3">
-        <v>15815800</v>
+        <v>15072400</v>
       </c>
       <c r="K89" s="3">
         <v>6341100</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-476500</v>
+        <v>-454100</v>
       </c>
       <c r="E91" s="3">
-        <v>-565900</v>
+        <v>-539300</v>
       </c>
       <c r="F91" s="3">
-        <v>-565900</v>
+        <v>-539300</v>
       </c>
       <c r="G91" s="3">
-        <v>-481400</v>
+        <v>-458800</v>
       </c>
       <c r="H91" s="3">
-        <v>-578200</v>
+        <v>-551000</v>
       </c>
       <c r="I91" s="3">
-        <v>-565900</v>
+        <v>-539300</v>
       </c>
       <c r="J91" s="3">
-        <v>-432400</v>
+        <v>-412100</v>
       </c>
       <c r="K91" s="3">
         <v>-416300</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14002900</v>
+        <v>-13344700</v>
       </c>
       <c r="E94" s="3">
-        <v>-13525100</v>
+        <v>-12889400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2601900</v>
+        <v>-2479600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15112700</v>
+        <v>-14402300</v>
       </c>
       <c r="H94" s="3">
-        <v>-12579400</v>
+        <v>-11988100</v>
       </c>
       <c r="I94" s="3">
-        <v>-11671700</v>
+        <v>-11123100</v>
       </c>
       <c r="J94" s="3">
-        <v>-10202900</v>
+        <v>-9723400</v>
       </c>
       <c r="K94" s="3">
         <v>-13724000</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2135200</v>
+        <v>-2034800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4003300</v>
+        <v>-3815100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4182100</v>
+        <v>-3985500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3795000</v>
+        <v>-3616600</v>
       </c>
       <c r="H96" s="3">
-        <v>-3580600</v>
+        <v>-3412300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3230300</v>
+        <v>-3078500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2737900</v>
+        <v>-2609200</v>
       </c>
       <c r="K96" s="3">
         <v>-2337400</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6035500</v>
+        <v>-5751800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8546800</v>
+        <v>-8145000</v>
       </c>
       <c r="F100" s="3">
-        <v>4800700</v>
+        <v>4575100</v>
       </c>
       <c r="G100" s="3">
-        <v>-7485900</v>
+        <v>-7134000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3525500</v>
+        <v>-3359800</v>
       </c>
       <c r="I100" s="3">
-        <v>-7114700</v>
+        <v>-6780300</v>
       </c>
       <c r="J100" s="3">
-        <v>-5056800</v>
+        <v>-4819100</v>
       </c>
       <c r="K100" s="3">
         <v>-2294300</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-902800</v>
+        <v>-860400</v>
       </c>
       <c r="E101" s="3">
-        <v>577000</v>
+        <v>549900</v>
       </c>
       <c r="F101" s="3">
-        <v>2394900</v>
+        <v>2282300</v>
       </c>
       <c r="G101" s="3">
-        <v>-596600</v>
+        <v>-568500</v>
       </c>
       <c r="H101" s="3">
-        <v>-336900</v>
+        <v>-321000</v>
       </c>
       <c r="I101" s="3">
-        <v>1445500</v>
+        <v>1377500</v>
       </c>
       <c r="J101" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="K101" s="3">
         <v>-1631600</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6784000</v>
+        <v>6465100</v>
       </c>
       <c r="E102" s="3">
-        <v>-11783200</v>
+        <v>-11229300</v>
       </c>
       <c r="F102" s="3">
-        <v>13945300</v>
+        <v>13289800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2952200</v>
+        <v>-2813500</v>
       </c>
       <c r="H102" s="3">
-        <v>143300</v>
+        <v>136600</v>
       </c>
       <c r="I102" s="3">
-        <v>4898700</v>
+        <v>4668500</v>
       </c>
       <c r="J102" s="3">
-        <v>1413600</v>
+        <v>1347200</v>
       </c>
       <c r="K102" s="3">
         <v>-11308900</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -666,7 +666,9 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -722,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>132320100</v>
+        <v>127977800</v>
       </c>
       <c r="E8" s="3">
-        <v>156357100</v>
+        <v>151226000</v>
       </c>
       <c r="F8" s="3">
-        <v>125704400</v>
+        <v>121579200</v>
       </c>
       <c r="G8" s="3">
-        <v>155139400</v>
+        <v>150048400</v>
       </c>
       <c r="H8" s="3">
-        <v>149226500</v>
+        <v>144329500</v>
       </c>
       <c r="I8" s="3">
-        <v>135632000</v>
+        <v>131181100</v>
       </c>
       <c r="J8" s="3">
-        <v>142513900</v>
+        <v>137837100</v>
       </c>
       <c r="K8" s="3">
         <v>150327700</v>
@@ -758,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>112360900</v>
+        <v>108673600</v>
       </c>
       <c r="E9" s="3">
-        <v>135102000</v>
+        <v>130668500</v>
       </c>
       <c r="F9" s="3">
-        <v>101593900</v>
+        <v>98259900</v>
       </c>
       <c r="G9" s="3">
-        <v>133153600</v>
+        <v>128784000</v>
       </c>
       <c r="H9" s="3">
-        <v>125547900</v>
+        <v>121427900</v>
       </c>
       <c r="I9" s="3">
-        <v>112956300</v>
+        <v>109249500</v>
       </c>
       <c r="J9" s="3">
-        <v>121409500</v>
+        <v>117425300</v>
       </c>
       <c r="K9" s="3">
         <v>129281700</v>
@@ -794,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19959200</v>
+        <v>19304200</v>
       </c>
       <c r="E10" s="3">
-        <v>21255000</v>
+        <v>20557500</v>
       </c>
       <c r="F10" s="3">
-        <v>24110500</v>
+        <v>23319300</v>
       </c>
       <c r="G10" s="3">
-        <v>21985800</v>
+        <v>21264300</v>
       </c>
       <c r="H10" s="3">
-        <v>23678600</v>
+        <v>22901500</v>
       </c>
       <c r="I10" s="3">
-        <v>22675800</v>
+        <v>21931600</v>
       </c>
       <c r="J10" s="3">
-        <v>21104400</v>
+        <v>20411900</v>
       </c>
       <c r="K10" s="3">
         <v>21045900</v>
@@ -918,25 +920,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400900</v>
+        <v>1354900</v>
       </c>
       <c r="E14" s="3">
-        <v>1142900</v>
+        <v>1105400</v>
       </c>
       <c r="F14" s="3">
-        <v>9003100</v>
+        <v>8707600</v>
       </c>
       <c r="G14" s="3">
-        <v>483300</v>
+        <v>467400</v>
       </c>
       <c r="H14" s="3">
-        <v>1062300</v>
+        <v>1027500</v>
       </c>
       <c r="I14" s="3">
-        <v>979500</v>
+        <v>947300</v>
       </c>
       <c r="J14" s="3">
-        <v>813700</v>
+        <v>787000</v>
       </c>
       <c r="K14" s="3">
         <v>1077800</v>
@@ -1003,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>126074400</v>
+        <v>121937200</v>
       </c>
       <c r="E17" s="3">
-        <v>149539400</v>
+        <v>144632100</v>
       </c>
       <c r="F17" s="3">
-        <v>123597200</v>
+        <v>119541200</v>
       </c>
       <c r="G17" s="3">
-        <v>146109500</v>
+        <v>141314800</v>
       </c>
       <c r="H17" s="3">
-        <v>138545900</v>
+        <v>133999300</v>
       </c>
       <c r="I17" s="3">
-        <v>126302100</v>
+        <v>122157300</v>
       </c>
       <c r="J17" s="3">
-        <v>133513200</v>
+        <v>129131800</v>
       </c>
       <c r="K17" s="3">
         <v>142280800</v>
@@ -1039,25 +1041,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6245600</v>
+        <v>6040700</v>
       </c>
       <c r="E18" s="3">
-        <v>6817700</v>
+        <v>6593900</v>
       </c>
       <c r="F18" s="3">
-        <v>2107200</v>
+        <v>2038000</v>
       </c>
       <c r="G18" s="3">
-        <v>9029900</v>
+        <v>8733600</v>
       </c>
       <c r="H18" s="3">
-        <v>10680600</v>
+        <v>10330100</v>
       </c>
       <c r="I18" s="3">
-        <v>9329900</v>
+        <v>9023800</v>
       </c>
       <c r="J18" s="3">
-        <v>9000700</v>
+        <v>8705400</v>
       </c>
       <c r="K18" s="3">
         <v>8046800</v>
@@ -1091,25 +1093,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>467000</v>
+        <v>451600</v>
       </c>
       <c r="E20" s="3">
-        <v>588400</v>
+        <v>569100</v>
       </c>
       <c r="F20" s="3">
-        <v>335000</v>
+        <v>324100</v>
       </c>
       <c r="G20" s="3">
-        <v>310500</v>
+        <v>300300</v>
       </c>
       <c r="H20" s="3">
-        <v>254500</v>
+        <v>246100</v>
       </c>
       <c r="I20" s="3">
-        <v>249800</v>
+        <v>241600</v>
       </c>
       <c r="J20" s="3">
-        <v>-85200</v>
+        <v>-82400</v>
       </c>
       <c r="K20" s="3">
         <v>167500</v>
@@ -1127,25 +1129,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8089700</v>
+        <v>7823200</v>
       </c>
       <c r="E21" s="3">
-        <v>9017300</v>
+        <v>8720200</v>
       </c>
       <c r="F21" s="3">
-        <v>3436400</v>
+        <v>3322900</v>
       </c>
       <c r="G21" s="3">
-        <v>9845100</v>
+        <v>9521700</v>
       </c>
       <c r="H21" s="3">
-        <v>11722000</v>
+        <v>11336800</v>
       </c>
       <c r="I21" s="3">
-        <v>10515400</v>
+        <v>10169600</v>
       </c>
       <c r="J21" s="3">
-        <v>9765700</v>
+        <v>9444600</v>
       </c>
       <c r="K21" s="3">
         <v>9504500</v>
@@ -1163,25 +1165,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1025000</v>
+        <v>991300</v>
       </c>
       <c r="E22" s="3">
-        <v>840500</v>
+        <v>813000</v>
       </c>
       <c r="F22" s="3">
-        <v>656100</v>
+        <v>634600</v>
       </c>
       <c r="G22" s="3">
-        <v>367700</v>
+        <v>355700</v>
       </c>
       <c r="H22" s="3">
-        <v>345600</v>
+        <v>334200</v>
       </c>
       <c r="I22" s="3">
-        <v>569700</v>
+        <v>551000</v>
       </c>
       <c r="J22" s="3">
-        <v>594200</v>
+        <v>574700</v>
       </c>
       <c r="K22" s="3">
         <v>739300</v>
@@ -1199,25 +1201,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5687600</v>
+        <v>5501000</v>
       </c>
       <c r="E23" s="3">
-        <v>6565500</v>
+        <v>6350100</v>
       </c>
       <c r="F23" s="3">
-        <v>1786100</v>
+        <v>1727500</v>
       </c>
       <c r="G23" s="3">
-        <v>8972700</v>
+        <v>8678300</v>
       </c>
       <c r="H23" s="3">
-        <v>10589600</v>
+        <v>10242100</v>
       </c>
       <c r="I23" s="3">
-        <v>9010100</v>
+        <v>8714400</v>
       </c>
       <c r="J23" s="3">
-        <v>8321300</v>
+        <v>8048200</v>
       </c>
       <c r="K23" s="3">
         <v>7475100</v>
@@ -1235,25 +1237,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1799000</v>
+        <v>1739900</v>
       </c>
       <c r="E24" s="3">
-        <v>1656600</v>
+        <v>1602200</v>
       </c>
       <c r="F24" s="3">
-        <v>1720800</v>
+        <v>1664300</v>
       </c>
       <c r="G24" s="3">
-        <v>1264300</v>
+        <v>1222800</v>
       </c>
       <c r="H24" s="3">
-        <v>2846100</v>
+        <v>2752700</v>
       </c>
       <c r="I24" s="3">
-        <v>2095500</v>
+        <v>2026700</v>
       </c>
       <c r="J24" s="3">
-        <v>2090800</v>
+        <v>2022200</v>
       </c>
       <c r="K24" s="3">
         <v>1748800</v>
@@ -1307,25 +1309,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3888600</v>
+        <v>3761000</v>
       </c>
       <c r="E26" s="3">
-        <v>4909000</v>
+        <v>4747900</v>
       </c>
       <c r="F26" s="3">
-        <v>65400</v>
+        <v>63200</v>
       </c>
       <c r="G26" s="3">
-        <v>7708400</v>
+        <v>7455400</v>
       </c>
       <c r="H26" s="3">
-        <v>7743400</v>
+        <v>7489300</v>
       </c>
       <c r="I26" s="3">
-        <v>6914600</v>
+        <v>6687700</v>
       </c>
       <c r="J26" s="3">
-        <v>6230500</v>
+        <v>6026000</v>
       </c>
       <c r="K26" s="3">
         <v>5726200</v>
@@ -1343,25 +1345,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="E27" s="3">
-        <v>4235400</v>
+        <v>4096400</v>
       </c>
       <c r="F27" s="3">
-        <v>2692000</v>
+        <v>2603700</v>
       </c>
       <c r="G27" s="3">
-        <v>6981100</v>
+        <v>6752000</v>
       </c>
       <c r="H27" s="3">
-        <v>7005600</v>
+        <v>6775700</v>
       </c>
       <c r="I27" s="3">
-        <v>6126600</v>
+        <v>5925500</v>
       </c>
       <c r="J27" s="3">
-        <v>5509000</v>
+        <v>5328200</v>
       </c>
       <c r="K27" s="3">
         <v>5021600</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-28000</v>
+        <v>-27100</v>
       </c>
       <c r="F29" s="3">
-        <v>-499700</v>
+        <v>-483300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-512500</v>
+        <v>-495700</v>
       </c>
       <c r="I29" s="3">
-        <v>74700</v>
+        <v>72300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-467000</v>
+        <v>-451600</v>
       </c>
       <c r="E32" s="3">
-        <v>-588400</v>
+        <v>-569100</v>
       </c>
       <c r="F32" s="3">
-        <v>-335000</v>
+        <v>-324100</v>
       </c>
       <c r="G32" s="3">
-        <v>-310500</v>
+        <v>-300300</v>
       </c>
       <c r="H32" s="3">
-        <v>-254500</v>
+        <v>-246100</v>
       </c>
       <c r="I32" s="3">
-        <v>-249800</v>
+        <v>-241600</v>
       </c>
       <c r="J32" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="K32" s="3">
         <v>-167500</v>
@@ -1559,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="E33" s="3">
-        <v>4207300</v>
+        <v>4069300</v>
       </c>
       <c r="F33" s="3">
-        <v>2192400</v>
+        <v>2120400</v>
       </c>
       <c r="G33" s="3">
-        <v>6981100</v>
+        <v>6752000</v>
       </c>
       <c r="H33" s="3">
-        <v>6493100</v>
+        <v>6280100</v>
       </c>
       <c r="I33" s="3">
-        <v>6201300</v>
+        <v>5997800</v>
       </c>
       <c r="J33" s="3">
-        <v>5509000</v>
+        <v>5328200</v>
       </c>
       <c r="K33" s="3">
         <v>5021600</v>
@@ -1631,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="E35" s="3">
-        <v>4207300</v>
+        <v>4069300</v>
       </c>
       <c r="F35" s="3">
-        <v>2192400</v>
+        <v>2120400</v>
       </c>
       <c r="G35" s="3">
-        <v>6981100</v>
+        <v>6752000</v>
       </c>
       <c r="H35" s="3">
-        <v>6493100</v>
+        <v>6280100</v>
       </c>
       <c r="I35" s="3">
-        <v>6201300</v>
+        <v>5997800</v>
       </c>
       <c r="J35" s="3">
-        <v>5509000</v>
+        <v>5328200</v>
       </c>
       <c r="K35" s="3">
         <v>5021600</v>
@@ -1740,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32964200</v>
+        <v>31882400</v>
       </c>
       <c r="E41" s="3">
-        <v>25622300</v>
+        <v>24781500</v>
       </c>
       <c r="F41" s="3">
-        <v>36573800</v>
+        <v>35373600</v>
       </c>
       <c r="G41" s="3">
-        <v>27898800</v>
+        <v>26983200</v>
       </c>
       <c r="H41" s="3">
-        <v>30719200</v>
+        <v>29711100</v>
       </c>
       <c r="I41" s="3">
-        <v>30673700</v>
+        <v>29667100</v>
       </c>
       <c r="J41" s="3">
-        <v>25739100</v>
+        <v>24894400</v>
       </c>
       <c r="K41" s="3">
         <v>25664500</v>
@@ -1812,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43964700</v>
+        <v>42521900</v>
       </c>
       <c r="E43" s="3">
-        <v>46101000</v>
+        <v>44588200</v>
       </c>
       <c r="F43" s="3">
-        <v>48971700</v>
+        <v>47364600</v>
       </c>
       <c r="G43" s="3">
-        <v>35303600</v>
+        <v>34145100</v>
       </c>
       <c r="H43" s="3">
-        <v>40666700</v>
+        <v>39332200</v>
       </c>
       <c r="I43" s="3">
-        <v>37015100</v>
+        <v>35800400</v>
       </c>
       <c r="J43" s="3">
-        <v>33924900</v>
+        <v>32811600</v>
       </c>
       <c r="K43" s="3">
         <v>33173000</v>
@@ -1956,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>622039000</v>
+        <v>601626000</v>
       </c>
       <c r="E47" s="3">
-        <v>607684000</v>
+        <v>587742000</v>
       </c>
       <c r="F47" s="3">
-        <v>666988000</v>
+        <v>645100000</v>
       </c>
       <c r="G47" s="3">
-        <v>647021000</v>
+        <v>625788000</v>
       </c>
       <c r="H47" s="3">
-        <v>665017000</v>
+        <v>643194000</v>
       </c>
       <c r="I47" s="3">
-        <v>631745000</v>
+        <v>611014000</v>
       </c>
       <c r="J47" s="3">
-        <v>611544000</v>
+        <v>591476000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33300400</v>
+        <v>32207600</v>
       </c>
       <c r="E48" s="3">
-        <v>30554600</v>
+        <v>29551900</v>
       </c>
       <c r="F48" s="3">
-        <v>26311100</v>
+        <v>25447700</v>
       </c>
       <c r="G48" s="3">
-        <v>28579400</v>
+        <v>27641500</v>
       </c>
       <c r="H48" s="3">
-        <v>26724300</v>
+        <v>25847400</v>
       </c>
       <c r="I48" s="3">
-        <v>25450700</v>
+        <v>24615500</v>
       </c>
       <c r="J48" s="3">
-        <v>23268800</v>
+        <v>22505200</v>
       </c>
       <c r="K48" s="3">
         <v>22414400</v>
@@ -2028,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24532000</v>
+        <v>23726900</v>
       </c>
       <c r="E49" s="3">
-        <v>26439500</v>
+        <v>25571900</v>
       </c>
       <c r="F49" s="3">
-        <v>25462400</v>
+        <v>24626800</v>
       </c>
       <c r="G49" s="3">
-        <v>21668300</v>
+        <v>20957200</v>
       </c>
       <c r="H49" s="3">
-        <v>23291000</v>
+        <v>22526700</v>
       </c>
       <c r="I49" s="3">
-        <v>23744000</v>
+        <v>22964800</v>
       </c>
       <c r="J49" s="3">
-        <v>22416600</v>
+        <v>21681000</v>
       </c>
       <c r="K49" s="3">
         <v>43010600</v>
@@ -2136,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39417600</v>
+        <v>38124100</v>
       </c>
       <c r="E52" s="3">
-        <v>42311600</v>
+        <v>40923100</v>
       </c>
       <c r="F52" s="3">
-        <v>31869100</v>
+        <v>30823300</v>
       </c>
       <c r="G52" s="3">
-        <v>6836400</v>
+        <v>6612000</v>
       </c>
       <c r="H52" s="3">
-        <v>2938400</v>
+        <v>2841900</v>
       </c>
       <c r="I52" s="3">
-        <v>5919900</v>
+        <v>5725700</v>
       </c>
       <c r="J52" s="3">
-        <v>3020100</v>
+        <v>2921000</v>
       </c>
       <c r="K52" s="3">
         <v>2875700</v>
@@ -2208,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>939285000</v>
+        <v>908461000</v>
       </c>
       <c r="E54" s="3">
-        <v>911605000</v>
+        <v>881689000</v>
       </c>
       <c r="F54" s="3">
-        <v>1086500000</v>
+        <v>1050850000</v>
       </c>
       <c r="G54" s="3">
-        <v>1015800000</v>
+        <v>982462000</v>
       </c>
       <c r="H54" s="3">
-        <v>1042240000</v>
+        <v>1008040000</v>
       </c>
       <c r="I54" s="3">
-        <v>1035570000</v>
+        <v>1001590000</v>
       </c>
       <c r="J54" s="3">
-        <v>980705000</v>
+        <v>948522000</v>
       </c>
       <c r="K54" s="3">
         <v>903659000</v>
@@ -2312,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1879500</v>
+        <v>1817900</v>
       </c>
       <c r="E58" s="3">
-        <v>813700</v>
+        <v>787000</v>
       </c>
       <c r="F58" s="3">
-        <v>1663600</v>
+        <v>1609000</v>
       </c>
       <c r="G58" s="3">
-        <v>2715400</v>
+        <v>2626300</v>
       </c>
       <c r="H58" s="3">
-        <v>4407000</v>
+        <v>4262400</v>
       </c>
       <c r="I58" s="3">
-        <v>3837300</v>
+        <v>3711400</v>
       </c>
       <c r="J58" s="3">
-        <v>3251200</v>
+        <v>3144500</v>
       </c>
       <c r="K58" s="3">
         <v>6128100</v>
@@ -2348,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220748000</v>
+        <v>213504000</v>
       </c>
       <c r="E59" s="3">
-        <v>209131000</v>
+        <v>202268000</v>
       </c>
       <c r="F59" s="3">
-        <v>337665000</v>
+        <v>326584000</v>
       </c>
       <c r="G59" s="3">
-        <v>344305000</v>
+        <v>333007000</v>
       </c>
       <c r="H59" s="3">
-        <v>345935000</v>
+        <v>334583000</v>
       </c>
       <c r="I59" s="3">
-        <v>369681000</v>
+        <v>357550000</v>
       </c>
       <c r="J59" s="3">
-        <v>353475000</v>
+        <v>341876000</v>
       </c>
       <c r="K59" s="3">
         <v>346918000</v>
@@ -2420,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24321800</v>
+        <v>23523700</v>
       </c>
       <c r="E61" s="3">
-        <v>28978600</v>
+        <v>28027600</v>
       </c>
       <c r="F61" s="3">
-        <v>29173600</v>
+        <v>28216200</v>
       </c>
       <c r="G61" s="3">
-        <v>11106700</v>
+        <v>10742300</v>
       </c>
       <c r="H61" s="3">
-        <v>9868100</v>
+        <v>9544300</v>
       </c>
       <c r="I61" s="3">
-        <v>9033400</v>
+        <v>8737000</v>
       </c>
       <c r="J61" s="3">
-        <v>8683200</v>
+        <v>8398200</v>
       </c>
       <c r="K61" s="3">
         <v>8953600</v>
@@ -2456,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17417800</v>
+        <v>16846200</v>
       </c>
       <c r="E62" s="3">
-        <v>16637900</v>
+        <v>16091900</v>
       </c>
       <c r="F62" s="3">
-        <v>15569700</v>
+        <v>15058800</v>
       </c>
       <c r="G62" s="3">
-        <v>17346500</v>
+        <v>16777300</v>
       </c>
       <c r="H62" s="3">
-        <v>19758400</v>
+        <v>19110000</v>
       </c>
       <c r="I62" s="3">
-        <v>18129900</v>
+        <v>17534900</v>
       </c>
       <c r="J62" s="3">
-        <v>18511600</v>
+        <v>17904100</v>
       </c>
       <c r="K62" s="3">
         <v>14641500</v>
@@ -2600,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>855686000</v>
+        <v>827606000</v>
       </c>
       <c r="E66" s="3">
-        <v>830006000</v>
+        <v>802769000</v>
       </c>
       <c r="F66" s="3">
-        <v>1013620000</v>
+        <v>980360000</v>
       </c>
       <c r="G66" s="3">
-        <v>934532000</v>
+        <v>903864000</v>
       </c>
       <c r="H66" s="3">
-        <v>959828000</v>
+        <v>928330000</v>
       </c>
       <c r="I66" s="3">
-        <v>955636000</v>
+        <v>924276000</v>
       </c>
       <c r="J66" s="3">
-        <v>904568000</v>
+        <v>874883000</v>
       </c>
       <c r="K66" s="3">
         <v>840351000</v>
@@ -2796,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33838500</v>
+        <v>32728100</v>
       </c>
       <c r="E72" s="3">
-        <v>30273300</v>
+        <v>29279800</v>
       </c>
       <c r="F72" s="3">
-        <v>30990100</v>
+        <v>29973100</v>
       </c>
       <c r="G72" s="3">
-        <v>37463400</v>
+        <v>36233900</v>
       </c>
       <c r="H72" s="3">
-        <v>34386100</v>
+        <v>33257600</v>
       </c>
       <c r="I72" s="3">
-        <v>33692600</v>
+        <v>32587000</v>
       </c>
       <c r="J72" s="3">
-        <v>29780600</v>
+        <v>28803300</v>
       </c>
       <c r="K72" s="3">
         <v>85131200</v>
@@ -2940,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83599400</v>
+        <v>80856000</v>
       </c>
       <c r="E76" s="3">
-        <v>81598500</v>
+        <v>78920700</v>
       </c>
       <c r="F76" s="3">
-        <v>72879100</v>
+        <v>70487500</v>
       </c>
       <c r="G76" s="3">
-        <v>81264600</v>
+        <v>78597800</v>
       </c>
       <c r="H76" s="3">
-        <v>82415600</v>
+        <v>79711100</v>
       </c>
       <c r="I76" s="3">
-        <v>79938400</v>
+        <v>77315100</v>
       </c>
       <c r="J76" s="3">
-        <v>76137300</v>
+        <v>73638800</v>
       </c>
       <c r="K76" s="3">
         <v>63307700</v>
@@ -3053,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="E81" s="3">
-        <v>4207300</v>
+        <v>4069300</v>
       </c>
       <c r="F81" s="3">
-        <v>2192400</v>
+        <v>2120400</v>
       </c>
       <c r="G81" s="3">
-        <v>6981100</v>
+        <v>6752000</v>
       </c>
       <c r="H81" s="3">
-        <v>6493100</v>
+        <v>6280100</v>
       </c>
       <c r="I81" s="3">
-        <v>6201300</v>
+        <v>5997800</v>
       </c>
       <c r="J81" s="3">
-        <v>5509000</v>
+        <v>5328200</v>
       </c>
       <c r="K81" s="3">
         <v>5021600</v>
@@ -3105,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1372900</v>
+        <v>1327800</v>
       </c>
       <c r="E83" s="3">
-        <v>1606400</v>
+        <v>1553600</v>
       </c>
       <c r="F83" s="3">
-        <v>991100</v>
+        <v>958600</v>
       </c>
       <c r="G83" s="3">
-        <v>503200</v>
+        <v>486600</v>
       </c>
       <c r="H83" s="3">
-        <v>784500</v>
+        <v>758800</v>
       </c>
       <c r="I83" s="3">
-        <v>932800</v>
+        <v>902200</v>
       </c>
       <c r="J83" s="3">
-        <v>847500</v>
+        <v>819700</v>
       </c>
       <c r="K83" s="3">
         <v>1295500</v>
@@ -3321,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26422000</v>
+        <v>25554900</v>
       </c>
       <c r="E89" s="3">
-        <v>9255200</v>
+        <v>8951500</v>
       </c>
       <c r="F89" s="3">
-        <v>8912000</v>
+        <v>8619500</v>
       </c>
       <c r="G89" s="3">
-        <v>19291500</v>
+        <v>18658400</v>
       </c>
       <c r="H89" s="3">
-        <v>15805600</v>
+        <v>15286900</v>
       </c>
       <c r="I89" s="3">
-        <v>21194300</v>
+        <v>20498800</v>
       </c>
       <c r="J89" s="3">
-        <v>15072400</v>
+        <v>14577800</v>
       </c>
       <c r="K89" s="3">
         <v>6341100</v>
@@ -3373,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-454100</v>
+        <v>-439200</v>
       </c>
       <c r="E91" s="3">
-        <v>-539300</v>
+        <v>-521600</v>
       </c>
       <c r="F91" s="3">
-        <v>-539300</v>
+        <v>-521600</v>
       </c>
       <c r="G91" s="3">
-        <v>-458800</v>
+        <v>-443700</v>
       </c>
       <c r="H91" s="3">
-        <v>-551000</v>
+        <v>-532900</v>
       </c>
       <c r="I91" s="3">
-        <v>-539300</v>
+        <v>-521600</v>
       </c>
       <c r="J91" s="3">
-        <v>-412100</v>
+        <v>-398600</v>
       </c>
       <c r="K91" s="3">
         <v>-416300</v>
@@ -3481,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13344700</v>
+        <v>-12906700</v>
       </c>
       <c r="E94" s="3">
-        <v>-12889400</v>
+        <v>-12466400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2479600</v>
+        <v>-2398200</v>
       </c>
       <c r="G94" s="3">
-        <v>-14402300</v>
+        <v>-13929700</v>
       </c>
       <c r="H94" s="3">
-        <v>-11988100</v>
+        <v>-11594700</v>
       </c>
       <c r="I94" s="3">
-        <v>-11123100</v>
+        <v>-10758100</v>
       </c>
       <c r="J94" s="3">
-        <v>-9723400</v>
+        <v>-9404300</v>
       </c>
       <c r="K94" s="3">
         <v>-13724000</v>
@@ -3533,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2034800</v>
+        <v>-1968000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3815100</v>
+        <v>-3689900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3985500</v>
+        <v>-3854700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3616600</v>
+        <v>-3498000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3412300</v>
+        <v>-3300400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3078500</v>
+        <v>-2977400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2609200</v>
+        <v>-2523500</v>
       </c>
       <c r="K96" s="3">
         <v>-2337400</v>
@@ -3677,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5751800</v>
+        <v>-5563100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8145000</v>
+        <v>-7877700</v>
       </c>
       <c r="F100" s="3">
-        <v>4575100</v>
+        <v>4424900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7134000</v>
+        <v>-6899900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3359800</v>
+        <v>-3249500</v>
       </c>
       <c r="I100" s="3">
-        <v>-6780300</v>
+        <v>-6557800</v>
       </c>
       <c r="J100" s="3">
-        <v>-4819100</v>
+        <v>-4660900</v>
       </c>
       <c r="K100" s="3">
         <v>-2294300</v>
@@ -3713,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-860400</v>
+        <v>-832100</v>
       </c>
       <c r="E101" s="3">
-        <v>549900</v>
+        <v>531800</v>
       </c>
       <c r="F101" s="3">
-        <v>2282300</v>
+        <v>2207400</v>
       </c>
       <c r="G101" s="3">
-        <v>-568500</v>
+        <v>-549900</v>
       </c>
       <c r="H101" s="3">
-        <v>-321000</v>
+        <v>-310500</v>
       </c>
       <c r="I101" s="3">
-        <v>1377500</v>
+        <v>1332300</v>
       </c>
       <c r="J101" s="3">
-        <v>817200</v>
+        <v>790400</v>
       </c>
       <c r="K101" s="3">
         <v>-1631600</v>
@@ -3749,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6465100</v>
+        <v>6253000</v>
       </c>
       <c r="E102" s="3">
-        <v>-11229300</v>
+        <v>-10860800</v>
       </c>
       <c r="F102" s="3">
-        <v>13289800</v>
+        <v>12853700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2813500</v>
+        <v>-2721100</v>
       </c>
       <c r="H102" s="3">
-        <v>136600</v>
+        <v>132100</v>
       </c>
       <c r="I102" s="3">
-        <v>4668500</v>
+        <v>4515300</v>
       </c>
       <c r="J102" s="3">
-        <v>1347200</v>
+        <v>1303000</v>
       </c>
       <c r="K102" s="3">
         <v>-11308900</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -667,9 +667,7 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -724,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127977800</v>
+        <v>123649200</v>
       </c>
       <c r="E8" s="3">
-        <v>151226000</v>
+        <v>146111000</v>
       </c>
       <c r="F8" s="3">
-        <v>121579200</v>
+        <v>117467000</v>
       </c>
       <c r="G8" s="3">
-        <v>150048400</v>
+        <v>144973200</v>
       </c>
       <c r="H8" s="3">
-        <v>144329500</v>
+        <v>139447800</v>
       </c>
       <c r="I8" s="3">
-        <v>131181100</v>
+        <v>126744100</v>
       </c>
       <c r="J8" s="3">
-        <v>137837100</v>
+        <v>133175000</v>
       </c>
       <c r="K8" s="3">
         <v>150327700</v>
@@ -760,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>108673600</v>
+        <v>104997900</v>
       </c>
       <c r="E9" s="3">
-        <v>130668500</v>
+        <v>126248800</v>
       </c>
       <c r="F9" s="3">
-        <v>98259900</v>
+        <v>94936400</v>
       </c>
       <c r="G9" s="3">
-        <v>128784000</v>
+        <v>124428100</v>
       </c>
       <c r="H9" s="3">
-        <v>121427900</v>
+        <v>117320800</v>
       </c>
       <c r="I9" s="3">
-        <v>109249500</v>
+        <v>105554300</v>
       </c>
       <c r="J9" s="3">
-        <v>117425300</v>
+        <v>113453500</v>
       </c>
       <c r="K9" s="3">
         <v>129281700</v>
@@ -796,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19304200</v>
+        <v>18651300</v>
       </c>
       <c r="E10" s="3">
-        <v>20557500</v>
+        <v>19862200</v>
       </c>
       <c r="F10" s="3">
-        <v>23319300</v>
+        <v>22530600</v>
       </c>
       <c r="G10" s="3">
-        <v>21264300</v>
+        <v>20545100</v>
       </c>
       <c r="H10" s="3">
-        <v>22901500</v>
+        <v>22126900</v>
       </c>
       <c r="I10" s="3">
-        <v>21931600</v>
+        <v>21189800</v>
       </c>
       <c r="J10" s="3">
-        <v>20411900</v>
+        <v>19721500</v>
       </c>
       <c r="K10" s="3">
         <v>21045900</v>
@@ -920,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1354900</v>
+        <v>1309100</v>
       </c>
       <c r="E14" s="3">
-        <v>1105400</v>
+        <v>1068000</v>
       </c>
       <c r="F14" s="3">
-        <v>8707600</v>
+        <v>8413100</v>
       </c>
       <c r="G14" s="3">
-        <v>467400</v>
+        <v>451600</v>
       </c>
       <c r="H14" s="3">
-        <v>1027500</v>
+        <v>992700</v>
       </c>
       <c r="I14" s="3">
-        <v>947300</v>
+        <v>915300</v>
       </c>
       <c r="J14" s="3">
-        <v>787000</v>
+        <v>760400</v>
       </c>
       <c r="K14" s="3">
         <v>1077800</v>
@@ -1005,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>121937200</v>
+        <v>117812800</v>
       </c>
       <c r="E17" s="3">
-        <v>144632100</v>
+        <v>139740100</v>
       </c>
       <c r="F17" s="3">
-        <v>119541200</v>
+        <v>115497900</v>
       </c>
       <c r="G17" s="3">
-        <v>141314800</v>
+        <v>136535000</v>
       </c>
       <c r="H17" s="3">
-        <v>133999300</v>
+        <v>129467000</v>
       </c>
       <c r="I17" s="3">
-        <v>122157300</v>
+        <v>118025600</v>
       </c>
       <c r="J17" s="3">
-        <v>129131800</v>
+        <v>124764100</v>
       </c>
       <c r="K17" s="3">
         <v>142280800</v>
@@ -1041,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6040700</v>
+        <v>5836400</v>
       </c>
       <c r="E18" s="3">
-        <v>6593900</v>
+        <v>6370900</v>
       </c>
       <c r="F18" s="3">
-        <v>2038000</v>
+        <v>1969100</v>
       </c>
       <c r="G18" s="3">
-        <v>8733600</v>
+        <v>8438200</v>
       </c>
       <c r="H18" s="3">
-        <v>10330100</v>
+        <v>9980700</v>
       </c>
       <c r="I18" s="3">
-        <v>9023800</v>
+        <v>8718600</v>
       </c>
       <c r="J18" s="3">
-        <v>8705400</v>
+        <v>8410900</v>
       </c>
       <c r="K18" s="3">
         <v>8046800</v>
@@ -1093,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>451600</v>
+        <v>436400</v>
       </c>
       <c r="E20" s="3">
-        <v>569100</v>
+        <v>549800</v>
       </c>
       <c r="F20" s="3">
-        <v>324100</v>
+        <v>313100</v>
       </c>
       <c r="G20" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="H20" s="3">
-        <v>246100</v>
+        <v>237800</v>
       </c>
       <c r="I20" s="3">
-        <v>241600</v>
+        <v>233500</v>
       </c>
       <c r="J20" s="3">
-        <v>-82400</v>
+        <v>-79600</v>
       </c>
       <c r="K20" s="3">
         <v>167500</v>
@@ -1129,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7823200</v>
+        <v>7796700</v>
       </c>
       <c r="E21" s="3">
-        <v>8720200</v>
+        <v>7861000</v>
       </c>
       <c r="F21" s="3">
-        <v>3322900</v>
+        <v>2759500</v>
       </c>
       <c r="G21" s="3">
-        <v>9521700</v>
+        <v>9472600</v>
       </c>
       <c r="H21" s="3">
-        <v>11336800</v>
+        <v>11103500</v>
       </c>
       <c r="I21" s="3">
-        <v>10169600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9444600</v>
+        <v>9756100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>9504500</v>
@@ -1165,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>991300</v>
+        <v>957800</v>
       </c>
       <c r="E22" s="3">
-        <v>813000</v>
+        <v>785500</v>
       </c>
       <c r="F22" s="3">
-        <v>634600</v>
+        <v>613100</v>
       </c>
       <c r="G22" s="3">
-        <v>355700</v>
+        <v>343600</v>
       </c>
       <c r="H22" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="I22" s="3">
-        <v>551000</v>
+        <v>532400</v>
       </c>
       <c r="J22" s="3">
-        <v>574700</v>
+        <v>555300</v>
       </c>
       <c r="K22" s="3">
         <v>739300</v>
@@ -1201,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5501000</v>
+        <v>5314900</v>
       </c>
       <c r="E23" s="3">
-        <v>6350100</v>
+        <v>6135300</v>
       </c>
       <c r="F23" s="3">
-        <v>1727500</v>
+        <v>1669100</v>
       </c>
       <c r="G23" s="3">
-        <v>8678300</v>
+        <v>8384700</v>
       </c>
       <c r="H23" s="3">
-        <v>10242100</v>
+        <v>9895600</v>
       </c>
       <c r="I23" s="3">
-        <v>8714400</v>
+        <v>8419600</v>
       </c>
       <c r="J23" s="3">
-        <v>8048200</v>
+        <v>7776000</v>
       </c>
       <c r="K23" s="3">
         <v>7475100</v>
@@ -1237,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1739900</v>
+        <v>1681100</v>
       </c>
       <c r="E24" s="3">
-        <v>1602200</v>
+        <v>1548000</v>
       </c>
       <c r="F24" s="3">
-        <v>1664300</v>
+        <v>1608000</v>
       </c>
       <c r="G24" s="3">
-        <v>1222800</v>
+        <v>1181500</v>
       </c>
       <c r="H24" s="3">
-        <v>2752700</v>
+        <v>2659600</v>
       </c>
       <c r="I24" s="3">
-        <v>2026700</v>
+        <v>1958200</v>
       </c>
       <c r="J24" s="3">
-        <v>2022200</v>
+        <v>1953800</v>
       </c>
       <c r="K24" s="3">
         <v>1748800</v>
@@ -1309,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3761000</v>
+        <v>3633800</v>
       </c>
       <c r="E26" s="3">
-        <v>4747900</v>
+        <v>4587300</v>
       </c>
       <c r="F26" s="3">
-        <v>63200</v>
+        <v>61100</v>
       </c>
       <c r="G26" s="3">
-        <v>7455400</v>
+        <v>7203300</v>
       </c>
       <c r="H26" s="3">
-        <v>7489300</v>
+        <v>7236000</v>
       </c>
       <c r="I26" s="3">
-        <v>6687700</v>
+        <v>6461500</v>
       </c>
       <c r="J26" s="3">
-        <v>6026000</v>
+        <v>5822200</v>
       </c>
       <c r="K26" s="3">
         <v>5726200</v>
@@ -1345,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="E27" s="3">
-        <v>4096400</v>
+        <v>3957800</v>
       </c>
       <c r="F27" s="3">
-        <v>2603700</v>
+        <v>2515600</v>
       </c>
       <c r="G27" s="3">
-        <v>6752000</v>
+        <v>6523600</v>
       </c>
       <c r="H27" s="3">
-        <v>6775700</v>
+        <v>6546600</v>
       </c>
       <c r="I27" s="3">
-        <v>5925500</v>
+        <v>5725100</v>
       </c>
       <c r="J27" s="3">
-        <v>5328200</v>
+        <v>5148000</v>
       </c>
       <c r="K27" s="3">
         <v>5021600</v>
@@ -1420,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="F29" s="3">
-        <v>-483300</v>
+        <v>-466900</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-495700</v>
+        <v>-478900</v>
       </c>
       <c r="I29" s="3">
-        <v>72300</v>
+        <v>69800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1525,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-451600</v>
+        <v>-436400</v>
       </c>
       <c r="E32" s="3">
-        <v>-569100</v>
+        <v>-549800</v>
       </c>
       <c r="F32" s="3">
-        <v>-324100</v>
+        <v>-313100</v>
       </c>
       <c r="G32" s="3">
-        <v>-300300</v>
+        <v>-290200</v>
       </c>
       <c r="H32" s="3">
-        <v>-246100</v>
+        <v>-237800</v>
       </c>
       <c r="I32" s="3">
-        <v>-241600</v>
+        <v>-233500</v>
       </c>
       <c r="J32" s="3">
-        <v>82400</v>
+        <v>79600</v>
       </c>
       <c r="K32" s="3">
         <v>-167500</v>
@@ -1561,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="E33" s="3">
-        <v>4069300</v>
+        <v>3931600</v>
       </c>
       <c r="F33" s="3">
-        <v>2120400</v>
+        <v>2048700</v>
       </c>
       <c r="G33" s="3">
-        <v>6752000</v>
+        <v>6523600</v>
       </c>
       <c r="H33" s="3">
-        <v>6280100</v>
+        <v>6067600</v>
       </c>
       <c r="I33" s="3">
-        <v>5997800</v>
+        <v>5794900</v>
       </c>
       <c r="J33" s="3">
-        <v>5328200</v>
+        <v>5148000</v>
       </c>
       <c r="K33" s="3">
         <v>5021600</v>
@@ -1633,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="E35" s="3">
-        <v>4069300</v>
+        <v>3931600</v>
       </c>
       <c r="F35" s="3">
-        <v>2120400</v>
+        <v>2048700</v>
       </c>
       <c r="G35" s="3">
-        <v>6752000</v>
+        <v>6523600</v>
       </c>
       <c r="H35" s="3">
-        <v>6280100</v>
+        <v>6067600</v>
       </c>
       <c r="I35" s="3">
-        <v>5997800</v>
+        <v>5794900</v>
       </c>
       <c r="J35" s="3">
-        <v>5328200</v>
+        <v>5148000</v>
       </c>
       <c r="K35" s="3">
         <v>5021600</v>
@@ -1742,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31882400</v>
+        <v>30804000</v>
       </c>
       <c r="E41" s="3">
-        <v>24781500</v>
+        <v>23943300</v>
       </c>
       <c r="F41" s="3">
-        <v>35373600</v>
+        <v>34177100</v>
       </c>
       <c r="G41" s="3">
-        <v>26983200</v>
+        <v>26070600</v>
       </c>
       <c r="H41" s="3">
-        <v>29711100</v>
+        <v>28706200</v>
       </c>
       <c r="I41" s="3">
-        <v>29667100</v>
+        <v>28663700</v>
       </c>
       <c r="J41" s="3">
-        <v>24894400</v>
+        <v>24052400</v>
       </c>
       <c r="K41" s="3">
         <v>25664500</v>
@@ -1814,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42521900</v>
+        <v>41083700</v>
       </c>
       <c r="E43" s="3">
-        <v>44588200</v>
+        <v>43080000</v>
       </c>
       <c r="F43" s="3">
-        <v>47364600</v>
+        <v>45762600</v>
       </c>
       <c r="G43" s="3">
-        <v>34145100</v>
+        <v>32990200</v>
       </c>
       <c r="H43" s="3">
-        <v>39332200</v>
+        <v>38001800</v>
       </c>
       <c r="I43" s="3">
-        <v>35800400</v>
+        <v>34589500</v>
       </c>
       <c r="J43" s="3">
-        <v>32811600</v>
+        <v>31701800</v>
       </c>
       <c r="K43" s="3">
         <v>33173000</v>
@@ -1958,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>601626000</v>
+        <v>581277000</v>
       </c>
       <c r="E47" s="3">
-        <v>587742000</v>
+        <v>567862000</v>
       </c>
       <c r="F47" s="3">
-        <v>645100000</v>
+        <v>623281000</v>
       </c>
       <c r="G47" s="3">
-        <v>625788000</v>
+        <v>604622000</v>
       </c>
       <c r="H47" s="3">
-        <v>643194000</v>
+        <v>621439000</v>
       </c>
       <c r="I47" s="3">
-        <v>611014000</v>
+        <v>590347000</v>
       </c>
       <c r="J47" s="3">
-        <v>591476000</v>
+        <v>571470000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1994,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32207600</v>
+        <v>31118200</v>
       </c>
       <c r="E48" s="3">
-        <v>29551900</v>
+        <v>28552400</v>
       </c>
       <c r="F48" s="3">
-        <v>25447700</v>
+        <v>24586900</v>
       </c>
       <c r="G48" s="3">
-        <v>27641500</v>
+        <v>26706600</v>
       </c>
       <c r="H48" s="3">
-        <v>25847400</v>
+        <v>24973100</v>
       </c>
       <c r="I48" s="3">
-        <v>24615500</v>
+        <v>23782900</v>
       </c>
       <c r="J48" s="3">
-        <v>22505200</v>
+        <v>21744000</v>
       </c>
       <c r="K48" s="3">
         <v>22414400</v>
@@ -2030,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23726900</v>
+        <v>22924400</v>
       </c>
       <c r="E49" s="3">
-        <v>25571900</v>
+        <v>24706900</v>
       </c>
       <c r="F49" s="3">
-        <v>24626800</v>
+        <v>23793800</v>
       </c>
       <c r="G49" s="3">
-        <v>20957200</v>
+        <v>20248400</v>
       </c>
       <c r="H49" s="3">
-        <v>22526700</v>
+        <v>21764700</v>
       </c>
       <c r="I49" s="3">
-        <v>22964800</v>
+        <v>22188000</v>
       </c>
       <c r="J49" s="3">
-        <v>21681000</v>
+        <v>20947700</v>
       </c>
       <c r="K49" s="3">
         <v>43010600</v>
@@ -2138,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38124100</v>
+        <v>36834600</v>
       </c>
       <c r="E52" s="3">
-        <v>40923100</v>
+        <v>39538900</v>
       </c>
       <c r="F52" s="3">
-        <v>30823300</v>
+        <v>29780800</v>
       </c>
       <c r="G52" s="3">
-        <v>6612000</v>
+        <v>6388400</v>
       </c>
       <c r="H52" s="3">
-        <v>2841900</v>
+        <v>2745800</v>
       </c>
       <c r="I52" s="3">
-        <v>5725700</v>
+        <v>5532000</v>
       </c>
       <c r="J52" s="3">
-        <v>2921000</v>
+        <v>2822200</v>
       </c>
       <c r="K52" s="3">
         <v>2875700</v>
@@ -2210,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>908461000</v>
+        <v>877734000</v>
       </c>
       <c r="E54" s="3">
-        <v>881689000</v>
+        <v>851868000</v>
       </c>
       <c r="F54" s="3">
-        <v>1050850000</v>
+        <v>1015300000</v>
       </c>
       <c r="G54" s="3">
-        <v>982462000</v>
+        <v>949231000</v>
       </c>
       <c r="H54" s="3">
-        <v>1008040000</v>
+        <v>973946000</v>
       </c>
       <c r="I54" s="3">
-        <v>1001590000</v>
+        <v>967714000</v>
       </c>
       <c r="J54" s="3">
-        <v>948522000</v>
+        <v>916440000</v>
       </c>
       <c r="K54" s="3">
         <v>903659000</v>
@@ -2314,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1817900</v>
+        <v>1756400</v>
       </c>
       <c r="E58" s="3">
-        <v>787000</v>
+        <v>760400</v>
       </c>
       <c r="F58" s="3">
-        <v>1609000</v>
+        <v>1554500</v>
       </c>
       <c r="G58" s="3">
-        <v>2626300</v>
+        <v>2537500</v>
       </c>
       <c r="H58" s="3">
-        <v>4262400</v>
+        <v>4118200</v>
       </c>
       <c r="I58" s="3">
-        <v>3711400</v>
+        <v>3585800</v>
       </c>
       <c r="J58" s="3">
-        <v>3144500</v>
+        <v>3038200</v>
       </c>
       <c r="K58" s="3">
         <v>6128100</v>
@@ -2350,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213504000</v>
+        <v>206282000</v>
       </c>
       <c r="E59" s="3">
-        <v>202268000</v>
+        <v>195427000</v>
       </c>
       <c r="F59" s="3">
-        <v>326584000</v>
+        <v>315538000</v>
       </c>
       <c r="G59" s="3">
-        <v>333007000</v>
+        <v>321743000</v>
       </c>
       <c r="H59" s="3">
-        <v>334583000</v>
+        <v>323266000</v>
       </c>
       <c r="I59" s="3">
-        <v>357550000</v>
+        <v>345456000</v>
       </c>
       <c r="J59" s="3">
-        <v>341876000</v>
+        <v>330312000</v>
       </c>
       <c r="K59" s="3">
         <v>346918000</v>
@@ -2422,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23523700</v>
+        <v>22728000</v>
       </c>
       <c r="E61" s="3">
-        <v>28027600</v>
+        <v>27079700</v>
       </c>
       <c r="F61" s="3">
-        <v>28216200</v>
+        <v>27261800</v>
       </c>
       <c r="G61" s="3">
-        <v>10742300</v>
+        <v>10378900</v>
       </c>
       <c r="H61" s="3">
-        <v>9544300</v>
+        <v>9221500</v>
       </c>
       <c r="I61" s="3">
-        <v>8737000</v>
+        <v>8441500</v>
       </c>
       <c r="J61" s="3">
-        <v>8398200</v>
+        <v>8114200</v>
       </c>
       <c r="K61" s="3">
         <v>8953600</v>
@@ -2458,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16846200</v>
+        <v>16276400</v>
       </c>
       <c r="E62" s="3">
-        <v>16091900</v>
+        <v>15547600</v>
       </c>
       <c r="F62" s="3">
-        <v>15058800</v>
+        <v>14549500</v>
       </c>
       <c r="G62" s="3">
-        <v>16777300</v>
+        <v>16209800</v>
       </c>
       <c r="H62" s="3">
-        <v>19110000</v>
+        <v>18463700</v>
       </c>
       <c r="I62" s="3">
-        <v>17534900</v>
+        <v>16941800</v>
       </c>
       <c r="J62" s="3">
-        <v>17904100</v>
+        <v>17298600</v>
       </c>
       <c r="K62" s="3">
         <v>14641500</v>
@@ -2602,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>827606000</v>
+        <v>799613000</v>
       </c>
       <c r="E66" s="3">
-        <v>802769000</v>
+        <v>775616000</v>
       </c>
       <c r="F66" s="3">
-        <v>980360000</v>
+        <v>947201000</v>
       </c>
       <c r="G66" s="3">
-        <v>903864000</v>
+        <v>873292000</v>
       </c>
       <c r="H66" s="3">
-        <v>928330000</v>
+        <v>896931000</v>
       </c>
       <c r="I66" s="3">
-        <v>924276000</v>
+        <v>893014000</v>
       </c>
       <c r="J66" s="3">
-        <v>874883000</v>
+        <v>845292000</v>
       </c>
       <c r="K66" s="3">
         <v>840351000</v>
@@ -2798,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32728100</v>
+        <v>31621100</v>
       </c>
       <c r="E72" s="3">
-        <v>29279800</v>
+        <v>28289500</v>
       </c>
       <c r="F72" s="3">
-        <v>29973100</v>
+        <v>28959300</v>
       </c>
       <c r="G72" s="3">
-        <v>36233900</v>
+        <v>35008400</v>
       </c>
       <c r="H72" s="3">
-        <v>33257600</v>
+        <v>32132800</v>
       </c>
       <c r="I72" s="3">
-        <v>32587000</v>
+        <v>31484800</v>
       </c>
       <c r="J72" s="3">
-        <v>28803300</v>
+        <v>27829100</v>
       </c>
       <c r="K72" s="3">
         <v>85131200</v>
@@ -2942,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80856000</v>
+        <v>78121200</v>
       </c>
       <c r="E76" s="3">
-        <v>78920700</v>
+        <v>76251300</v>
       </c>
       <c r="F76" s="3">
-        <v>70487500</v>
+        <v>68103300</v>
       </c>
       <c r="G76" s="3">
-        <v>78597800</v>
+        <v>75939300</v>
       </c>
       <c r="H76" s="3">
-        <v>79711100</v>
+        <v>77015000</v>
       </c>
       <c r="I76" s="3">
-        <v>77315100</v>
+        <v>74700100</v>
       </c>
       <c r="J76" s="3">
-        <v>73638800</v>
+        <v>71148100</v>
       </c>
       <c r="K76" s="3">
         <v>63307700</v>
@@ -3055,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="E81" s="3">
-        <v>4069300</v>
+        <v>3931600</v>
       </c>
       <c r="F81" s="3">
-        <v>2120400</v>
+        <v>2048700</v>
       </c>
       <c r="G81" s="3">
-        <v>6752000</v>
+        <v>6523600</v>
       </c>
       <c r="H81" s="3">
-        <v>6280100</v>
+        <v>6067600</v>
       </c>
       <c r="I81" s="3">
-        <v>5997800</v>
+        <v>5794900</v>
       </c>
       <c r="J81" s="3">
-        <v>5328200</v>
+        <v>5148000</v>
       </c>
       <c r="K81" s="3">
         <v>5021600</v>
@@ -3107,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1327800</v>
+        <v>1501100</v>
       </c>
       <c r="E83" s="3">
-        <v>1553600</v>
+        <v>926200</v>
       </c>
       <c r="F83" s="3">
-        <v>958600</v>
+        <v>470200</v>
       </c>
       <c r="G83" s="3">
-        <v>486600</v>
+        <v>733100</v>
       </c>
       <c r="H83" s="3">
-        <v>758800</v>
+        <v>871600</v>
       </c>
       <c r="I83" s="3">
-        <v>902200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>819700</v>
+        <v>792000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1295500</v>
@@ -3323,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25554900</v>
+        <v>8648700</v>
       </c>
       <c r="E89" s="3">
-        <v>8951500</v>
+        <v>8328000</v>
       </c>
       <c r="F89" s="3">
-        <v>8619500</v>
+        <v>18027300</v>
       </c>
       <c r="G89" s="3">
-        <v>18658400</v>
+        <v>14769800</v>
       </c>
       <c r="H89" s="3">
-        <v>15286900</v>
+        <v>19805500</v>
       </c>
       <c r="I89" s="3">
-        <v>20498800</v>
+        <v>14084700</v>
       </c>
       <c r="J89" s="3">
-        <v>14577800</v>
+        <v>5782900</v>
       </c>
       <c r="K89" s="3">
         <v>6341100</v>
@@ -3375,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-439200</v>
+        <v>-504000</v>
       </c>
       <c r="E91" s="3">
-        <v>-521600</v>
+        <v>-504000</v>
       </c>
       <c r="F91" s="3">
-        <v>-521600</v>
+        <v>-428700</v>
       </c>
       <c r="G91" s="3">
-        <v>-443700</v>
+        <v>-514900</v>
       </c>
       <c r="H91" s="3">
-        <v>-532900</v>
+        <v>-504000</v>
       </c>
       <c r="I91" s="3">
-        <v>-521600</v>
+        <v>-385100</v>
       </c>
       <c r="J91" s="3">
-        <v>-398600</v>
+        <v>-379600</v>
       </c>
       <c r="K91" s="3">
         <v>-416300</v>
@@ -3483,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12906700</v>
+        <v>-12044700</v>
       </c>
       <c r="E94" s="3">
-        <v>-12466400</v>
+        <v>-2317100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2398200</v>
+        <v>-13458600</v>
       </c>
       <c r="G94" s="3">
-        <v>-13929700</v>
+        <v>-11202600</v>
       </c>
       <c r="H94" s="3">
-        <v>-11594700</v>
+        <v>-10394200</v>
       </c>
       <c r="I94" s="3">
-        <v>-10758100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9404300</v>
+        <v>-9086200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-13724000</v>
@@ -3535,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1968000</v>
+        <v>-3565100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3689900</v>
+        <v>-3724400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3854700</v>
+        <v>-3379600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3498000</v>
+        <v>-3188700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3300400</v>
+        <v>-2876700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2977400</v>
+        <v>-2438200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2523500</v>
+        <v>-2131600</v>
       </c>
       <c r="K96" s="3">
         <v>-2337400</v>
@@ -3679,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5563100</v>
+        <v>-7611300</v>
       </c>
       <c r="E100" s="3">
-        <v>-7877700</v>
+        <v>4275300</v>
       </c>
       <c r="F100" s="3">
-        <v>4424900</v>
+        <v>-6666600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6899900</v>
+        <v>-3139600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3249500</v>
+        <v>-6336000</v>
       </c>
       <c r="I100" s="3">
-        <v>-6557800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-4660900</v>
+        <v>-4503300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-2294300</v>
@@ -3715,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-832100</v>
+        <v>513800</v>
       </c>
       <c r="E101" s="3">
-        <v>531800</v>
+        <v>2132700</v>
       </c>
       <c r="F101" s="3">
-        <v>2207400</v>
+        <v>-531300</v>
       </c>
       <c r="G101" s="3">
-        <v>-549900</v>
+        <v>-300000</v>
       </c>
       <c r="H101" s="3">
-        <v>-310500</v>
+        <v>1287300</v>
       </c>
       <c r="I101" s="3">
-        <v>1332300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>790400</v>
+        <v>763600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-1631600</v>
@@ -3751,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6253000</v>
+        <v>-10493500</v>
       </c>
       <c r="E102" s="3">
-        <v>-10860800</v>
+        <v>12418900</v>
       </c>
       <c r="F102" s="3">
-        <v>12853700</v>
+        <v>-2629100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2721100</v>
+        <v>127600</v>
       </c>
       <c r="H102" s="3">
-        <v>132100</v>
+        <v>4362500</v>
       </c>
       <c r="I102" s="3">
-        <v>4515300</v>
+        <v>1258900</v>
       </c>
       <c r="J102" s="3">
-        <v>1303000</v>
+        <v>-10313500</v>
       </c>
       <c r="K102" s="3">
         <v>-11308900</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,177 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>123649200</v>
+        <v>127391800</v>
       </c>
       <c r="E8" s="3">
-        <v>146111000</v>
+        <v>117640800</v>
       </c>
       <c r="F8" s="3">
-        <v>117467000</v>
+        <v>139011100</v>
       </c>
       <c r="G8" s="3">
-        <v>144973200</v>
+        <v>111759000</v>
       </c>
       <c r="H8" s="3">
-        <v>139447800</v>
+        <v>137928600</v>
       </c>
       <c r="I8" s="3">
-        <v>126744100</v>
+        <v>132671600</v>
       </c>
       <c r="J8" s="3">
+        <v>120585300</v>
+      </c>
+      <c r="K8" s="3">
         <v>133175000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>150327700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>132761400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119444600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>104997900</v>
+        <v>105333400</v>
       </c>
       <c r="E9" s="3">
-        <v>126248800</v>
+        <v>99895800</v>
       </c>
       <c r="F9" s="3">
-        <v>94936400</v>
+        <v>120114100</v>
       </c>
       <c r="G9" s="3">
-        <v>124428100</v>
+        <v>90323200</v>
       </c>
       <c r="H9" s="3">
-        <v>117320800</v>
+        <v>118381800</v>
       </c>
       <c r="I9" s="3">
-        <v>105554300</v>
+        <v>111619900</v>
       </c>
       <c r="J9" s="3">
+        <v>100425100</v>
+      </c>
+      <c r="K9" s="3">
         <v>113453500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129281700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114643300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99624800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18651300</v>
+        <v>22058500</v>
       </c>
       <c r="E10" s="3">
-        <v>19862200</v>
+        <v>17745000</v>
       </c>
       <c r="F10" s="3">
-        <v>22530600</v>
+        <v>18897000</v>
       </c>
       <c r="G10" s="3">
-        <v>20545100</v>
+        <v>21435700</v>
       </c>
       <c r="H10" s="3">
-        <v>22126900</v>
+        <v>19546800</v>
       </c>
       <c r="I10" s="3">
-        <v>21189800</v>
+        <v>21051700</v>
       </c>
       <c r="J10" s="3">
+        <v>20160200</v>
+      </c>
+      <c r="K10" s="3">
         <v>19721500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21045900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18118100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19819800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1309100</v>
+        <v>859400</v>
       </c>
       <c r="E14" s="3">
-        <v>1068000</v>
+        <v>1245500</v>
       </c>
       <c r="F14" s="3">
-        <v>8413100</v>
+        <v>1016100</v>
       </c>
       <c r="G14" s="3">
-        <v>451600</v>
+        <v>8004300</v>
       </c>
       <c r="H14" s="3">
-        <v>992700</v>
+        <v>429700</v>
       </c>
       <c r="I14" s="3">
-        <v>915300</v>
+        <v>944500</v>
       </c>
       <c r="J14" s="3">
+        <v>870800</v>
+      </c>
+      <c r="K14" s="3">
         <v>760400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1077800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>815800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1426200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,18 +994,21 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>206400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>292300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>117812800</v>
+        <v>117517300</v>
       </c>
       <c r="E17" s="3">
-        <v>139740100</v>
+        <v>112088000</v>
       </c>
       <c r="F17" s="3">
-        <v>115497900</v>
+        <v>132949800</v>
       </c>
       <c r="G17" s="3">
-        <v>136535000</v>
+        <v>109885600</v>
       </c>
       <c r="H17" s="3">
-        <v>129467000</v>
+        <v>129900500</v>
       </c>
       <c r="I17" s="3">
-        <v>118025600</v>
+        <v>123175900</v>
       </c>
       <c r="J17" s="3">
+        <v>112290400</v>
+      </c>
+      <c r="K17" s="3">
         <v>124764100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>142280800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126464300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113979300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5836400</v>
+        <v>9874600</v>
       </c>
       <c r="E18" s="3">
-        <v>6370900</v>
+        <v>5552800</v>
       </c>
       <c r="F18" s="3">
-        <v>1969100</v>
+        <v>6061300</v>
       </c>
       <c r="G18" s="3">
-        <v>8438200</v>
+        <v>1873400</v>
       </c>
       <c r="H18" s="3">
-        <v>9980700</v>
+        <v>8028200</v>
       </c>
       <c r="I18" s="3">
-        <v>8718600</v>
+        <v>9495700</v>
       </c>
       <c r="J18" s="3">
+        <v>8294900</v>
+      </c>
+      <c r="K18" s="3">
         <v>8410900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8046800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6297000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5465300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>436400</v>
+        <v>149500</v>
       </c>
       <c r="E20" s="3">
-        <v>549800</v>
+        <v>415200</v>
       </c>
       <c r="F20" s="3">
-        <v>313100</v>
+        <v>523100</v>
       </c>
       <c r="G20" s="3">
-        <v>290200</v>
+        <v>297900</v>
       </c>
       <c r="H20" s="3">
-        <v>237800</v>
+        <v>276100</v>
       </c>
       <c r="I20" s="3">
-        <v>233500</v>
+        <v>226300</v>
       </c>
       <c r="J20" s="3">
+        <v>222100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-79600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>167500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>129600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>72800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7796700</v>
+        <v>10938500</v>
       </c>
       <c r="E21" s="3">
-        <v>7861000</v>
+        <v>7204000</v>
       </c>
       <c r="F21" s="3">
-        <v>2759500</v>
+        <v>8030800</v>
       </c>
       <c r="G21" s="3">
-        <v>9472600</v>
+        <v>3063700</v>
       </c>
       <c r="H21" s="3">
-        <v>11103500</v>
+        <v>8757300</v>
       </c>
       <c r="I21" s="3">
-        <v>9756100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>10428300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9356800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9504500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7972800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6387300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>957800</v>
+        <v>479500</v>
       </c>
       <c r="E22" s="3">
-        <v>785500</v>
+        <v>911300</v>
       </c>
       <c r="F22" s="3">
-        <v>613100</v>
+        <v>747300</v>
       </c>
       <c r="G22" s="3">
-        <v>343600</v>
+        <v>583300</v>
       </c>
       <c r="H22" s="3">
-        <v>322900</v>
+        <v>326900</v>
       </c>
       <c r="I22" s="3">
-        <v>532400</v>
+        <v>307200</v>
       </c>
       <c r="J22" s="3">
+        <v>506500</v>
+      </c>
+      <c r="K22" s="3">
         <v>555300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>739300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>623700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>386200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5314900</v>
+        <v>9544500</v>
       </c>
       <c r="E23" s="3">
-        <v>6135300</v>
+        <v>5056600</v>
       </c>
       <c r="F23" s="3">
-        <v>1669100</v>
+        <v>5837100</v>
       </c>
       <c r="G23" s="3">
-        <v>8384700</v>
+        <v>1588000</v>
       </c>
       <c r="H23" s="3">
-        <v>9895600</v>
+        <v>7977300</v>
       </c>
       <c r="I23" s="3">
-        <v>8419600</v>
+        <v>9414800</v>
       </c>
       <c r="J23" s="3">
+        <v>8010500</v>
+      </c>
+      <c r="K23" s="3">
         <v>7776000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7475100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5802900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5151900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1681100</v>
+        <v>1753000</v>
       </c>
       <c r="E24" s="3">
-        <v>1548000</v>
+        <v>1599400</v>
       </c>
       <c r="F24" s="3">
-        <v>1608000</v>
+        <v>1472800</v>
       </c>
       <c r="G24" s="3">
-        <v>1181500</v>
+        <v>1529900</v>
       </c>
       <c r="H24" s="3">
-        <v>2659600</v>
+        <v>1124000</v>
       </c>
       <c r="I24" s="3">
-        <v>1958200</v>
+        <v>2530400</v>
       </c>
       <c r="J24" s="3">
+        <v>1863000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1953800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1748800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1205600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1186700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3633800</v>
+        <v>7791500</v>
       </c>
       <c r="E26" s="3">
-        <v>4587300</v>
+        <v>3457200</v>
       </c>
       <c r="F26" s="3">
-        <v>61100</v>
+        <v>4364400</v>
       </c>
       <c r="G26" s="3">
-        <v>7203300</v>
+        <v>58100</v>
       </c>
       <c r="H26" s="3">
-        <v>7236000</v>
+        <v>6853300</v>
       </c>
       <c r="I26" s="3">
-        <v>6461500</v>
+        <v>6884400</v>
       </c>
       <c r="J26" s="3">
+        <v>6147500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5822200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5726200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4597300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3965100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3258500</v>
+        <v>7369100</v>
       </c>
       <c r="E27" s="3">
-        <v>3957800</v>
+        <v>3100200</v>
       </c>
       <c r="F27" s="3">
-        <v>2515600</v>
+        <v>3765500</v>
       </c>
       <c r="G27" s="3">
-        <v>6523600</v>
+        <v>2393400</v>
       </c>
       <c r="H27" s="3">
-        <v>6546600</v>
+        <v>6206600</v>
       </c>
       <c r="I27" s="3">
-        <v>5725100</v>
+        <v>6228400</v>
       </c>
       <c r="J27" s="3">
+        <v>5446900</v>
+      </c>
+      <c r="K27" s="3">
         <v>5148000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5021600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4134000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-26200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-466900</v>
+        <v>-24900</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-444200</v>
       </c>
       <c r="H29" s="3">
-        <v>-478900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>69800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-455600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>66400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1176200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-436400</v>
+        <v>-149500</v>
       </c>
       <c r="E32" s="3">
-        <v>-549800</v>
+        <v>-415200</v>
       </c>
       <c r="F32" s="3">
-        <v>-313100</v>
+        <v>-523100</v>
       </c>
       <c r="G32" s="3">
-        <v>-290200</v>
+        <v>-297900</v>
       </c>
       <c r="H32" s="3">
-        <v>-237800</v>
+        <v>-276100</v>
       </c>
       <c r="I32" s="3">
-        <v>-233500</v>
+        <v>-226300</v>
       </c>
       <c r="J32" s="3">
+        <v>-222100</v>
+      </c>
+      <c r="K32" s="3">
         <v>79600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-167500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-129600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-72800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3258500</v>
+        <v>7369100</v>
       </c>
       <c r="E33" s="3">
-        <v>3931600</v>
+        <v>3100200</v>
       </c>
       <c r="F33" s="3">
-        <v>2048700</v>
+        <v>3740600</v>
       </c>
       <c r="G33" s="3">
-        <v>6523600</v>
+        <v>1949200</v>
       </c>
       <c r="H33" s="3">
-        <v>6067600</v>
+        <v>6206600</v>
       </c>
       <c r="I33" s="3">
-        <v>5794900</v>
+        <v>5772800</v>
       </c>
       <c r="J33" s="3">
+        <v>5513300</v>
+      </c>
+      <c r="K33" s="3">
         <v>5148000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5021600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4134000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4576700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3258500</v>
+        <v>7369100</v>
       </c>
       <c r="E35" s="3">
-        <v>3931600</v>
+        <v>3100200</v>
       </c>
       <c r="F35" s="3">
-        <v>2048700</v>
+        <v>3740600</v>
       </c>
       <c r="G35" s="3">
-        <v>6523600</v>
+        <v>1949200</v>
       </c>
       <c r="H35" s="3">
-        <v>6067600</v>
+        <v>6206600</v>
       </c>
       <c r="I35" s="3">
-        <v>5794900</v>
+        <v>5772800</v>
       </c>
       <c r="J35" s="3">
+        <v>5513300</v>
+      </c>
+      <c r="K35" s="3">
         <v>5148000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5021600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4134000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4576700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30804000</v>
+        <v>26000400</v>
       </c>
       <c r="E41" s="3">
-        <v>23943300</v>
+        <v>29307200</v>
       </c>
       <c r="F41" s="3">
-        <v>34177100</v>
+        <v>22779800</v>
       </c>
       <c r="G41" s="3">
-        <v>26070600</v>
+        <v>32516400</v>
       </c>
       <c r="H41" s="3">
-        <v>28706200</v>
+        <v>24803700</v>
       </c>
       <c r="I41" s="3">
-        <v>28663700</v>
+        <v>27311300</v>
       </c>
       <c r="J41" s="3">
+        <v>27270800</v>
+      </c>
+      <c r="K41" s="3">
         <v>24052400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25664500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33539500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36472600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,45 +1892,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41083700</v>
+        <v>38833000</v>
       </c>
       <c r="E43" s="3">
-        <v>43080000</v>
+        <v>39087300</v>
       </c>
       <c r="F43" s="3">
-        <v>45762600</v>
+        <v>40986700</v>
       </c>
       <c r="G43" s="3">
-        <v>32990200</v>
+        <v>43538900</v>
       </c>
       <c r="H43" s="3">
-        <v>38001800</v>
+        <v>31387100</v>
       </c>
       <c r="I43" s="3">
-        <v>34589500</v>
+        <v>36155200</v>
       </c>
       <c r="J43" s="3">
+        <v>32908700</v>
+      </c>
+      <c r="K43" s="3">
         <v>31701800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33173000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53363900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38370700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1913,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1949,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>581277000</v>
+        <v>529124000</v>
       </c>
       <c r="E47" s="3">
-        <v>567862000</v>
+        <v>553032000</v>
       </c>
       <c r="F47" s="3">
-        <v>623281000</v>
+        <v>540269000</v>
       </c>
       <c r="G47" s="3">
-        <v>604622000</v>
+        <v>592994000</v>
       </c>
       <c r="H47" s="3">
-        <v>621439000</v>
+        <v>575242000</v>
       </c>
       <c r="I47" s="3">
-        <v>590347000</v>
+        <v>591242000</v>
       </c>
       <c r="J47" s="3">
+        <v>561661000</v>
+      </c>
+      <c r="K47" s="3">
         <v>571470000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>723251000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31118200</v>
+        <v>31965200</v>
       </c>
       <c r="E48" s="3">
-        <v>28552400</v>
+        <v>29606100</v>
       </c>
       <c r="F48" s="3">
-        <v>24586900</v>
+        <v>27165000</v>
       </c>
       <c r="G48" s="3">
-        <v>26706600</v>
+        <v>23392200</v>
       </c>
       <c r="H48" s="3">
-        <v>24973100</v>
+        <v>25408800</v>
       </c>
       <c r="I48" s="3">
-        <v>23782900</v>
+        <v>23759600</v>
       </c>
       <c r="J48" s="3">
+        <v>22627300</v>
+      </c>
+      <c r="K48" s="3">
         <v>21744000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22414400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20476600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1655100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22924400</v>
+        <v>22277500</v>
       </c>
       <c r="E49" s="3">
-        <v>24706900</v>
+        <v>21810400</v>
       </c>
       <c r="F49" s="3">
-        <v>23793800</v>
+        <v>23506400</v>
       </c>
       <c r="G49" s="3">
-        <v>20248400</v>
+        <v>22637600</v>
       </c>
       <c r="H49" s="3">
-        <v>21764700</v>
+        <v>19264500</v>
       </c>
       <c r="I49" s="3">
-        <v>22188000</v>
+        <v>20707100</v>
       </c>
       <c r="J49" s="3">
+        <v>21109800</v>
+      </c>
+      <c r="K49" s="3">
         <v>20947700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43010600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44897200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30158700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36834600</v>
+        <v>9271600</v>
       </c>
       <c r="E52" s="3">
-        <v>39538900</v>
+        <v>35044700</v>
       </c>
       <c r="F52" s="3">
-        <v>29780800</v>
+        <v>37617600</v>
       </c>
       <c r="G52" s="3">
-        <v>6388400</v>
+        <v>28333600</v>
       </c>
       <c r="H52" s="3">
-        <v>2745800</v>
+        <v>6077900</v>
       </c>
       <c r="I52" s="3">
-        <v>5532000</v>
+        <v>2612400</v>
       </c>
       <c r="J52" s="3">
+        <v>5263200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2822200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2875700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3563000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5797400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>877734000</v>
+        <v>804882000</v>
       </c>
       <c r="E54" s="3">
-        <v>851868000</v>
+        <v>835083000</v>
       </c>
       <c r="F54" s="3">
-        <v>1015300000</v>
+        <v>810473000</v>
       </c>
       <c r="G54" s="3">
-        <v>949231000</v>
+        <v>965968000</v>
       </c>
       <c r="H54" s="3">
-        <v>973946000</v>
+        <v>903106000</v>
       </c>
       <c r="I54" s="3">
-        <v>967714000</v>
+        <v>926620000</v>
       </c>
       <c r="J54" s="3">
+        <v>920690000</v>
+      </c>
+      <c r="K54" s="3">
         <v>916440000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>903659000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>836525000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>853599000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2305,81 +2433,90 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1756400</v>
+        <v>1311900</v>
       </c>
       <c r="E58" s="3">
-        <v>760400</v>
+        <v>1671000</v>
       </c>
       <c r="F58" s="3">
-        <v>1554500</v>
+        <v>723400</v>
       </c>
       <c r="G58" s="3">
-        <v>2537500</v>
+        <v>1479000</v>
       </c>
       <c r="H58" s="3">
-        <v>4118200</v>
+        <v>2414200</v>
       </c>
       <c r="I58" s="3">
-        <v>3585800</v>
+        <v>3918100</v>
       </c>
       <c r="J58" s="3">
+        <v>3411600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3038200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6128100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4952000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7362100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206282000</v>
+        <v>210720000</v>
       </c>
       <c r="E59" s="3">
-        <v>195427000</v>
+        <v>196259000</v>
       </c>
       <c r="F59" s="3">
-        <v>315538000</v>
+        <v>185930000</v>
       </c>
       <c r="G59" s="3">
-        <v>321743000</v>
+        <v>300205000</v>
       </c>
       <c r="H59" s="3">
-        <v>323266000</v>
+        <v>306109000</v>
       </c>
       <c r="I59" s="3">
-        <v>345456000</v>
+        <v>307558000</v>
       </c>
       <c r="J59" s="3">
+        <v>328670000</v>
+      </c>
+      <c r="K59" s="3">
         <v>330312000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>346918000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>301801000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55893300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2413,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22728000</v>
+        <v>22050200</v>
       </c>
       <c r="E61" s="3">
-        <v>27079700</v>
+        <v>21623600</v>
       </c>
       <c r="F61" s="3">
-        <v>27261800</v>
+        <v>25763800</v>
       </c>
       <c r="G61" s="3">
-        <v>10378900</v>
+        <v>25937100</v>
       </c>
       <c r="H61" s="3">
-        <v>9221500</v>
+        <v>9874600</v>
       </c>
       <c r="I61" s="3">
-        <v>8441500</v>
+        <v>8773400</v>
       </c>
       <c r="J61" s="3">
+        <v>8031300</v>
+      </c>
+      <c r="K61" s="3">
         <v>8114200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8953600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16658900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12232300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16276400</v>
+        <v>5536200</v>
       </c>
       <c r="E62" s="3">
-        <v>15547600</v>
+        <v>15485500</v>
       </c>
       <c r="F62" s="3">
-        <v>14549500</v>
+        <v>14792200</v>
       </c>
       <c r="G62" s="3">
-        <v>16209800</v>
+        <v>13842500</v>
       </c>
       <c r="H62" s="3">
-        <v>18463700</v>
+        <v>15422200</v>
       </c>
       <c r="I62" s="3">
-        <v>16941800</v>
+        <v>17566500</v>
       </c>
       <c r="J62" s="3">
+        <v>16118600</v>
+      </c>
+      <c r="K62" s="3">
         <v>17298600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14641500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16362400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4453400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>799613000</v>
+        <v>731051000</v>
       </c>
       <c r="E66" s="3">
-        <v>775616000</v>
+        <v>760758000</v>
       </c>
       <c r="F66" s="3">
-        <v>947201000</v>
+        <v>737927000</v>
       </c>
       <c r="G66" s="3">
-        <v>873292000</v>
+        <v>901174000</v>
       </c>
       <c r="H66" s="3">
-        <v>896931000</v>
+        <v>830857000</v>
       </c>
       <c r="I66" s="3">
-        <v>893014000</v>
+        <v>853347000</v>
       </c>
       <c r="J66" s="3">
+        <v>849620000</v>
+      </c>
+      <c r="K66" s="3">
         <v>845292000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>840351000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>777665000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>799115000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31621100</v>
+        <v>25029000</v>
       </c>
       <c r="E72" s="3">
-        <v>28289500</v>
+        <v>30084600</v>
       </c>
       <c r="F72" s="3">
-        <v>28959300</v>
+        <v>26914800</v>
       </c>
       <c r="G72" s="3">
-        <v>35008400</v>
+        <v>27552100</v>
       </c>
       <c r="H72" s="3">
-        <v>32132800</v>
+        <v>33307200</v>
       </c>
       <c r="I72" s="3">
-        <v>31484800</v>
+        <v>30571300</v>
       </c>
       <c r="J72" s="3">
+        <v>29954800</v>
+      </c>
+      <c r="K72" s="3">
         <v>27829100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85131200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59954100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24918800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78121200</v>
+        <v>73831000</v>
       </c>
       <c r="E76" s="3">
-        <v>76251300</v>
+        <v>74325100</v>
       </c>
       <c r="F76" s="3">
-        <v>68103300</v>
+        <v>72546100</v>
       </c>
       <c r="G76" s="3">
-        <v>75939300</v>
+        <v>64794000</v>
       </c>
       <c r="H76" s="3">
-        <v>77015000</v>
+        <v>72249300</v>
       </c>
       <c r="I76" s="3">
-        <v>74700100</v>
+        <v>73272600</v>
       </c>
       <c r="J76" s="3">
+        <v>71070200</v>
+      </c>
+      <c r="K76" s="3">
         <v>71148100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63307700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58859400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54484700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3258500</v>
+        <v>7369100</v>
       </c>
       <c r="E81" s="3">
-        <v>3931600</v>
+        <v>3100200</v>
       </c>
       <c r="F81" s="3">
-        <v>2048700</v>
+        <v>3740600</v>
       </c>
       <c r="G81" s="3">
-        <v>6523600</v>
+        <v>1949200</v>
       </c>
       <c r="H81" s="3">
-        <v>6067600</v>
+        <v>6206600</v>
       </c>
       <c r="I81" s="3">
-        <v>5794900</v>
+        <v>5772800</v>
       </c>
       <c r="J81" s="3">
+        <v>5513300</v>
+      </c>
+      <c r="K81" s="3">
         <v>5148000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5021600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4134000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4576700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1501100</v>
+        <v>903000</v>
       </c>
       <c r="E83" s="3">
-        <v>926200</v>
+        <v>1220600</v>
       </c>
       <c r="F83" s="3">
-        <v>470200</v>
+        <v>1428200</v>
       </c>
       <c r="G83" s="3">
-        <v>733100</v>
+        <v>881200</v>
       </c>
       <c r="H83" s="3">
-        <v>871600</v>
+        <v>447300</v>
       </c>
       <c r="I83" s="3">
-        <v>792000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>697500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>829300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1295500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1543800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>848700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8648700</v>
+        <v>10313600</v>
       </c>
       <c r="E89" s="3">
-        <v>8328000</v>
+        <v>23490800</v>
       </c>
       <c r="F89" s="3">
-        <v>18027300</v>
+        <v>8228500</v>
       </c>
       <c r="G89" s="3">
-        <v>14769800</v>
+        <v>7923300</v>
       </c>
       <c r="H89" s="3">
-        <v>19805500</v>
+        <v>17151300</v>
       </c>
       <c r="I89" s="3">
-        <v>14084700</v>
+        <v>14052100</v>
       </c>
       <c r="J89" s="3">
+        <v>18843100</v>
+      </c>
+      <c r="K89" s="3">
         <v>5782900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6341100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11545500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20080400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-504000</v>
+        <v>-363300</v>
       </c>
       <c r="E91" s="3">
-        <v>-504000</v>
+        <v>-403700</v>
       </c>
       <c r="F91" s="3">
-        <v>-428700</v>
+        <v>-479500</v>
       </c>
       <c r="G91" s="3">
-        <v>-514900</v>
+        <v>-479500</v>
       </c>
       <c r="H91" s="3">
-        <v>-504000</v>
+        <v>-407900</v>
       </c>
       <c r="I91" s="3">
-        <v>-385100</v>
+        <v>-489900</v>
       </c>
       <c r="J91" s="3">
+        <v>-479500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-379600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-416300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-372200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-437800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12044700</v>
+        <v>-9290200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2317100</v>
+        <v>-11864200</v>
       </c>
       <c r="F94" s="3">
-        <v>-13458600</v>
+        <v>-11459500</v>
       </c>
       <c r="G94" s="3">
-        <v>-11202600</v>
+        <v>-2204500</v>
       </c>
       <c r="H94" s="3">
-        <v>-10394200</v>
+        <v>-12804600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9086200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-10658200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9889100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13724000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8207600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4020300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3565100</v>
+        <v>-3621200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3724400</v>
+        <v>-1809100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3379600</v>
+        <v>-3391900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3188700</v>
+        <v>-3543400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2876700</v>
+        <v>-3215400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2438200</v>
+        <v>-3033800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2736900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2131600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2337400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1968700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2076500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7611300</v>
+        <v>-4497200</v>
       </c>
       <c r="E100" s="3">
-        <v>4275300</v>
+        <v>-5113700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6666600</v>
+        <v>-7241400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3139600</v>
+        <v>4067500</v>
       </c>
       <c r="H100" s="3">
-        <v>-6336000</v>
+        <v>-6342600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4503300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-2987100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6028100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2294300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2905300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6526400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>513800</v>
+        <v>209700</v>
       </c>
       <c r="E101" s="3">
-        <v>2132700</v>
+        <v>-764900</v>
       </c>
       <c r="F101" s="3">
-        <v>-531300</v>
+        <v>488900</v>
       </c>
       <c r="G101" s="3">
-        <v>-300000</v>
+        <v>2029100</v>
       </c>
       <c r="H101" s="3">
-        <v>1287300</v>
+        <v>-505500</v>
       </c>
       <c r="I101" s="3">
-        <v>763600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-285400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1224700</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1631600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-368900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>968400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10493500</v>
+        <v>-3264200</v>
       </c>
       <c r="E102" s="3">
-        <v>12418900</v>
+        <v>5747900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2629100</v>
+        <v>-9983600</v>
       </c>
       <c r="G102" s="3">
-        <v>127600</v>
+        <v>11815500</v>
       </c>
       <c r="H102" s="3">
-        <v>4362500</v>
+        <v>-2501300</v>
       </c>
       <c r="I102" s="3">
-        <v>1258900</v>
+        <v>121400</v>
       </c>
       <c r="J102" s="3">
+        <v>4150600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10313500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11308900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>63700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10499700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127391800</v>
+        <v>122420900</v>
       </c>
       <c r="E8" s="3">
-        <v>117640800</v>
+        <v>113050300</v>
       </c>
       <c r="F8" s="3">
-        <v>139011100</v>
+        <v>133586800</v>
       </c>
       <c r="G8" s="3">
-        <v>111759000</v>
+        <v>107398000</v>
       </c>
       <c r="H8" s="3">
-        <v>137928600</v>
+        <v>132546500</v>
       </c>
       <c r="I8" s="3">
-        <v>132671600</v>
+        <v>127494600</v>
       </c>
       <c r="J8" s="3">
-        <v>120585300</v>
+        <v>115879900</v>
       </c>
       <c r="K8" s="3">
         <v>133175000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105333400</v>
+        <v>101223100</v>
       </c>
       <c r="E9" s="3">
-        <v>99895800</v>
+        <v>95997800</v>
       </c>
       <c r="F9" s="3">
-        <v>120114100</v>
+        <v>115427100</v>
       </c>
       <c r="G9" s="3">
-        <v>90323200</v>
+        <v>86798700</v>
       </c>
       <c r="H9" s="3">
-        <v>118381800</v>
+        <v>113762400</v>
       </c>
       <c r="I9" s="3">
-        <v>111619900</v>
+        <v>107264400</v>
       </c>
       <c r="J9" s="3">
-        <v>100425100</v>
+        <v>96506400</v>
       </c>
       <c r="K9" s="3">
         <v>113453500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22058500</v>
+        <v>21197700</v>
       </c>
       <c r="E10" s="3">
-        <v>17745000</v>
+        <v>17052500</v>
       </c>
       <c r="F10" s="3">
-        <v>18897000</v>
+        <v>18159700</v>
       </c>
       <c r="G10" s="3">
-        <v>21435700</v>
+        <v>20599300</v>
       </c>
       <c r="H10" s="3">
-        <v>19546800</v>
+        <v>18784000</v>
       </c>
       <c r="I10" s="3">
-        <v>21051700</v>
+        <v>20230300</v>
       </c>
       <c r="J10" s="3">
-        <v>20160200</v>
+        <v>19373500</v>
       </c>
       <c r="K10" s="3">
         <v>19721500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>859400</v>
+        <v>825800</v>
       </c>
       <c r="E14" s="3">
-        <v>1245500</v>
+        <v>1196900</v>
       </c>
       <c r="F14" s="3">
-        <v>1016100</v>
+        <v>976500</v>
       </c>
       <c r="G14" s="3">
-        <v>8004300</v>
+        <v>7691900</v>
       </c>
       <c r="H14" s="3">
-        <v>429700</v>
+        <v>412900</v>
       </c>
       <c r="I14" s="3">
-        <v>944500</v>
+        <v>907600</v>
       </c>
       <c r="J14" s="3">
-        <v>870800</v>
+        <v>836800</v>
       </c>
       <c r="K14" s="3">
         <v>760400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>117517300</v>
+        <v>112931600</v>
       </c>
       <c r="E17" s="3">
-        <v>112088000</v>
+        <v>107714200</v>
       </c>
       <c r="F17" s="3">
-        <v>132949800</v>
+        <v>127762000</v>
       </c>
       <c r="G17" s="3">
-        <v>109885600</v>
+        <v>105597700</v>
       </c>
       <c r="H17" s="3">
-        <v>129900500</v>
+        <v>124831600</v>
       </c>
       <c r="I17" s="3">
-        <v>123175900</v>
+        <v>118369400</v>
       </c>
       <c r="J17" s="3">
-        <v>112290400</v>
+        <v>107908700</v>
       </c>
       <c r="K17" s="3">
         <v>124764100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9874600</v>
+        <v>9489300</v>
       </c>
       <c r="E18" s="3">
-        <v>5552800</v>
+        <v>5336100</v>
       </c>
       <c r="F18" s="3">
-        <v>6061300</v>
+        <v>5824800</v>
       </c>
       <c r="G18" s="3">
-        <v>1873400</v>
+        <v>1800300</v>
       </c>
       <c r="H18" s="3">
-        <v>8028200</v>
+        <v>7714900</v>
       </c>
       <c r="I18" s="3">
-        <v>9495700</v>
+        <v>9125200</v>
       </c>
       <c r="J18" s="3">
-        <v>8294900</v>
+        <v>7971200</v>
       </c>
       <c r="K18" s="3">
         <v>8410900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>149500</v>
+        <v>143600</v>
       </c>
       <c r="E20" s="3">
-        <v>415200</v>
+        <v>399000</v>
       </c>
       <c r="F20" s="3">
-        <v>523100</v>
+        <v>502700</v>
       </c>
       <c r="G20" s="3">
-        <v>297900</v>
+        <v>286300</v>
       </c>
       <c r="H20" s="3">
-        <v>276100</v>
+        <v>265300</v>
       </c>
       <c r="I20" s="3">
-        <v>226300</v>
+        <v>217400</v>
       </c>
       <c r="J20" s="3">
-        <v>222100</v>
+        <v>213400</v>
       </c>
       <c r="K20" s="3">
         <v>-79600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10938500</v>
+        <v>10499800</v>
       </c>
       <c r="E21" s="3">
-        <v>7204000</v>
+        <v>6906900</v>
       </c>
       <c r="F21" s="3">
-        <v>8030800</v>
+        <v>7698700</v>
       </c>
       <c r="G21" s="3">
-        <v>3063700</v>
+        <v>2932600</v>
       </c>
       <c r="H21" s="3">
-        <v>8757300</v>
+        <v>8409700</v>
       </c>
       <c r="I21" s="3">
-        <v>10428300</v>
+        <v>10012300</v>
       </c>
       <c r="J21" s="3">
-        <v>9356800</v>
+        <v>8980900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>479500</v>
+        <v>460800</v>
       </c>
       <c r="E22" s="3">
-        <v>911300</v>
+        <v>875700</v>
       </c>
       <c r="F22" s="3">
-        <v>747300</v>
+        <v>718100</v>
       </c>
       <c r="G22" s="3">
-        <v>583300</v>
+        <v>560500</v>
       </c>
       <c r="H22" s="3">
-        <v>326900</v>
+        <v>314200</v>
       </c>
       <c r="I22" s="3">
-        <v>307200</v>
+        <v>295200</v>
       </c>
       <c r="J22" s="3">
-        <v>506500</v>
+        <v>486700</v>
       </c>
       <c r="K22" s="3">
         <v>555300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9544500</v>
+        <v>9172100</v>
       </c>
       <c r="E23" s="3">
-        <v>5056600</v>
+        <v>4859300</v>
       </c>
       <c r="F23" s="3">
-        <v>5837100</v>
+        <v>5609400</v>
       </c>
       <c r="G23" s="3">
-        <v>1588000</v>
+        <v>1526000</v>
       </c>
       <c r="H23" s="3">
-        <v>7977300</v>
+        <v>7666000</v>
       </c>
       <c r="I23" s="3">
-        <v>9414800</v>
+        <v>9047400</v>
       </c>
       <c r="J23" s="3">
-        <v>8010500</v>
+        <v>7697900</v>
       </c>
       <c r="K23" s="3">
         <v>7776000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1753000</v>
+        <v>1684600</v>
       </c>
       <c r="E24" s="3">
-        <v>1599400</v>
+        <v>1537000</v>
       </c>
       <c r="F24" s="3">
-        <v>1472800</v>
+        <v>1415300</v>
       </c>
       <c r="G24" s="3">
-        <v>1529900</v>
+        <v>1470200</v>
       </c>
       <c r="H24" s="3">
-        <v>1124000</v>
+        <v>1080200</v>
       </c>
       <c r="I24" s="3">
-        <v>2530400</v>
+        <v>2431700</v>
       </c>
       <c r="J24" s="3">
-        <v>1863000</v>
+        <v>1790300</v>
       </c>
       <c r="K24" s="3">
         <v>1953800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7791500</v>
+        <v>7487500</v>
       </c>
       <c r="E26" s="3">
-        <v>3457200</v>
+        <v>3322300</v>
       </c>
       <c r="F26" s="3">
-        <v>4364400</v>
+        <v>4194100</v>
       </c>
       <c r="G26" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="H26" s="3">
-        <v>6853300</v>
+        <v>6585800</v>
       </c>
       <c r="I26" s="3">
-        <v>6884400</v>
+        <v>6615800</v>
       </c>
       <c r="J26" s="3">
-        <v>6147500</v>
+        <v>5907600</v>
       </c>
       <c r="K26" s="3">
         <v>5822200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7369100</v>
+        <v>7081500</v>
       </c>
       <c r="E27" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="F27" s="3">
-        <v>3765500</v>
+        <v>3618600</v>
       </c>
       <c r="G27" s="3">
-        <v>2393400</v>
+        <v>2300000</v>
       </c>
       <c r="H27" s="3">
-        <v>6206600</v>
+        <v>5964500</v>
       </c>
       <c r="I27" s="3">
-        <v>6228400</v>
+        <v>5985400</v>
       </c>
       <c r="J27" s="3">
-        <v>5446900</v>
+        <v>5234400</v>
       </c>
       <c r="K27" s="3">
         <v>5148000</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-24900</v>
+        <v>-23900</v>
       </c>
       <c r="G29" s="3">
-        <v>-444200</v>
+        <v>-426900</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-455600</v>
+        <v>-437900</v>
       </c>
       <c r="J29" s="3">
-        <v>66400</v>
+        <v>63800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149500</v>
+        <v>-143600</v>
       </c>
       <c r="E32" s="3">
-        <v>-415200</v>
+        <v>-399000</v>
       </c>
       <c r="F32" s="3">
-        <v>-523100</v>
+        <v>-502700</v>
       </c>
       <c r="G32" s="3">
-        <v>-297900</v>
+        <v>-286300</v>
       </c>
       <c r="H32" s="3">
-        <v>-276100</v>
+        <v>-265300</v>
       </c>
       <c r="I32" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="J32" s="3">
-        <v>-222100</v>
+        <v>-213400</v>
       </c>
       <c r="K32" s="3">
         <v>79600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7369100</v>
+        <v>7081500</v>
       </c>
       <c r="E33" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="F33" s="3">
-        <v>3740600</v>
+        <v>3594600</v>
       </c>
       <c r="G33" s="3">
-        <v>1949200</v>
+        <v>1873100</v>
       </c>
       <c r="H33" s="3">
-        <v>6206600</v>
+        <v>5964500</v>
       </c>
       <c r="I33" s="3">
-        <v>5772800</v>
+        <v>5547500</v>
       </c>
       <c r="J33" s="3">
-        <v>5513300</v>
+        <v>5298200</v>
       </c>
       <c r="K33" s="3">
         <v>5148000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7369100</v>
+        <v>7081500</v>
       </c>
       <c r="E35" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="F35" s="3">
-        <v>3740600</v>
+        <v>3594600</v>
       </c>
       <c r="G35" s="3">
-        <v>1949200</v>
+        <v>1873100</v>
       </c>
       <c r="H35" s="3">
-        <v>6206600</v>
+        <v>5964500</v>
       </c>
       <c r="I35" s="3">
-        <v>5772800</v>
+        <v>5547500</v>
       </c>
       <c r="J35" s="3">
-        <v>5513300</v>
+        <v>5298200</v>
       </c>
       <c r="K35" s="3">
         <v>5148000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26000400</v>
+        <v>24985900</v>
       </c>
       <c r="E41" s="3">
-        <v>29307200</v>
+        <v>28163600</v>
       </c>
       <c r="F41" s="3">
-        <v>22779800</v>
+        <v>21890900</v>
       </c>
       <c r="G41" s="3">
-        <v>32516400</v>
+        <v>31247500</v>
       </c>
       <c r="H41" s="3">
-        <v>24803700</v>
+        <v>23835900</v>
       </c>
       <c r="I41" s="3">
-        <v>27311300</v>
+        <v>26245600</v>
       </c>
       <c r="J41" s="3">
-        <v>27270800</v>
+        <v>26206700</v>
       </c>
       <c r="K41" s="3">
         <v>24052400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38833000</v>
+        <v>37317700</v>
       </c>
       <c r="E43" s="3">
-        <v>39087300</v>
+        <v>37562100</v>
       </c>
       <c r="F43" s="3">
-        <v>40986700</v>
+        <v>39387300</v>
       </c>
       <c r="G43" s="3">
-        <v>43538900</v>
+        <v>41839900</v>
       </c>
       <c r="H43" s="3">
-        <v>31387100</v>
+        <v>30162400</v>
       </c>
       <c r="I43" s="3">
-        <v>36155200</v>
+        <v>34744400</v>
       </c>
       <c r="J43" s="3">
-        <v>32908700</v>
+        <v>31624600</v>
       </c>
       <c r="K43" s="3">
         <v>31701800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>529124000</v>
+        <v>508477000</v>
       </c>
       <c r="E47" s="3">
-        <v>553032000</v>
+        <v>531452000</v>
       </c>
       <c r="F47" s="3">
-        <v>540269000</v>
+        <v>519187000</v>
       </c>
       <c r="G47" s="3">
-        <v>592994000</v>
+        <v>569855000</v>
       </c>
       <c r="H47" s="3">
-        <v>575242000</v>
+        <v>552795000</v>
       </c>
       <c r="I47" s="3">
-        <v>591242000</v>
+        <v>568171000</v>
       </c>
       <c r="J47" s="3">
-        <v>561661000</v>
+        <v>539744000</v>
       </c>
       <c r="K47" s="3">
         <v>571470000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31965200</v>
+        <v>30717900</v>
       </c>
       <c r="E48" s="3">
-        <v>29606100</v>
+        <v>28450800</v>
       </c>
       <c r="F48" s="3">
-        <v>27165000</v>
+        <v>26105000</v>
       </c>
       <c r="G48" s="3">
-        <v>23392200</v>
+        <v>22479400</v>
       </c>
       <c r="H48" s="3">
-        <v>25408800</v>
+        <v>24417300</v>
       </c>
       <c r="I48" s="3">
-        <v>23759600</v>
+        <v>22832500</v>
       </c>
       <c r="J48" s="3">
-        <v>22627300</v>
+        <v>21744300</v>
       </c>
       <c r="K48" s="3">
         <v>21744000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22277500</v>
+        <v>21408200</v>
       </c>
       <c r="E49" s="3">
-        <v>21810400</v>
+        <v>20960400</v>
       </c>
       <c r="F49" s="3">
-        <v>23506400</v>
+        <v>22589100</v>
       </c>
       <c r="G49" s="3">
-        <v>22637600</v>
+        <v>21755300</v>
       </c>
       <c r="H49" s="3">
-        <v>19264500</v>
+        <v>18512700</v>
       </c>
       <c r="I49" s="3">
-        <v>20707100</v>
+        <v>19899100</v>
       </c>
       <c r="J49" s="3">
-        <v>21109800</v>
+        <v>20286100</v>
       </c>
       <c r="K49" s="3">
         <v>20947700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9271600</v>
+        <v>8909800</v>
       </c>
       <c r="E52" s="3">
-        <v>35044700</v>
+        <v>33677200</v>
       </c>
       <c r="F52" s="3">
-        <v>37617600</v>
+        <v>36149800</v>
       </c>
       <c r="G52" s="3">
-        <v>28333600</v>
+        <v>27228000</v>
       </c>
       <c r="H52" s="3">
-        <v>6077900</v>
+        <v>5840800</v>
       </c>
       <c r="I52" s="3">
-        <v>2612400</v>
+        <v>2510500</v>
       </c>
       <c r="J52" s="3">
-        <v>5263200</v>
+        <v>5057800</v>
       </c>
       <c r="K52" s="3">
         <v>2822200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>804882000</v>
+        <v>773475000</v>
       </c>
       <c r="E54" s="3">
-        <v>835083000</v>
+        <v>802497000</v>
       </c>
       <c r="F54" s="3">
-        <v>810473000</v>
+        <v>778848000</v>
       </c>
       <c r="G54" s="3">
-        <v>965968000</v>
+        <v>928275000</v>
       </c>
       <c r="H54" s="3">
-        <v>903106000</v>
+        <v>867866000</v>
       </c>
       <c r="I54" s="3">
-        <v>926620000</v>
+        <v>890462000</v>
       </c>
       <c r="J54" s="3">
-        <v>920690000</v>
+        <v>884764000</v>
       </c>
       <c r="K54" s="3">
         <v>916440000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1311900</v>
+        <v>1260700</v>
       </c>
       <c r="E58" s="3">
-        <v>1671000</v>
+        <v>1605800</v>
       </c>
       <c r="F58" s="3">
-        <v>723400</v>
+        <v>695200</v>
       </c>
       <c r="G58" s="3">
-        <v>1479000</v>
+        <v>1421300</v>
       </c>
       <c r="H58" s="3">
-        <v>2414200</v>
+        <v>2320000</v>
       </c>
       <c r="I58" s="3">
-        <v>3918100</v>
+        <v>3765200</v>
       </c>
       <c r="J58" s="3">
-        <v>3411600</v>
+        <v>3278500</v>
       </c>
       <c r="K58" s="3">
         <v>3038200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>210720000</v>
+        <v>202497000</v>
       </c>
       <c r="E59" s="3">
-        <v>196259000</v>
+        <v>188600000</v>
       </c>
       <c r="F59" s="3">
-        <v>185930000</v>
+        <v>178675000</v>
       </c>
       <c r="G59" s="3">
-        <v>300205000</v>
+        <v>288491000</v>
       </c>
       <c r="H59" s="3">
-        <v>306109000</v>
+        <v>294164000</v>
       </c>
       <c r="I59" s="3">
-        <v>307558000</v>
+        <v>295557000</v>
       </c>
       <c r="J59" s="3">
-        <v>328670000</v>
+        <v>315845000</v>
       </c>
       <c r="K59" s="3">
         <v>330312000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22050200</v>
+        <v>21189800</v>
       </c>
       <c r="E61" s="3">
-        <v>21623600</v>
+        <v>20779800</v>
       </c>
       <c r="F61" s="3">
-        <v>25763800</v>
+        <v>24758500</v>
       </c>
       <c r="G61" s="3">
-        <v>25937100</v>
+        <v>24925000</v>
       </c>
       <c r="H61" s="3">
-        <v>9874600</v>
+        <v>9489300</v>
       </c>
       <c r="I61" s="3">
-        <v>8773400</v>
+        <v>8431000</v>
       </c>
       <c r="J61" s="3">
-        <v>8031300</v>
+        <v>7717900</v>
       </c>
       <c r="K61" s="3">
         <v>8114200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5536200</v>
+        <v>5320100</v>
       </c>
       <c r="E62" s="3">
-        <v>15485500</v>
+        <v>14881200</v>
       </c>
       <c r="F62" s="3">
-        <v>14792200</v>
+        <v>14214900</v>
       </c>
       <c r="G62" s="3">
-        <v>13842500</v>
+        <v>13302300</v>
       </c>
       <c r="H62" s="3">
-        <v>15422200</v>
+        <v>14820400</v>
       </c>
       <c r="I62" s="3">
-        <v>17566500</v>
+        <v>16881000</v>
       </c>
       <c r="J62" s="3">
-        <v>16118600</v>
+        <v>15489600</v>
       </c>
       <c r="K62" s="3">
         <v>17298600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>731051000</v>
+        <v>702525000</v>
       </c>
       <c r="E66" s="3">
-        <v>760758000</v>
+        <v>731072000</v>
       </c>
       <c r="F66" s="3">
-        <v>737927000</v>
+        <v>709132000</v>
       </c>
       <c r="G66" s="3">
-        <v>901174000</v>
+        <v>866010000</v>
       </c>
       <c r="H66" s="3">
-        <v>830857000</v>
+        <v>798436000</v>
       </c>
       <c r="I66" s="3">
-        <v>853347000</v>
+        <v>820048000</v>
       </c>
       <c r="J66" s="3">
-        <v>849620000</v>
+        <v>816467000</v>
       </c>
       <c r="K66" s="3">
         <v>845292000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25029000</v>
+        <v>24052300</v>
       </c>
       <c r="E72" s="3">
-        <v>30084600</v>
+        <v>28910600</v>
       </c>
       <c r="F72" s="3">
-        <v>26914800</v>
+        <v>25864600</v>
       </c>
       <c r="G72" s="3">
-        <v>27552100</v>
+        <v>26477000</v>
       </c>
       <c r="H72" s="3">
-        <v>33307200</v>
+        <v>32007600</v>
       </c>
       <c r="I72" s="3">
-        <v>30571300</v>
+        <v>29378400</v>
       </c>
       <c r="J72" s="3">
-        <v>29954800</v>
+        <v>28786000</v>
       </c>
       <c r="K72" s="3">
         <v>27829100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73831000</v>
+        <v>70950000</v>
       </c>
       <c r="E76" s="3">
-        <v>74325100</v>
+        <v>71424800</v>
       </c>
       <c r="F76" s="3">
-        <v>72546100</v>
+        <v>69715300</v>
       </c>
       <c r="G76" s="3">
-        <v>64794000</v>
+        <v>62265700</v>
       </c>
       <c r="H76" s="3">
-        <v>72249300</v>
+        <v>69430000</v>
       </c>
       <c r="I76" s="3">
-        <v>73272600</v>
+        <v>70413400</v>
       </c>
       <c r="J76" s="3">
-        <v>71070200</v>
+        <v>68297000</v>
       </c>
       <c r="K76" s="3">
         <v>71148100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7369100</v>
+        <v>7081500</v>
       </c>
       <c r="E81" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="F81" s="3">
-        <v>3740600</v>
+        <v>3594600</v>
       </c>
       <c r="G81" s="3">
-        <v>1949200</v>
+        <v>1873100</v>
       </c>
       <c r="H81" s="3">
-        <v>6206600</v>
+        <v>5964500</v>
       </c>
       <c r="I81" s="3">
-        <v>5772800</v>
+        <v>5547500</v>
       </c>
       <c r="J81" s="3">
-        <v>5513300</v>
+        <v>5298200</v>
       </c>
       <c r="K81" s="3">
         <v>5148000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>903000</v>
+        <v>867700</v>
       </c>
       <c r="E83" s="3">
-        <v>1220600</v>
+        <v>1172900</v>
       </c>
       <c r="F83" s="3">
-        <v>1428200</v>
+        <v>1372400</v>
       </c>
       <c r="G83" s="3">
-        <v>881200</v>
+        <v>846800</v>
       </c>
       <c r="H83" s="3">
-        <v>447300</v>
+        <v>429900</v>
       </c>
       <c r="I83" s="3">
-        <v>697500</v>
+        <v>670300</v>
       </c>
       <c r="J83" s="3">
-        <v>829300</v>
+        <v>796900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10313600</v>
+        <v>9911200</v>
       </c>
       <c r="E89" s="3">
-        <v>23490800</v>
+        <v>22574200</v>
       </c>
       <c r="F89" s="3">
-        <v>8228500</v>
+        <v>7907400</v>
       </c>
       <c r="G89" s="3">
-        <v>7923300</v>
+        <v>7614200</v>
       </c>
       <c r="H89" s="3">
-        <v>17151300</v>
+        <v>16482000</v>
       </c>
       <c r="I89" s="3">
-        <v>14052100</v>
+        <v>13503800</v>
       </c>
       <c r="J89" s="3">
-        <v>18843100</v>
+        <v>18107800</v>
       </c>
       <c r="K89" s="3">
         <v>5782900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363300</v>
+        <v>-349100</v>
       </c>
       <c r="E91" s="3">
-        <v>-403700</v>
+        <v>-388000</v>
       </c>
       <c r="F91" s="3">
-        <v>-479500</v>
+        <v>-460800</v>
       </c>
       <c r="G91" s="3">
-        <v>-479500</v>
+        <v>-460800</v>
       </c>
       <c r="H91" s="3">
-        <v>-407900</v>
+        <v>-392000</v>
       </c>
       <c r="I91" s="3">
-        <v>-489900</v>
+        <v>-470800</v>
       </c>
       <c r="J91" s="3">
-        <v>-479500</v>
+        <v>-460800</v>
       </c>
       <c r="K91" s="3">
         <v>-379600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9290200</v>
+        <v>-8927700</v>
       </c>
       <c r="E94" s="3">
-        <v>-11864200</v>
+        <v>-11401300</v>
       </c>
       <c r="F94" s="3">
-        <v>-11459500</v>
+        <v>-11012300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2204500</v>
+        <v>-2118500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12804600</v>
+        <v>-12304900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10658200</v>
+        <v>-10242300</v>
       </c>
       <c r="J94" s="3">
-        <v>-9889100</v>
+        <v>-9503200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3621200</v>
+        <v>-3479900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1809100</v>
+        <v>-1738500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3391900</v>
+        <v>-3259500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3543400</v>
+        <v>-3405100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3215400</v>
+        <v>-3089900</v>
       </c>
       <c r="I96" s="3">
-        <v>-3033800</v>
+        <v>-2915400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2736900</v>
+        <v>-2630100</v>
       </c>
       <c r="K96" s="3">
         <v>-2131600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4497200</v>
+        <v>-4321700</v>
       </c>
       <c r="E100" s="3">
-        <v>-5113700</v>
+        <v>-4914200</v>
       </c>
       <c r="F100" s="3">
-        <v>-7241400</v>
+        <v>-6958900</v>
       </c>
       <c r="G100" s="3">
-        <v>4067500</v>
+        <v>3908800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6342600</v>
+        <v>-6095100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2987100</v>
+        <v>-2870500</v>
       </c>
       <c r="J100" s="3">
-        <v>-6028100</v>
+        <v>-5792900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>209700</v>
+        <v>201500</v>
       </c>
       <c r="E101" s="3">
-        <v>-764900</v>
+        <v>-735100</v>
       </c>
       <c r="F101" s="3">
-        <v>488900</v>
+        <v>469800</v>
       </c>
       <c r="G101" s="3">
-        <v>2029100</v>
+        <v>1949900</v>
       </c>
       <c r="H101" s="3">
-        <v>-505500</v>
+        <v>-485700</v>
       </c>
       <c r="I101" s="3">
-        <v>-285400</v>
+        <v>-274300</v>
       </c>
       <c r="J101" s="3">
-        <v>1224700</v>
+        <v>1176900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3264200</v>
+        <v>-3136800</v>
       </c>
       <c r="E102" s="3">
-        <v>5747900</v>
+        <v>5523600</v>
       </c>
       <c r="F102" s="3">
-        <v>-9983600</v>
+        <v>-9594000</v>
       </c>
       <c r="G102" s="3">
-        <v>11815500</v>
+        <v>11354400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2501300</v>
+        <v>-2403700</v>
       </c>
       <c r="I102" s="3">
-        <v>121400</v>
+        <v>116700</v>
       </c>
       <c r="J102" s="3">
-        <v>4150600</v>
+        <v>3988600</v>
       </c>
       <c r="K102" s="3">
         <v>-10313500</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>122420900</v>
+        <v>125293000</v>
       </c>
       <c r="E8" s="3">
-        <v>113050300</v>
+        <v>115702600</v>
       </c>
       <c r="F8" s="3">
-        <v>133586800</v>
+        <v>136720800</v>
       </c>
       <c r="G8" s="3">
-        <v>107398000</v>
+        <v>109917700</v>
       </c>
       <c r="H8" s="3">
-        <v>132546500</v>
+        <v>135656200</v>
       </c>
       <c r="I8" s="3">
-        <v>127494600</v>
+        <v>130485800</v>
       </c>
       <c r="J8" s="3">
-        <v>115879900</v>
+        <v>118598600</v>
       </c>
       <c r="K8" s="3">
         <v>133175000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>101223100</v>
+        <v>103597900</v>
       </c>
       <c r="E9" s="3">
-        <v>95997800</v>
+        <v>98250000</v>
       </c>
       <c r="F9" s="3">
-        <v>115427100</v>
+        <v>118135100</v>
       </c>
       <c r="G9" s="3">
-        <v>86798700</v>
+        <v>88835100</v>
       </c>
       <c r="H9" s="3">
-        <v>113762400</v>
+        <v>116431400</v>
       </c>
       <c r="I9" s="3">
-        <v>107264400</v>
+        <v>109780900</v>
       </c>
       <c r="J9" s="3">
-        <v>96506400</v>
+        <v>98770600</v>
       </c>
       <c r="K9" s="3">
         <v>113453500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21197700</v>
+        <v>21695100</v>
       </c>
       <c r="E10" s="3">
-        <v>17052500</v>
+        <v>17452600</v>
       </c>
       <c r="F10" s="3">
-        <v>18159700</v>
+        <v>18585700</v>
       </c>
       <c r="G10" s="3">
-        <v>20599300</v>
+        <v>21082600</v>
       </c>
       <c r="H10" s="3">
-        <v>18784000</v>
+        <v>19224700</v>
       </c>
       <c r="I10" s="3">
-        <v>20230300</v>
+        <v>20704900</v>
       </c>
       <c r="J10" s="3">
-        <v>19373500</v>
+        <v>19828000</v>
       </c>
       <c r="K10" s="3">
         <v>19721500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>825800</v>
+        <v>845200</v>
       </c>
       <c r="E14" s="3">
-        <v>1196900</v>
+        <v>1225000</v>
       </c>
       <c r="F14" s="3">
-        <v>976500</v>
+        <v>999400</v>
       </c>
       <c r="G14" s="3">
-        <v>7691900</v>
+        <v>7872400</v>
       </c>
       <c r="H14" s="3">
-        <v>412900</v>
+        <v>422600</v>
       </c>
       <c r="I14" s="3">
-        <v>907600</v>
+        <v>928900</v>
       </c>
       <c r="J14" s="3">
-        <v>836800</v>
+        <v>856500</v>
       </c>
       <c r="K14" s="3">
         <v>760400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>112931600</v>
+        <v>115581100</v>
       </c>
       <c r="E17" s="3">
-        <v>107714200</v>
+        <v>110241300</v>
       </c>
       <c r="F17" s="3">
-        <v>127762000</v>
+        <v>130759400</v>
       </c>
       <c r="G17" s="3">
-        <v>105597700</v>
+        <v>108075200</v>
       </c>
       <c r="H17" s="3">
-        <v>124831600</v>
+        <v>127760300</v>
       </c>
       <c r="I17" s="3">
-        <v>118369400</v>
+        <v>121146500</v>
       </c>
       <c r="J17" s="3">
-        <v>107908700</v>
+        <v>110440400</v>
       </c>
       <c r="K17" s="3">
         <v>124764100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9489300</v>
+        <v>9711900</v>
       </c>
       <c r="E18" s="3">
-        <v>5336100</v>
+        <v>5461300</v>
       </c>
       <c r="F18" s="3">
-        <v>5824800</v>
+        <v>5961500</v>
       </c>
       <c r="G18" s="3">
-        <v>1800300</v>
+        <v>1842500</v>
       </c>
       <c r="H18" s="3">
-        <v>7714900</v>
+        <v>7895900</v>
       </c>
       <c r="I18" s="3">
-        <v>9125200</v>
+        <v>9339300</v>
       </c>
       <c r="J18" s="3">
-        <v>7971200</v>
+        <v>8158200</v>
       </c>
       <c r="K18" s="3">
         <v>8410900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>143600</v>
+        <v>147000</v>
       </c>
       <c r="E20" s="3">
-        <v>399000</v>
+        <v>408300</v>
       </c>
       <c r="F20" s="3">
-        <v>502700</v>
+        <v>514500</v>
       </c>
       <c r="G20" s="3">
-        <v>286300</v>
+        <v>293000</v>
       </c>
       <c r="H20" s="3">
-        <v>265300</v>
+        <v>271500</v>
       </c>
       <c r="I20" s="3">
-        <v>217400</v>
+        <v>222500</v>
       </c>
       <c r="J20" s="3">
-        <v>213400</v>
+        <v>218500</v>
       </c>
       <c r="K20" s="3">
         <v>-79600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10499800</v>
+        <v>10729800</v>
       </c>
       <c r="E21" s="3">
-        <v>6906900</v>
+        <v>7046900</v>
       </c>
       <c r="F21" s="3">
-        <v>7698700</v>
+        <v>7853500</v>
       </c>
       <c r="G21" s="3">
-        <v>2932600</v>
+        <v>2985400</v>
       </c>
       <c r="H21" s="3">
-        <v>8409700</v>
+        <v>8598900</v>
       </c>
       <c r="I21" s="3">
-        <v>10012300</v>
+        <v>10234600</v>
       </c>
       <c r="J21" s="3">
-        <v>8980900</v>
+        <v>9176600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="E22" s="3">
-        <v>875700</v>
+        <v>896300</v>
       </c>
       <c r="F22" s="3">
-        <v>718100</v>
+        <v>735000</v>
       </c>
       <c r="G22" s="3">
-        <v>560500</v>
+        <v>573700</v>
       </c>
       <c r="H22" s="3">
-        <v>314200</v>
+        <v>321600</v>
       </c>
       <c r="I22" s="3">
-        <v>295200</v>
+        <v>302200</v>
       </c>
       <c r="J22" s="3">
-        <v>486700</v>
+        <v>498200</v>
       </c>
       <c r="K22" s="3">
         <v>555300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9172100</v>
+        <v>9387300</v>
       </c>
       <c r="E23" s="3">
-        <v>4859300</v>
+        <v>4973300</v>
       </c>
       <c r="F23" s="3">
-        <v>5609400</v>
+        <v>5741000</v>
       </c>
       <c r="G23" s="3">
-        <v>1526000</v>
+        <v>1561800</v>
       </c>
       <c r="H23" s="3">
-        <v>7666000</v>
+        <v>7845900</v>
       </c>
       <c r="I23" s="3">
-        <v>9047400</v>
+        <v>9259700</v>
       </c>
       <c r="J23" s="3">
-        <v>7697900</v>
+        <v>7878500</v>
       </c>
       <c r="K23" s="3">
         <v>7776000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1684600</v>
+        <v>1724100</v>
       </c>
       <c r="E24" s="3">
-        <v>1537000</v>
+        <v>1573100</v>
       </c>
       <c r="F24" s="3">
-        <v>1415300</v>
+        <v>1448500</v>
       </c>
       <c r="G24" s="3">
-        <v>1470200</v>
+        <v>1504700</v>
       </c>
       <c r="H24" s="3">
-        <v>1080200</v>
+        <v>1105500</v>
       </c>
       <c r="I24" s="3">
-        <v>2431700</v>
+        <v>2488700</v>
       </c>
       <c r="J24" s="3">
-        <v>1790300</v>
+        <v>1832300</v>
       </c>
       <c r="K24" s="3">
         <v>1953800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7487500</v>
+        <v>7663100</v>
       </c>
       <c r="E26" s="3">
-        <v>3322300</v>
+        <v>3400300</v>
       </c>
       <c r="F26" s="3">
-        <v>4194100</v>
+        <v>4292500</v>
       </c>
       <c r="G26" s="3">
-        <v>55900</v>
+        <v>57200</v>
       </c>
       <c r="H26" s="3">
-        <v>6585800</v>
+        <v>6740300</v>
       </c>
       <c r="I26" s="3">
-        <v>6615800</v>
+        <v>6771000</v>
       </c>
       <c r="J26" s="3">
-        <v>5907600</v>
+        <v>6046200</v>
       </c>
       <c r="K26" s="3">
         <v>5822200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7081500</v>
+        <v>7247700</v>
       </c>
       <c r="E27" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="F27" s="3">
-        <v>3618600</v>
+        <v>3703500</v>
       </c>
       <c r="G27" s="3">
-        <v>2300000</v>
+        <v>2354000</v>
       </c>
       <c r="H27" s="3">
-        <v>5964500</v>
+        <v>6104400</v>
       </c>
       <c r="I27" s="3">
-        <v>5985400</v>
+        <v>6125800</v>
       </c>
       <c r="J27" s="3">
-        <v>5234400</v>
+        <v>5357200</v>
       </c>
       <c r="K27" s="3">
         <v>5148000</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="G29" s="3">
-        <v>-426900</v>
+        <v>-436900</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-437900</v>
+        <v>-448100</v>
       </c>
       <c r="J29" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-143600</v>
+        <v>-147000</v>
       </c>
       <c r="E32" s="3">
-        <v>-399000</v>
+        <v>-408300</v>
       </c>
       <c r="F32" s="3">
-        <v>-502700</v>
+        <v>-514500</v>
       </c>
       <c r="G32" s="3">
-        <v>-286300</v>
+        <v>-293000</v>
       </c>
       <c r="H32" s="3">
-        <v>-265300</v>
+        <v>-271500</v>
       </c>
       <c r="I32" s="3">
-        <v>-217400</v>
+        <v>-222500</v>
       </c>
       <c r="J32" s="3">
-        <v>-213400</v>
+        <v>-218500</v>
       </c>
       <c r="K32" s="3">
         <v>79600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7081500</v>
+        <v>7247700</v>
       </c>
       <c r="E33" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="F33" s="3">
-        <v>3594600</v>
+        <v>3679000</v>
       </c>
       <c r="G33" s="3">
-        <v>1873100</v>
+        <v>1917100</v>
       </c>
       <c r="H33" s="3">
-        <v>5964500</v>
+        <v>6104400</v>
       </c>
       <c r="I33" s="3">
-        <v>5547500</v>
+        <v>5677700</v>
       </c>
       <c r="J33" s="3">
-        <v>5298200</v>
+        <v>5422500</v>
       </c>
       <c r="K33" s="3">
         <v>5148000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7081500</v>
+        <v>7247700</v>
       </c>
       <c r="E35" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="F35" s="3">
-        <v>3594600</v>
+        <v>3679000</v>
       </c>
       <c r="G35" s="3">
-        <v>1873100</v>
+        <v>1917100</v>
       </c>
       <c r="H35" s="3">
-        <v>5964500</v>
+        <v>6104400</v>
       </c>
       <c r="I35" s="3">
-        <v>5547500</v>
+        <v>5677700</v>
       </c>
       <c r="J35" s="3">
-        <v>5298200</v>
+        <v>5422500</v>
       </c>
       <c r="K35" s="3">
         <v>5148000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24985900</v>
+        <v>25572100</v>
       </c>
       <c r="E41" s="3">
-        <v>28163600</v>
+        <v>28824300</v>
       </c>
       <c r="F41" s="3">
-        <v>21890900</v>
+        <v>22404500</v>
       </c>
       <c r="G41" s="3">
-        <v>31247500</v>
+        <v>31980600</v>
       </c>
       <c r="H41" s="3">
-        <v>23835900</v>
+        <v>24395100</v>
       </c>
       <c r="I41" s="3">
-        <v>26245600</v>
+        <v>26861300</v>
       </c>
       <c r="J41" s="3">
-        <v>26206700</v>
+        <v>26821500</v>
       </c>
       <c r="K41" s="3">
         <v>24052400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37317700</v>
+        <v>38193200</v>
       </c>
       <c r="E43" s="3">
-        <v>37562100</v>
+        <v>38443300</v>
       </c>
       <c r="F43" s="3">
-        <v>39387300</v>
+        <v>40311400</v>
       </c>
       <c r="G43" s="3">
-        <v>41839900</v>
+        <v>42821500</v>
       </c>
       <c r="H43" s="3">
-        <v>30162400</v>
+        <v>30870000</v>
       </c>
       <c r="I43" s="3">
-        <v>34744400</v>
+        <v>35559600</v>
       </c>
       <c r="J43" s="3">
-        <v>31624600</v>
+        <v>32366500</v>
       </c>
       <c r="K43" s="3">
         <v>31701800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>508477000</v>
+        <v>520406000</v>
       </c>
       <c r="E47" s="3">
-        <v>531452000</v>
+        <v>543920000</v>
       </c>
       <c r="F47" s="3">
-        <v>519187000</v>
+        <v>531367000</v>
       </c>
       <c r="G47" s="3">
-        <v>569855000</v>
+        <v>583224000</v>
       </c>
       <c r="H47" s="3">
-        <v>552795000</v>
+        <v>565764000</v>
       </c>
       <c r="I47" s="3">
-        <v>568171000</v>
+        <v>581501000</v>
       </c>
       <c r="J47" s="3">
-        <v>539744000</v>
+        <v>552407000</v>
       </c>
       <c r="K47" s="3">
         <v>571470000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30717900</v>
+        <v>31438600</v>
       </c>
       <c r="E48" s="3">
-        <v>28450800</v>
+        <v>29118300</v>
       </c>
       <c r="F48" s="3">
-        <v>26105000</v>
+        <v>26717400</v>
       </c>
       <c r="G48" s="3">
-        <v>22479400</v>
+        <v>23006800</v>
       </c>
       <c r="H48" s="3">
-        <v>24417300</v>
+        <v>24990200</v>
       </c>
       <c r="I48" s="3">
-        <v>22832500</v>
+        <v>23368200</v>
       </c>
       <c r="J48" s="3">
-        <v>21744300</v>
+        <v>22254500</v>
       </c>
       <c r="K48" s="3">
         <v>21744000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21408200</v>
+        <v>21910500</v>
       </c>
       <c r="E49" s="3">
-        <v>20960400</v>
+        <v>21452100</v>
       </c>
       <c r="F49" s="3">
-        <v>22589100</v>
+        <v>23119100</v>
       </c>
       <c r="G49" s="3">
-        <v>21755300</v>
+        <v>22265700</v>
       </c>
       <c r="H49" s="3">
-        <v>18512700</v>
+        <v>18947100</v>
       </c>
       <c r="I49" s="3">
-        <v>19899100</v>
+        <v>20366000</v>
       </c>
       <c r="J49" s="3">
-        <v>20286100</v>
+        <v>20762100</v>
       </c>
       <c r="K49" s="3">
         <v>20947700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8909800</v>
+        <v>9118800</v>
       </c>
       <c r="E52" s="3">
-        <v>33677200</v>
+        <v>34467300</v>
       </c>
       <c r="F52" s="3">
-        <v>36149800</v>
+        <v>36997900</v>
       </c>
       <c r="G52" s="3">
-        <v>27228000</v>
+        <v>27866800</v>
       </c>
       <c r="H52" s="3">
-        <v>5840800</v>
+        <v>5977800</v>
       </c>
       <c r="I52" s="3">
-        <v>2510500</v>
+        <v>2569400</v>
       </c>
       <c r="J52" s="3">
-        <v>5057800</v>
+        <v>5176500</v>
       </c>
       <c r="K52" s="3">
         <v>2822200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>773475000</v>
+        <v>791621000</v>
       </c>
       <c r="E54" s="3">
-        <v>802497000</v>
+        <v>821325000</v>
       </c>
       <c r="F54" s="3">
-        <v>778848000</v>
+        <v>797120000</v>
       </c>
       <c r="G54" s="3">
-        <v>928275000</v>
+        <v>950054000</v>
       </c>
       <c r="H54" s="3">
-        <v>867866000</v>
+        <v>888227000</v>
       </c>
       <c r="I54" s="3">
-        <v>890462000</v>
+        <v>911353000</v>
       </c>
       <c r="J54" s="3">
-        <v>884764000</v>
+        <v>905521000</v>
       </c>
       <c r="K54" s="3">
         <v>916440000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1260700</v>
+        <v>1290300</v>
       </c>
       <c r="E58" s="3">
-        <v>1605800</v>
+        <v>1643500</v>
       </c>
       <c r="F58" s="3">
-        <v>695200</v>
+        <v>711500</v>
       </c>
       <c r="G58" s="3">
-        <v>1421300</v>
+        <v>1454600</v>
       </c>
       <c r="H58" s="3">
-        <v>2320000</v>
+        <v>2374400</v>
       </c>
       <c r="I58" s="3">
-        <v>3765200</v>
+        <v>3853500</v>
       </c>
       <c r="J58" s="3">
-        <v>3278500</v>
+        <v>3355400</v>
       </c>
       <c r="K58" s="3">
         <v>3038200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202497000</v>
+        <v>207248000</v>
       </c>
       <c r="E59" s="3">
-        <v>188600000</v>
+        <v>193025000</v>
       </c>
       <c r="F59" s="3">
-        <v>178675000</v>
+        <v>182867000</v>
       </c>
       <c r="G59" s="3">
-        <v>288491000</v>
+        <v>295259000</v>
       </c>
       <c r="H59" s="3">
-        <v>294164000</v>
+        <v>301066000</v>
       </c>
       <c r="I59" s="3">
-        <v>295557000</v>
+        <v>302491000</v>
       </c>
       <c r="J59" s="3">
-        <v>315845000</v>
+        <v>323255000</v>
       </c>
       <c r="K59" s="3">
         <v>330312000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21189800</v>
+        <v>21686900</v>
       </c>
       <c r="E61" s="3">
-        <v>20779800</v>
+        <v>21267300</v>
       </c>
       <c r="F61" s="3">
-        <v>24758500</v>
+        <v>25339300</v>
       </c>
       <c r="G61" s="3">
-        <v>24925000</v>
+        <v>25509800</v>
       </c>
       <c r="H61" s="3">
-        <v>9489300</v>
+        <v>9711900</v>
       </c>
       <c r="I61" s="3">
-        <v>8431000</v>
+        <v>8628800</v>
       </c>
       <c r="J61" s="3">
-        <v>7717900</v>
+        <v>7899000</v>
       </c>
       <c r="K61" s="3">
         <v>8114200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5320100</v>
+        <v>5444900</v>
       </c>
       <c r="E62" s="3">
-        <v>14881200</v>
+        <v>15230300</v>
       </c>
       <c r="F62" s="3">
-        <v>14214900</v>
+        <v>14548400</v>
       </c>
       <c r="G62" s="3">
-        <v>13302300</v>
+        <v>13614400</v>
       </c>
       <c r="H62" s="3">
-        <v>14820400</v>
+        <v>15168100</v>
       </c>
       <c r="I62" s="3">
-        <v>16881000</v>
+        <v>17277000</v>
       </c>
       <c r="J62" s="3">
-        <v>15489600</v>
+        <v>15853000</v>
       </c>
       <c r="K62" s="3">
         <v>17298600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>702525000</v>
+        <v>719007000</v>
       </c>
       <c r="E66" s="3">
-        <v>731072000</v>
+        <v>748224000</v>
       </c>
       <c r="F66" s="3">
-        <v>709132000</v>
+        <v>725769000</v>
       </c>
       <c r="G66" s="3">
-        <v>866010000</v>
+        <v>886327000</v>
       </c>
       <c r="H66" s="3">
-        <v>798436000</v>
+        <v>817168000</v>
       </c>
       <c r="I66" s="3">
-        <v>820048000</v>
+        <v>839288000</v>
       </c>
       <c r="J66" s="3">
-        <v>816467000</v>
+        <v>835622000</v>
       </c>
       <c r="K66" s="3">
         <v>845292000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24052300</v>
+        <v>24616600</v>
       </c>
       <c r="E72" s="3">
-        <v>28910600</v>
+        <v>29588900</v>
       </c>
       <c r="F72" s="3">
-        <v>25864600</v>
+        <v>26471400</v>
       </c>
       <c r="G72" s="3">
-        <v>26477000</v>
+        <v>27098200</v>
       </c>
       <c r="H72" s="3">
-        <v>32007600</v>
+        <v>32758500</v>
       </c>
       <c r="I72" s="3">
-        <v>29378400</v>
+        <v>30067700</v>
       </c>
       <c r="J72" s="3">
-        <v>28786000</v>
+        <v>29461300</v>
       </c>
       <c r="K72" s="3">
         <v>27829100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70950000</v>
+        <v>72614600</v>
       </c>
       <c r="E76" s="3">
-        <v>71424800</v>
+        <v>73100500</v>
       </c>
       <c r="F76" s="3">
-        <v>69715300</v>
+        <v>71350900</v>
       </c>
       <c r="G76" s="3">
-        <v>62265700</v>
+        <v>63726500</v>
       </c>
       <c r="H76" s="3">
-        <v>69430000</v>
+        <v>71058900</v>
       </c>
       <c r="I76" s="3">
-        <v>70413400</v>
+        <v>72065400</v>
       </c>
       <c r="J76" s="3">
-        <v>68297000</v>
+        <v>69899300</v>
       </c>
       <c r="K76" s="3">
         <v>71148100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7081500</v>
+        <v>7247700</v>
       </c>
       <c r="E81" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="F81" s="3">
-        <v>3594600</v>
+        <v>3679000</v>
       </c>
       <c r="G81" s="3">
-        <v>1873100</v>
+        <v>1917100</v>
       </c>
       <c r="H81" s="3">
-        <v>5964500</v>
+        <v>6104400</v>
       </c>
       <c r="I81" s="3">
-        <v>5547500</v>
+        <v>5677700</v>
       </c>
       <c r="J81" s="3">
-        <v>5298200</v>
+        <v>5422500</v>
       </c>
       <c r="K81" s="3">
         <v>5148000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>867700</v>
+        <v>888100</v>
       </c>
       <c r="E83" s="3">
-        <v>1172900</v>
+        <v>1200500</v>
       </c>
       <c r="F83" s="3">
-        <v>1372400</v>
+        <v>1404600</v>
       </c>
       <c r="G83" s="3">
-        <v>846800</v>
+        <v>866700</v>
       </c>
       <c r="H83" s="3">
-        <v>429900</v>
+        <v>440000</v>
       </c>
       <c r="I83" s="3">
-        <v>670300</v>
+        <v>686000</v>
       </c>
       <c r="J83" s="3">
-        <v>796900</v>
+        <v>815600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9911200</v>
+        <v>10143700</v>
       </c>
       <c r="E89" s="3">
-        <v>22574200</v>
+        <v>23103800</v>
       </c>
       <c r="F89" s="3">
-        <v>7907400</v>
+        <v>8092900</v>
       </c>
       <c r="G89" s="3">
-        <v>7614200</v>
+        <v>7792800</v>
       </c>
       <c r="H89" s="3">
-        <v>16482000</v>
+        <v>16868700</v>
       </c>
       <c r="I89" s="3">
-        <v>13503800</v>
+        <v>13820600</v>
       </c>
       <c r="J89" s="3">
-        <v>18107800</v>
+        <v>18532600</v>
       </c>
       <c r="K89" s="3">
         <v>5782900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-349100</v>
+        <v>-357300</v>
       </c>
       <c r="E91" s="3">
-        <v>-388000</v>
+        <v>-397100</v>
       </c>
       <c r="F91" s="3">
-        <v>-460800</v>
+        <v>-471600</v>
       </c>
       <c r="G91" s="3">
-        <v>-460800</v>
+        <v>-471600</v>
       </c>
       <c r="H91" s="3">
-        <v>-392000</v>
+        <v>-401200</v>
       </c>
       <c r="I91" s="3">
-        <v>-470800</v>
+        <v>-481800</v>
       </c>
       <c r="J91" s="3">
-        <v>-460800</v>
+        <v>-471600</v>
       </c>
       <c r="K91" s="3">
         <v>-379600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8927700</v>
+        <v>-9137200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11401300</v>
+        <v>-11668800</v>
       </c>
       <c r="F94" s="3">
-        <v>-11012300</v>
+        <v>-11270700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2118500</v>
+        <v>-2168200</v>
       </c>
       <c r="H94" s="3">
-        <v>-12304900</v>
+        <v>-12593600</v>
       </c>
       <c r="I94" s="3">
-        <v>-10242300</v>
+        <v>-10482600</v>
       </c>
       <c r="J94" s="3">
-        <v>-9503200</v>
+        <v>-9726200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3479900</v>
+        <v>-3561600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1738500</v>
+        <v>-1779300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3259500</v>
+        <v>-3336000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3405100</v>
+        <v>-3485000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3089900</v>
+        <v>-3162400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2915400</v>
+        <v>-2983800</v>
       </c>
       <c r="J96" s="3">
-        <v>-2630100</v>
+        <v>-2691800</v>
       </c>
       <c r="K96" s="3">
         <v>-2131600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4321700</v>
+        <v>-4423100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4914200</v>
+        <v>-5029500</v>
       </c>
       <c r="F100" s="3">
-        <v>-6958900</v>
+        <v>-7122100</v>
       </c>
       <c r="G100" s="3">
-        <v>3908800</v>
+        <v>4000500</v>
       </c>
       <c r="H100" s="3">
-        <v>-6095100</v>
+        <v>-6238100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2870500</v>
+        <v>-2937900</v>
       </c>
       <c r="J100" s="3">
-        <v>-5792900</v>
+        <v>-5928800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>201500</v>
+        <v>206200</v>
       </c>
       <c r="E101" s="3">
-        <v>-735100</v>
+        <v>-752300</v>
       </c>
       <c r="F101" s="3">
-        <v>469800</v>
+        <v>480800</v>
       </c>
       <c r="G101" s="3">
-        <v>1949900</v>
+        <v>1995700</v>
       </c>
       <c r="H101" s="3">
-        <v>-485700</v>
+        <v>-497100</v>
       </c>
       <c r="I101" s="3">
-        <v>-274300</v>
+        <v>-280700</v>
       </c>
       <c r="J101" s="3">
-        <v>1176900</v>
+        <v>1204500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3136800</v>
+        <v>-3210400</v>
       </c>
       <c r="E102" s="3">
-        <v>5523600</v>
+        <v>5653200</v>
       </c>
       <c r="F102" s="3">
-        <v>-9594000</v>
+        <v>-9819100</v>
       </c>
       <c r="G102" s="3">
-        <v>11354400</v>
+        <v>11620800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2403700</v>
+        <v>-2460100</v>
       </c>
       <c r="I102" s="3">
-        <v>116700</v>
+        <v>119400</v>
       </c>
       <c r="J102" s="3">
-        <v>3988600</v>
+        <v>4082200</v>
       </c>
       <c r="K102" s="3">
         <v>-10313500</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>125293000</v>
+        <v>128994500</v>
       </c>
       <c r="E8" s="3">
-        <v>115702600</v>
+        <v>119427000</v>
       </c>
       <c r="F8" s="3">
-        <v>136720800</v>
+        <v>140711900</v>
       </c>
       <c r="G8" s="3">
-        <v>109917700</v>
+        <v>113923300</v>
       </c>
       <c r="H8" s="3">
-        <v>135656200</v>
+        <v>140599700</v>
       </c>
       <c r="I8" s="3">
-        <v>130485800</v>
+        <v>135241000</v>
       </c>
       <c r="J8" s="3">
-        <v>118598600</v>
+        <v>122920600</v>
       </c>
       <c r="K8" s="3">
         <v>133175000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>103597900</v>
+        <v>107373200</v>
       </c>
       <c r="E9" s="3">
-        <v>98250000</v>
+        <v>101830400</v>
       </c>
       <c r="F9" s="3">
-        <v>118135100</v>
+        <v>122440200</v>
       </c>
       <c r="G9" s="3">
-        <v>88835100</v>
+        <v>92072500</v>
       </c>
       <c r="H9" s="3">
-        <v>116431400</v>
+        <v>120674400</v>
       </c>
       <c r="I9" s="3">
-        <v>109780900</v>
+        <v>113781600</v>
       </c>
       <c r="J9" s="3">
-        <v>98770600</v>
+        <v>102370000</v>
       </c>
       <c r="K9" s="3">
         <v>113453500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21695100</v>
+        <v>21621300</v>
       </c>
       <c r="E10" s="3">
-        <v>17452600</v>
+        <v>17596700</v>
       </c>
       <c r="F10" s="3">
-        <v>18585700</v>
+        <v>18271700</v>
       </c>
       <c r="G10" s="3">
-        <v>21082600</v>
+        <v>21850900</v>
       </c>
       <c r="H10" s="3">
-        <v>19224700</v>
+        <v>19925300</v>
       </c>
       <c r="I10" s="3">
-        <v>20704900</v>
+        <v>21459400</v>
       </c>
       <c r="J10" s="3">
-        <v>19828000</v>
+        <v>20550600</v>
       </c>
       <c r="K10" s="3">
         <v>19721500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>845200</v>
+        <v>469800</v>
       </c>
       <c r="E14" s="3">
-        <v>1225000</v>
+        <v>644300</v>
       </c>
       <c r="F14" s="3">
-        <v>999400</v>
+        <v>299400</v>
       </c>
       <c r="G14" s="3">
-        <v>7872400</v>
+        <v>8159300</v>
       </c>
       <c r="H14" s="3">
-        <v>422600</v>
+        <v>438000</v>
       </c>
       <c r="I14" s="3">
-        <v>928900</v>
+        <v>962800</v>
       </c>
       <c r="J14" s="3">
-        <v>856500</v>
+        <v>887700</v>
       </c>
       <c r="K14" s="3">
         <v>760400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>115581100</v>
+        <v>119386800</v>
       </c>
       <c r="E17" s="3">
-        <v>110241300</v>
+        <v>113633400</v>
       </c>
       <c r="F17" s="3">
-        <v>130759400</v>
+        <v>134788100</v>
       </c>
       <c r="G17" s="3">
-        <v>108075200</v>
+        <v>112013600</v>
       </c>
       <c r="H17" s="3">
-        <v>127760300</v>
+        <v>132416100</v>
       </c>
       <c r="I17" s="3">
-        <v>121146500</v>
+        <v>125561300</v>
       </c>
       <c r="J17" s="3">
-        <v>110440400</v>
+        <v>114465000</v>
       </c>
       <c r="K17" s="3">
         <v>124764100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9711900</v>
+        <v>9607700</v>
       </c>
       <c r="E18" s="3">
-        <v>5461300</v>
+        <v>5793600</v>
       </c>
       <c r="F18" s="3">
-        <v>5961500</v>
+        <v>5923700</v>
       </c>
       <c r="G18" s="3">
-        <v>1842500</v>
+        <v>1909700</v>
       </c>
       <c r="H18" s="3">
-        <v>7895900</v>
+        <v>8183600</v>
       </c>
       <c r="I18" s="3">
-        <v>9339300</v>
+        <v>9679600</v>
       </c>
       <c r="J18" s="3">
-        <v>8158200</v>
+        <v>8455500</v>
       </c>
       <c r="K18" s="3">
         <v>8410900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>147000</v>
+        <v>610500</v>
       </c>
       <c r="E20" s="3">
-        <v>408300</v>
+        <v>289900</v>
       </c>
       <c r="F20" s="3">
-        <v>514500</v>
+        <v>788200</v>
       </c>
       <c r="G20" s="3">
-        <v>293000</v>
+        <v>303600</v>
       </c>
       <c r="H20" s="3">
-        <v>271500</v>
+        <v>281400</v>
       </c>
       <c r="I20" s="3">
-        <v>222500</v>
+        <v>230600</v>
       </c>
       <c r="J20" s="3">
-        <v>218500</v>
+        <v>226400</v>
       </c>
       <c r="K20" s="3">
         <v>-79600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10729800</v>
+        <v>11458100</v>
       </c>
       <c r="E21" s="3">
-        <v>7046900</v>
+        <v>7534400</v>
       </c>
       <c r="F21" s="3">
-        <v>7853500</v>
+        <v>7607100</v>
       </c>
       <c r="G21" s="3">
-        <v>2985400</v>
+        <v>2667800</v>
       </c>
       <c r="H21" s="3">
-        <v>8598900</v>
+        <v>9173600</v>
       </c>
       <c r="I21" s="3">
-        <v>10234600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9176600</v>
+        <v>10752800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>471600</v>
+        <v>488800</v>
       </c>
       <c r="E22" s="3">
-        <v>896300</v>
+        <v>928900</v>
       </c>
       <c r="F22" s="3">
-        <v>735000</v>
+        <v>761800</v>
       </c>
       <c r="G22" s="3">
-        <v>573700</v>
+        <v>594600</v>
       </c>
       <c r="H22" s="3">
-        <v>321600</v>
+        <v>333300</v>
       </c>
       <c r="I22" s="3">
-        <v>302200</v>
+        <v>313200</v>
       </c>
       <c r="J22" s="3">
-        <v>498200</v>
+        <v>516300</v>
       </c>
       <c r="K22" s="3">
         <v>555300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9387300</v>
+        <v>9729400</v>
       </c>
       <c r="E23" s="3">
-        <v>4973300</v>
+        <v>5154600</v>
       </c>
       <c r="F23" s="3">
-        <v>5741000</v>
+        <v>5950200</v>
       </c>
       <c r="G23" s="3">
-        <v>1561800</v>
+        <v>1618700</v>
       </c>
       <c r="H23" s="3">
-        <v>7845900</v>
+        <v>8131800</v>
       </c>
       <c r="I23" s="3">
-        <v>9259700</v>
+        <v>9597100</v>
       </c>
       <c r="J23" s="3">
-        <v>7878500</v>
+        <v>8165600</v>
       </c>
       <c r="K23" s="3">
         <v>7776000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1724100</v>
+        <v>1787000</v>
       </c>
       <c r="E24" s="3">
-        <v>1573100</v>
+        <v>1630400</v>
       </c>
       <c r="F24" s="3">
-        <v>1448500</v>
+        <v>1501300</v>
       </c>
       <c r="G24" s="3">
-        <v>1504700</v>
+        <v>1559500</v>
       </c>
       <c r="H24" s="3">
-        <v>1105500</v>
+        <v>1145800</v>
       </c>
       <c r="I24" s="3">
-        <v>2488700</v>
+        <v>2579400</v>
       </c>
       <c r="J24" s="3">
-        <v>1832300</v>
+        <v>1899100</v>
       </c>
       <c r="K24" s="3">
         <v>1953800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7663100</v>
+        <v>7942400</v>
       </c>
       <c r="E26" s="3">
-        <v>3400300</v>
+        <v>3524200</v>
       </c>
       <c r="F26" s="3">
-        <v>4292500</v>
+        <v>4448900</v>
       </c>
       <c r="G26" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="H26" s="3">
-        <v>6740300</v>
+        <v>6986000</v>
       </c>
       <c r="I26" s="3">
-        <v>6771000</v>
+        <v>7017700</v>
       </c>
       <c r="J26" s="3">
-        <v>6046200</v>
+        <v>6266500</v>
       </c>
       <c r="K26" s="3">
         <v>5822200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7247700</v>
+        <v>7511800</v>
       </c>
       <c r="E27" s="3">
-        <v>3049100</v>
+        <v>3160200</v>
       </c>
       <c r="F27" s="3">
-        <v>3703500</v>
+        <v>3838400</v>
       </c>
       <c r="G27" s="3">
-        <v>2354000</v>
+        <v>2439700</v>
       </c>
       <c r="H27" s="3">
-        <v>6104400</v>
+        <v>6326800</v>
       </c>
       <c r="I27" s="3">
-        <v>6125800</v>
+        <v>6349100</v>
       </c>
       <c r="J27" s="3">
-        <v>5357200</v>
+        <v>5552400</v>
       </c>
       <c r="K27" s="3">
         <v>5148000</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="G29" s="3">
-        <v>-436900</v>
+        <v>-452800</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-448100</v>
+        <v>-464500</v>
       </c>
       <c r="J29" s="3">
-        <v>65300</v>
+        <v>67700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-147000</v>
+        <v>-610500</v>
       </c>
       <c r="E32" s="3">
-        <v>-408300</v>
+        <v>-289900</v>
       </c>
       <c r="F32" s="3">
-        <v>-514500</v>
+        <v>-788200</v>
       </c>
       <c r="G32" s="3">
-        <v>-293000</v>
+        <v>-303600</v>
       </c>
       <c r="H32" s="3">
-        <v>-271500</v>
+        <v>-281400</v>
       </c>
       <c r="I32" s="3">
-        <v>-222500</v>
+        <v>-230600</v>
       </c>
       <c r="J32" s="3">
-        <v>-218500</v>
+        <v>-226400</v>
       </c>
       <c r="K32" s="3">
         <v>79600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7247700</v>
+        <v>7511800</v>
       </c>
       <c r="E33" s="3">
-        <v>3049100</v>
+        <v>3160200</v>
       </c>
       <c r="F33" s="3">
-        <v>3679000</v>
+        <v>3813000</v>
       </c>
       <c r="G33" s="3">
-        <v>1917100</v>
+        <v>1986900</v>
       </c>
       <c r="H33" s="3">
-        <v>6104400</v>
+        <v>6326800</v>
       </c>
       <c r="I33" s="3">
-        <v>5677700</v>
+        <v>5884600</v>
       </c>
       <c r="J33" s="3">
-        <v>5422500</v>
+        <v>5620100</v>
       </c>
       <c r="K33" s="3">
         <v>5148000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7247700</v>
+        <v>7511800</v>
       </c>
       <c r="E35" s="3">
-        <v>3049100</v>
+        <v>3160200</v>
       </c>
       <c r="F35" s="3">
-        <v>3679000</v>
+        <v>3813000</v>
       </c>
       <c r="G35" s="3">
-        <v>1917100</v>
+        <v>1986900</v>
       </c>
       <c r="H35" s="3">
-        <v>6104400</v>
+        <v>6326800</v>
       </c>
       <c r="I35" s="3">
-        <v>5677700</v>
+        <v>5884600</v>
       </c>
       <c r="J35" s="3">
-        <v>5422500</v>
+        <v>5620100</v>
       </c>
       <c r="K35" s="3">
         <v>5148000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25572100</v>
+        <v>26504000</v>
       </c>
       <c r="E41" s="3">
-        <v>28824300</v>
+        <v>29874700</v>
       </c>
       <c r="F41" s="3">
-        <v>22404500</v>
+        <v>23221000</v>
       </c>
       <c r="G41" s="3">
-        <v>31980600</v>
+        <v>33146100</v>
       </c>
       <c r="H41" s="3">
-        <v>24395100</v>
+        <v>25284100</v>
       </c>
       <c r="I41" s="3">
-        <v>26861300</v>
+        <v>27840200</v>
       </c>
       <c r="J41" s="3">
-        <v>26821500</v>
+        <v>27799000</v>
       </c>
       <c r="K41" s="3">
         <v>24052400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38193200</v>
+        <v>39585100</v>
       </c>
       <c r="E43" s="3">
-        <v>38443300</v>
+        <v>39844300</v>
       </c>
       <c r="F43" s="3">
-        <v>40311400</v>
+        <v>41780400</v>
       </c>
       <c r="G43" s="3">
-        <v>42821500</v>
+        <v>44382000</v>
       </c>
       <c r="H43" s="3">
-        <v>30870000</v>
+        <v>31995000</v>
       </c>
       <c r="I43" s="3">
-        <v>35559600</v>
+        <v>36855400</v>
       </c>
       <c r="J43" s="3">
-        <v>32366500</v>
+        <v>33546000</v>
       </c>
       <c r="K43" s="3">
         <v>31701800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>520406000</v>
+        <v>539371000</v>
       </c>
       <c r="E47" s="3">
-        <v>543920000</v>
+        <v>563742000</v>
       </c>
       <c r="F47" s="3">
-        <v>531367000</v>
+        <v>550731000</v>
       </c>
       <c r="G47" s="3">
-        <v>583224000</v>
+        <v>604478000</v>
       </c>
       <c r="H47" s="3">
-        <v>565764000</v>
+        <v>586382000</v>
       </c>
       <c r="I47" s="3">
-        <v>581501000</v>
+        <v>602692000</v>
       </c>
       <c r="J47" s="3">
-        <v>552407000</v>
+        <v>572538000</v>
       </c>
       <c r="K47" s="3">
         <v>571470000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31438600</v>
+        <v>32584300</v>
       </c>
       <c r="E48" s="3">
-        <v>29118300</v>
+        <v>30179500</v>
       </c>
       <c r="F48" s="3">
-        <v>26717400</v>
+        <v>27691000</v>
       </c>
       <c r="G48" s="3">
-        <v>23006800</v>
+        <v>23845200</v>
       </c>
       <c r="H48" s="3">
-        <v>24990200</v>
+        <v>25900900</v>
       </c>
       <c r="I48" s="3">
-        <v>23368200</v>
+        <v>24219700</v>
       </c>
       <c r="J48" s="3">
-        <v>22254500</v>
+        <v>23065500</v>
       </c>
       <c r="K48" s="3">
         <v>21744000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21910500</v>
+        <v>22708900</v>
       </c>
       <c r="E49" s="3">
-        <v>21452100</v>
+        <v>22233900</v>
       </c>
       <c r="F49" s="3">
-        <v>23119100</v>
+        <v>23961600</v>
       </c>
       <c r="G49" s="3">
-        <v>22265700</v>
+        <v>23077100</v>
       </c>
       <c r="H49" s="3">
-        <v>18947100</v>
+        <v>19637500</v>
       </c>
       <c r="I49" s="3">
-        <v>20366000</v>
+        <v>21108200</v>
       </c>
       <c r="J49" s="3">
-        <v>20762100</v>
+        <v>21518700</v>
       </c>
       <c r="K49" s="3">
         <v>20947700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9118800</v>
+        <v>9451100</v>
       </c>
       <c r="E52" s="3">
-        <v>34467300</v>
+        <v>35723400</v>
       </c>
       <c r="F52" s="3">
-        <v>36997900</v>
+        <v>38346200</v>
       </c>
       <c r="G52" s="3">
-        <v>27866800</v>
+        <v>28882300</v>
       </c>
       <c r="H52" s="3">
-        <v>5977800</v>
+        <v>6195600</v>
       </c>
       <c r="I52" s="3">
-        <v>2569400</v>
+        <v>2663000</v>
       </c>
       <c r="J52" s="3">
-        <v>5176500</v>
+        <v>5365100</v>
       </c>
       <c r="K52" s="3">
         <v>2822200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>791621000</v>
+        <v>820470000</v>
       </c>
       <c r="E54" s="3">
-        <v>821325000</v>
+        <v>851255000</v>
       </c>
       <c r="F54" s="3">
-        <v>797120000</v>
+        <v>826169000</v>
       </c>
       <c r="G54" s="3">
-        <v>950054000</v>
+        <v>984675000</v>
       </c>
       <c r="H54" s="3">
-        <v>888227000</v>
+        <v>920595000</v>
       </c>
       <c r="I54" s="3">
-        <v>911353000</v>
+        <v>944564000</v>
       </c>
       <c r="J54" s="3">
-        <v>905521000</v>
+        <v>938520000</v>
       </c>
       <c r="K54" s="3">
         <v>916440000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1290300</v>
+        <v>1337300</v>
       </c>
       <c r="E58" s="3">
-        <v>1643500</v>
+        <v>1703400</v>
       </c>
       <c r="F58" s="3">
-        <v>711500</v>
+        <v>737400</v>
       </c>
       <c r="G58" s="3">
-        <v>1454600</v>
+        <v>1507700</v>
       </c>
       <c r="H58" s="3">
-        <v>2374400</v>
+        <v>2460900</v>
       </c>
       <c r="I58" s="3">
-        <v>3853500</v>
+        <v>3994000</v>
       </c>
       <c r="J58" s="3">
-        <v>3355400</v>
+        <v>3477600</v>
       </c>
       <c r="K58" s="3">
         <v>3038200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207248000</v>
+        <v>214801000</v>
       </c>
       <c r="E59" s="3">
-        <v>193025000</v>
+        <v>200059000</v>
       </c>
       <c r="F59" s="3">
-        <v>182867000</v>
+        <v>189531000</v>
       </c>
       <c r="G59" s="3">
-        <v>295259000</v>
+        <v>306019000</v>
       </c>
       <c r="H59" s="3">
-        <v>301066000</v>
+        <v>312037000</v>
       </c>
       <c r="I59" s="3">
-        <v>302491000</v>
+        <v>313514000</v>
       </c>
       <c r="J59" s="3">
-        <v>323255000</v>
+        <v>335035000</v>
       </c>
       <c r="K59" s="3">
         <v>330312000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21686900</v>
+        <v>22477200</v>
       </c>
       <c r="E61" s="3">
-        <v>21267300</v>
+        <v>22042400</v>
       </c>
       <c r="F61" s="3">
-        <v>25339300</v>
+        <v>26262700</v>
       </c>
       <c r="G61" s="3">
-        <v>25509800</v>
+        <v>26439400</v>
       </c>
       <c r="H61" s="3">
-        <v>9711900</v>
+        <v>10065800</v>
       </c>
       <c r="I61" s="3">
-        <v>8628800</v>
+        <v>8943300</v>
       </c>
       <c r="J61" s="3">
-        <v>7899000</v>
+        <v>8186800</v>
       </c>
       <c r="K61" s="3">
         <v>8114200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5444900</v>
+        <v>5643400</v>
       </c>
       <c r="E62" s="3">
-        <v>15230300</v>
+        <v>15785400</v>
       </c>
       <c r="F62" s="3">
-        <v>14548400</v>
+        <v>15078600</v>
       </c>
       <c r="G62" s="3">
-        <v>13614400</v>
+        <v>14110500</v>
       </c>
       <c r="H62" s="3">
-        <v>15168100</v>
+        <v>15720800</v>
       </c>
       <c r="I62" s="3">
-        <v>17277000</v>
+        <v>17906700</v>
       </c>
       <c r="J62" s="3">
-        <v>15853000</v>
+        <v>16430700</v>
       </c>
       <c r="K62" s="3">
         <v>17298600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>719007000</v>
+        <v>745209000</v>
       </c>
       <c r="E66" s="3">
-        <v>748224000</v>
+        <v>775491000</v>
       </c>
       <c r="F66" s="3">
-        <v>725769000</v>
+        <v>752218000</v>
       </c>
       <c r="G66" s="3">
-        <v>886327000</v>
+        <v>918627000</v>
       </c>
       <c r="H66" s="3">
-        <v>817168000</v>
+        <v>846947000</v>
       </c>
       <c r="I66" s="3">
-        <v>839288000</v>
+        <v>869873000</v>
       </c>
       <c r="J66" s="3">
-        <v>835622000</v>
+        <v>866074000</v>
       </c>
       <c r="K66" s="3">
         <v>845292000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24616600</v>
+        <v>25513700</v>
       </c>
       <c r="E72" s="3">
-        <v>29588900</v>
+        <v>30667200</v>
       </c>
       <c r="F72" s="3">
-        <v>26471400</v>
+        <v>27436100</v>
       </c>
       <c r="G72" s="3">
-        <v>27098200</v>
+        <v>28085700</v>
       </c>
       <c r="H72" s="3">
-        <v>32758500</v>
+        <v>33952300</v>
       </c>
       <c r="I72" s="3">
-        <v>30067700</v>
+        <v>31163400</v>
       </c>
       <c r="J72" s="3">
-        <v>29461300</v>
+        <v>30534900</v>
       </c>
       <c r="K72" s="3">
         <v>27829100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72614600</v>
+        <v>75260800</v>
       </c>
       <c r="E76" s="3">
-        <v>73100500</v>
+        <v>75764400</v>
       </c>
       <c r="F76" s="3">
-        <v>71350900</v>
+        <v>73951000</v>
       </c>
       <c r="G76" s="3">
-        <v>63726500</v>
+        <v>66048800</v>
       </c>
       <c r="H76" s="3">
-        <v>71058900</v>
+        <v>73648400</v>
       </c>
       <c r="I76" s="3">
-        <v>72065400</v>
+        <v>74691600</v>
       </c>
       <c r="J76" s="3">
-        <v>69899300</v>
+        <v>72446600</v>
       </c>
       <c r="K76" s="3">
         <v>71148100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7247700</v>
+        <v>7511800</v>
       </c>
       <c r="E81" s="3">
-        <v>3049100</v>
+        <v>3160200</v>
       </c>
       <c r="F81" s="3">
-        <v>3679000</v>
+        <v>3813000</v>
       </c>
       <c r="G81" s="3">
-        <v>1917100</v>
+        <v>1986900</v>
       </c>
       <c r="H81" s="3">
-        <v>6104400</v>
+        <v>6326800</v>
       </c>
       <c r="I81" s="3">
-        <v>5677700</v>
+        <v>5884600</v>
       </c>
       <c r="J81" s="3">
-        <v>5422500</v>
+        <v>5620100</v>
       </c>
       <c r="K81" s="3">
         <v>5148000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>888100</v>
+        <v>1244200</v>
       </c>
       <c r="E83" s="3">
-        <v>1200500</v>
+        <v>1455800</v>
       </c>
       <c r="F83" s="3">
-        <v>1404600</v>
+        <v>898200</v>
       </c>
       <c r="G83" s="3">
-        <v>866700</v>
+        <v>456000</v>
       </c>
       <c r="H83" s="3">
-        <v>440000</v>
+        <v>711000</v>
       </c>
       <c r="I83" s="3">
-        <v>686000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>815600</v>
+        <v>845300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10143700</v>
+        <v>23945700</v>
       </c>
       <c r="E89" s="3">
-        <v>23103800</v>
+        <v>8387800</v>
       </c>
       <c r="F89" s="3">
-        <v>8092900</v>
+        <v>8076800</v>
       </c>
       <c r="G89" s="3">
-        <v>7792800</v>
+        <v>17483500</v>
       </c>
       <c r="H89" s="3">
-        <v>16868700</v>
+        <v>14324300</v>
       </c>
       <c r="I89" s="3">
-        <v>13820600</v>
+        <v>19208000</v>
       </c>
       <c r="J89" s="3">
-        <v>18532600</v>
+        <v>13659800</v>
       </c>
       <c r="K89" s="3">
         <v>5782900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-357300</v>
+        <v>-411600</v>
       </c>
       <c r="E91" s="3">
-        <v>-397100</v>
+        <v>-488800</v>
       </c>
       <c r="F91" s="3">
-        <v>-471600</v>
+        <v>-488800</v>
       </c>
       <c r="G91" s="3">
-        <v>-471600</v>
+        <v>-415800</v>
       </c>
       <c r="H91" s="3">
-        <v>-401200</v>
+        <v>-499400</v>
       </c>
       <c r="I91" s="3">
-        <v>-481800</v>
+        <v>-488800</v>
       </c>
       <c r="J91" s="3">
-        <v>-471600</v>
+        <v>-373500</v>
       </c>
       <c r="K91" s="3">
         <v>-379600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9137200</v>
+        <v>-12094000</v>
       </c>
       <c r="E94" s="3">
-        <v>-11668800</v>
+        <v>-11681400</v>
       </c>
       <c r="F94" s="3">
-        <v>-11270700</v>
+        <v>-2247200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2168200</v>
+        <v>-13052500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12593600</v>
+        <v>-10864600</v>
       </c>
       <c r="I94" s="3">
-        <v>-10482600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9726200</v>
+        <v>-10080600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3561600</v>
+        <v>-1844100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1779300</v>
+        <v>-3457500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3336000</v>
+        <v>-3612000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3485000</v>
+        <v>-3277700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3162400</v>
+        <v>-3092500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2983800</v>
+        <v>-2789900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2691800</v>
+        <v>-2364600</v>
       </c>
       <c r="K96" s="3">
         <v>-2131600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4423100</v>
+        <v>-5212800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5029500</v>
+        <v>-7381700</v>
       </c>
       <c r="F100" s="3">
-        <v>-7122100</v>
+        <v>4146300</v>
       </c>
       <c r="G100" s="3">
-        <v>4000500</v>
+        <v>-6465400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6238100</v>
+        <v>-3044900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2937900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-5928800</v>
+        <v>-6144900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>206200</v>
+        <v>-779700</v>
       </c>
       <c r="E101" s="3">
-        <v>-752300</v>
+        <v>498300</v>
       </c>
       <c r="F101" s="3">
-        <v>480800</v>
+        <v>2068400</v>
       </c>
       <c r="G101" s="3">
-        <v>1995700</v>
+        <v>-515200</v>
       </c>
       <c r="H101" s="3">
-        <v>-497100</v>
+        <v>-291000</v>
       </c>
       <c r="I101" s="3">
-        <v>-280700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1204500</v>
+        <v>1248400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3210400</v>
+        <v>5859200</v>
       </c>
       <c r="E102" s="3">
-        <v>5653200</v>
+        <v>-10176900</v>
       </c>
       <c r="F102" s="3">
-        <v>-9819100</v>
+        <v>12044300</v>
       </c>
       <c r="G102" s="3">
-        <v>11620800</v>
+        <v>-2549800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2460100</v>
+        <v>123800</v>
       </c>
       <c r="I102" s="3">
-        <v>119400</v>
+        <v>4230900</v>
       </c>
       <c r="J102" s="3">
-        <v>4082200</v>
+        <v>1220900</v>
       </c>
       <c r="K102" s="3">
         <v>-10313500</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>AXAHY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,191 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>128994500</v>
+        <v>112601700</v>
       </c>
       <c r="E8" s="3">
-        <v>119427000</v>
+        <v>131298900</v>
       </c>
       <c r="F8" s="3">
-        <v>140711900</v>
+        <v>121560500</v>
       </c>
       <c r="G8" s="3">
-        <v>113923300</v>
+        <v>143225500</v>
       </c>
       <c r="H8" s="3">
-        <v>140599700</v>
+        <v>115958400</v>
       </c>
       <c r="I8" s="3">
-        <v>135241000</v>
+        <v>143111400</v>
       </c>
       <c r="J8" s="3">
+        <v>137656900</v>
+      </c>
+      <c r="K8" s="3">
         <v>122920600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>133175000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>150327700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>132761400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119444600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107373200</v>
+        <v>90671700</v>
       </c>
       <c r="E9" s="3">
-        <v>101830400</v>
+        <v>109291400</v>
       </c>
       <c r="F9" s="3">
-        <v>122440200</v>
+        <v>103649500</v>
       </c>
       <c r="G9" s="3">
-        <v>92072500</v>
+        <v>124627500</v>
       </c>
       <c r="H9" s="3">
-        <v>120674400</v>
+        <v>93717200</v>
       </c>
       <c r="I9" s="3">
-        <v>113781600</v>
+        <v>122830100</v>
       </c>
       <c r="J9" s="3">
+        <v>115814100</v>
+      </c>
+      <c r="K9" s="3">
         <v>102370000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113453500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129281700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114643300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99624800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21621300</v>
+        <v>21930000</v>
       </c>
       <c r="E10" s="3">
-        <v>17596700</v>
+        <v>22007500</v>
       </c>
       <c r="F10" s="3">
-        <v>18271700</v>
+        <v>17911000</v>
       </c>
       <c r="G10" s="3">
-        <v>21850900</v>
+        <v>18598100</v>
       </c>
       <c r="H10" s="3">
-        <v>19925300</v>
+        <v>22241200</v>
       </c>
       <c r="I10" s="3">
-        <v>21459400</v>
+        <v>20281300</v>
       </c>
       <c r="J10" s="3">
+        <v>21842800</v>
+      </c>
+      <c r="K10" s="3">
         <v>20550600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19721500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21045900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18118100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19819800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +946,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>469800</v>
+        <v>1098400</v>
       </c>
       <c r="E14" s="3">
-        <v>644300</v>
+        <v>478100</v>
       </c>
       <c r="F14" s="3">
-        <v>299400</v>
+        <v>655800</v>
       </c>
       <c r="G14" s="3">
-        <v>8159300</v>
+        <v>304800</v>
       </c>
       <c r="H14" s="3">
-        <v>438000</v>
+        <v>8305100</v>
       </c>
       <c r="I14" s="3">
-        <v>962800</v>
+        <v>445800</v>
       </c>
       <c r="J14" s="3">
+        <v>980000</v>
+      </c>
+      <c r="K14" s="3">
         <v>887700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>760400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1077800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>815800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1426200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,18 +1021,21 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>206400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>292300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>119386800</v>
+        <v>102588700</v>
       </c>
       <c r="E17" s="3">
-        <v>113633400</v>
+        <v>121519500</v>
       </c>
       <c r="F17" s="3">
-        <v>134788100</v>
+        <v>115663400</v>
       </c>
       <c r="G17" s="3">
-        <v>112013600</v>
+        <v>137196000</v>
       </c>
       <c r="H17" s="3">
-        <v>132416100</v>
+        <v>114014600</v>
       </c>
       <c r="I17" s="3">
-        <v>125561300</v>
+        <v>134781600</v>
       </c>
       <c r="J17" s="3">
+        <v>127804300</v>
+      </c>
+      <c r="K17" s="3">
         <v>114465000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124764100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>142280800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>126464300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113979300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9607700</v>
+        <v>10013000</v>
       </c>
       <c r="E18" s="3">
-        <v>5793600</v>
+        <v>9779300</v>
       </c>
       <c r="F18" s="3">
-        <v>5923700</v>
+        <v>5897100</v>
       </c>
       <c r="G18" s="3">
-        <v>1909700</v>
+        <v>6029600</v>
       </c>
       <c r="H18" s="3">
-        <v>8183600</v>
+        <v>1943800</v>
       </c>
       <c r="I18" s="3">
-        <v>9679600</v>
+        <v>8329800</v>
       </c>
       <c r="J18" s="3">
+        <v>9852600</v>
+      </c>
+      <c r="K18" s="3">
         <v>8455500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8410900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8046800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6297000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5465300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>610500</v>
+        <v>-119500</v>
       </c>
       <c r="E20" s="3">
-        <v>289900</v>
+        <v>621400</v>
       </c>
       <c r="F20" s="3">
-        <v>788200</v>
+        <v>295100</v>
       </c>
       <c r="G20" s="3">
-        <v>303600</v>
+        <v>802300</v>
       </c>
       <c r="H20" s="3">
-        <v>281400</v>
+        <v>309100</v>
       </c>
       <c r="I20" s="3">
-        <v>230600</v>
+        <v>286500</v>
       </c>
       <c r="J20" s="3">
+        <v>234800</v>
+      </c>
+      <c r="K20" s="3">
         <v>226400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-79600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>167500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>129600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>72800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>11458100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>7534400</v>
+        <v>11343700</v>
       </c>
       <c r="F21" s="3">
-        <v>7607100</v>
+        <v>7466900</v>
       </c>
       <c r="G21" s="3">
-        <v>2667800</v>
+        <v>8323300</v>
       </c>
       <c r="H21" s="3">
-        <v>9173600</v>
+        <v>3173100</v>
       </c>
       <c r="I21" s="3">
-        <v>10752800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>9083400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10815700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>9504500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7972800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6387300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>488800</v>
+        <v>513700</v>
       </c>
       <c r="E22" s="3">
-        <v>928900</v>
+        <v>497500</v>
       </c>
       <c r="F22" s="3">
-        <v>761800</v>
+        <v>945500</v>
       </c>
       <c r="G22" s="3">
-        <v>594600</v>
+        <v>775400</v>
       </c>
       <c r="H22" s="3">
-        <v>333300</v>
+        <v>605200</v>
       </c>
       <c r="I22" s="3">
-        <v>313200</v>
+        <v>339200</v>
       </c>
       <c r="J22" s="3">
+        <v>318800</v>
+      </c>
+      <c r="K22" s="3">
         <v>516300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>555300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>739300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>623700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>386200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9729400</v>
+        <v>9379800</v>
       </c>
       <c r="E23" s="3">
-        <v>5154600</v>
+        <v>9903200</v>
       </c>
       <c r="F23" s="3">
-        <v>5950200</v>
+        <v>5246700</v>
       </c>
       <c r="G23" s="3">
-        <v>1618700</v>
+        <v>6056500</v>
       </c>
       <c r="H23" s="3">
-        <v>8131800</v>
+        <v>1647700</v>
       </c>
       <c r="I23" s="3">
-        <v>9597100</v>
+        <v>8277100</v>
       </c>
       <c r="J23" s="3">
+        <v>9768600</v>
+      </c>
+      <c r="K23" s="3">
         <v>8165600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7776000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7475100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5802900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5151900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1787000</v>
+        <v>1997600</v>
       </c>
       <c r="E24" s="3">
-        <v>1630400</v>
+        <v>1818900</v>
       </c>
       <c r="F24" s="3">
-        <v>1501300</v>
+        <v>1659500</v>
       </c>
       <c r="G24" s="3">
-        <v>1559500</v>
+        <v>1528100</v>
       </c>
       <c r="H24" s="3">
-        <v>1145800</v>
+        <v>1587400</v>
       </c>
       <c r="I24" s="3">
-        <v>2579400</v>
+        <v>1166300</v>
       </c>
       <c r="J24" s="3">
+        <v>2625500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1899100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1953800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1748800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1205600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1186700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7942400</v>
+        <v>7382100</v>
       </c>
       <c r="E26" s="3">
-        <v>3524200</v>
+        <v>8084300</v>
       </c>
       <c r="F26" s="3">
-        <v>4448900</v>
+        <v>3587200</v>
       </c>
       <c r="G26" s="3">
-        <v>59200</v>
+        <v>4528400</v>
       </c>
       <c r="H26" s="3">
-        <v>6986000</v>
+        <v>60300</v>
       </c>
       <c r="I26" s="3">
-        <v>7017700</v>
+        <v>7110800</v>
       </c>
       <c r="J26" s="3">
+        <v>7143100</v>
+      </c>
+      <c r="K26" s="3">
         <v>6266500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5822200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5726200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4597300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3965100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7511800</v>
+        <v>6992300</v>
       </c>
       <c r="E27" s="3">
-        <v>3160200</v>
+        <v>7646000</v>
       </c>
       <c r="F27" s="3">
-        <v>3838400</v>
+        <v>3216700</v>
       </c>
       <c r="G27" s="3">
-        <v>2439700</v>
+        <v>3907000</v>
       </c>
       <c r="H27" s="3">
-        <v>6326800</v>
+        <v>2483300</v>
       </c>
       <c r="I27" s="3">
-        <v>6349100</v>
+        <v>6439900</v>
       </c>
       <c r="J27" s="3">
+        <v>6462500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5552400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5148000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5021600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4134000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1525,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-25400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-452800</v>
+        <v>-25800</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-460900</v>
       </c>
       <c r="I29" s="3">
-        <v>-464500</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-472800</v>
+      </c>
+      <c r="K29" s="3">
         <v>67700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1176200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-610500</v>
+        <v>119500</v>
       </c>
       <c r="E32" s="3">
-        <v>-289900</v>
+        <v>-621400</v>
       </c>
       <c r="F32" s="3">
-        <v>-788200</v>
+        <v>-295100</v>
       </c>
       <c r="G32" s="3">
-        <v>-303600</v>
+        <v>-802300</v>
       </c>
       <c r="H32" s="3">
-        <v>-281400</v>
+        <v>-309100</v>
       </c>
       <c r="I32" s="3">
-        <v>-230600</v>
+        <v>-286500</v>
       </c>
       <c r="J32" s="3">
+        <v>-234800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-226400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>79600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-167500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-129600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-72800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7511800</v>
+        <v>6992300</v>
       </c>
       <c r="E33" s="3">
-        <v>3160200</v>
+        <v>7646000</v>
       </c>
       <c r="F33" s="3">
-        <v>3813000</v>
+        <v>3216700</v>
       </c>
       <c r="G33" s="3">
-        <v>1986900</v>
+        <v>3881100</v>
       </c>
       <c r="H33" s="3">
-        <v>6326800</v>
+        <v>2022400</v>
       </c>
       <c r="I33" s="3">
-        <v>5884600</v>
+        <v>6439900</v>
       </c>
       <c r="J33" s="3">
+        <v>5989700</v>
+      </c>
+      <c r="K33" s="3">
         <v>5620100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5148000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5021600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4134000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4576700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7511800</v>
+        <v>6992300</v>
       </c>
       <c r="E35" s="3">
-        <v>3160200</v>
+        <v>7646000</v>
       </c>
       <c r="F35" s="3">
-        <v>3813000</v>
+        <v>3216700</v>
       </c>
       <c r="G35" s="3">
-        <v>1986900</v>
+        <v>3881100</v>
       </c>
       <c r="H35" s="3">
-        <v>6326800</v>
+        <v>2022400</v>
       </c>
       <c r="I35" s="3">
-        <v>5884600</v>
+        <v>6439900</v>
       </c>
       <c r="J35" s="3">
+        <v>5989700</v>
+      </c>
+      <c r="K35" s="3">
         <v>5620100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5148000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5021600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4134000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4576700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26504000</v>
+        <v>28177100</v>
       </c>
       <c r="E41" s="3">
-        <v>29874700</v>
+        <v>26977400</v>
       </c>
       <c r="F41" s="3">
-        <v>23221000</v>
+        <v>30408400</v>
       </c>
       <c r="G41" s="3">
-        <v>33146100</v>
+        <v>23635800</v>
       </c>
       <c r="H41" s="3">
-        <v>25284100</v>
+        <v>33738200</v>
       </c>
       <c r="I41" s="3">
-        <v>27840200</v>
+        <v>25735800</v>
       </c>
       <c r="J41" s="3">
+        <v>28337500</v>
+      </c>
+      <c r="K41" s="3">
         <v>27799000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24052400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25664500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33539500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36472600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,48 +1986,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39585100</v>
+        <v>44691300</v>
       </c>
       <c r="E43" s="3">
-        <v>39844300</v>
+        <v>40292200</v>
       </c>
       <c r="F43" s="3">
-        <v>41780400</v>
+        <v>40556100</v>
       </c>
       <c r="G43" s="3">
-        <v>44382000</v>
+        <v>42526800</v>
       </c>
       <c r="H43" s="3">
-        <v>31995000</v>
+        <v>45174900</v>
       </c>
       <c r="I43" s="3">
-        <v>36855400</v>
+        <v>32566500</v>
       </c>
       <c r="J43" s="3">
+        <v>37513800</v>
+      </c>
+      <c r="K43" s="3">
         <v>33546000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31701800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33173000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53363900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38370700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2070,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2112,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2154,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>539371000</v>
+        <v>453365000</v>
       </c>
       <c r="E47" s="3">
-        <v>563742000</v>
+        <v>549006000</v>
       </c>
       <c r="F47" s="3">
-        <v>550731000</v>
+        <v>573812000</v>
       </c>
       <c r="G47" s="3">
-        <v>604478000</v>
+        <v>560570000</v>
       </c>
       <c r="H47" s="3">
-        <v>586382000</v>
+        <v>615276000</v>
       </c>
       <c r="I47" s="3">
-        <v>602692000</v>
+        <v>596857000</v>
       </c>
       <c r="J47" s="3">
+        <v>613458000</v>
+      </c>
+      <c r="K47" s="3">
         <v>572538000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>571470000</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>723251000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32584300</v>
+        <v>33457100</v>
       </c>
       <c r="E48" s="3">
-        <v>30179500</v>
+        <v>33166400</v>
       </c>
       <c r="F48" s="3">
-        <v>27691000</v>
+        <v>30718600</v>
       </c>
       <c r="G48" s="3">
-        <v>23845200</v>
+        <v>28185700</v>
       </c>
       <c r="H48" s="3">
-        <v>25900900</v>
+        <v>24271200</v>
       </c>
       <c r="I48" s="3">
-        <v>24219700</v>
+        <v>26363600</v>
       </c>
       <c r="J48" s="3">
+        <v>24652400</v>
+      </c>
+      <c r="K48" s="3">
         <v>23065500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21744000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22414400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20476600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1655100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22708900</v>
+        <v>23742400</v>
       </c>
       <c r="E49" s="3">
-        <v>22233900</v>
+        <v>23114600</v>
       </c>
       <c r="F49" s="3">
-        <v>23961600</v>
+        <v>22631100</v>
       </c>
       <c r="G49" s="3">
-        <v>23077100</v>
+        <v>24389600</v>
       </c>
       <c r="H49" s="3">
-        <v>19637500</v>
+        <v>23489300</v>
       </c>
       <c r="I49" s="3">
-        <v>21108200</v>
+        <v>19988300</v>
       </c>
       <c r="J49" s="3">
+        <v>21485200</v>
+      </c>
+      <c r="K49" s="3">
         <v>21518700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20947700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43010600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44897200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30158700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9451100</v>
+        <v>19381000</v>
       </c>
       <c r="E52" s="3">
-        <v>35723400</v>
+        <v>9619900</v>
       </c>
       <c r="F52" s="3">
-        <v>38346200</v>
+        <v>36361500</v>
       </c>
       <c r="G52" s="3">
-        <v>28882300</v>
+        <v>39031200</v>
       </c>
       <c r="H52" s="3">
-        <v>6195600</v>
+        <v>29398300</v>
       </c>
       <c r="I52" s="3">
-        <v>2663000</v>
+        <v>6306300</v>
       </c>
       <c r="J52" s="3">
+        <v>2710600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5365100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2822200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2875700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3563000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5797400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>820470000</v>
+        <v>750273000</v>
       </c>
       <c r="E54" s="3">
-        <v>851255000</v>
+        <v>835126000</v>
       </c>
       <c r="F54" s="3">
-        <v>826169000</v>
+        <v>866462000</v>
       </c>
       <c r="G54" s="3">
-        <v>984675000</v>
+        <v>840928000</v>
       </c>
       <c r="H54" s="3">
-        <v>920595000</v>
+        <v>1002270000</v>
       </c>
       <c r="I54" s="3">
-        <v>944564000</v>
+        <v>937041000</v>
       </c>
       <c r="J54" s="3">
+        <v>961438000</v>
+      </c>
+      <c r="K54" s="3">
         <v>938520000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>916440000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>903659000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>836525000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>853599000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2529,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,87 +2568,96 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1337300</v>
+        <v>1221200</v>
       </c>
       <c r="E58" s="3">
-        <v>1703400</v>
+        <v>1361200</v>
       </c>
       <c r="F58" s="3">
-        <v>737400</v>
+        <v>1733800</v>
       </c>
       <c r="G58" s="3">
-        <v>1507700</v>
+        <v>750600</v>
       </c>
       <c r="H58" s="3">
-        <v>2460900</v>
+        <v>1534600</v>
       </c>
       <c r="I58" s="3">
-        <v>3994000</v>
+        <v>2504900</v>
       </c>
       <c r="J58" s="3">
+        <v>4065300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3477600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3038200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6128100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4952000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7362100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214801000</v>
+        <v>202669000</v>
       </c>
       <c r="E59" s="3">
-        <v>200059000</v>
+        <v>218638000</v>
       </c>
       <c r="F59" s="3">
-        <v>189531000</v>
+        <v>203633000</v>
       </c>
       <c r="G59" s="3">
-        <v>306019000</v>
+        <v>192917000</v>
       </c>
       <c r="H59" s="3">
-        <v>312037000</v>
+        <v>311486000</v>
       </c>
       <c r="I59" s="3">
-        <v>313514000</v>
+        <v>317611000</v>
       </c>
       <c r="J59" s="3">
+        <v>319115000</v>
+      </c>
+      <c r="K59" s="3">
         <v>335035000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>330312000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>346918000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>301801000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55893300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2694,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22477200</v>
+        <v>25378200</v>
       </c>
       <c r="E61" s="3">
-        <v>22042400</v>
+        <v>22878700</v>
       </c>
       <c r="F61" s="3">
-        <v>26262700</v>
+        <v>22436100</v>
       </c>
       <c r="G61" s="3">
-        <v>26439400</v>
+        <v>26731900</v>
       </c>
       <c r="H61" s="3">
-        <v>10065800</v>
+        <v>26911700</v>
       </c>
       <c r="I61" s="3">
-        <v>8943300</v>
+        <v>10245600</v>
       </c>
       <c r="J61" s="3">
+        <v>9103000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8186800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8114200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8953600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16658900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12232300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5643400</v>
+        <v>1544300</v>
       </c>
       <c r="E62" s="3">
-        <v>15785400</v>
+        <v>5744200</v>
       </c>
       <c r="F62" s="3">
-        <v>15078600</v>
+        <v>16067300</v>
       </c>
       <c r="G62" s="3">
-        <v>14110500</v>
+        <v>15348000</v>
       </c>
       <c r="H62" s="3">
-        <v>15720800</v>
+        <v>14362600</v>
       </c>
       <c r="I62" s="3">
-        <v>17906700</v>
+        <v>16001700</v>
       </c>
       <c r="J62" s="3">
+        <v>18226500</v>
+      </c>
+      <c r="K62" s="3">
         <v>16430700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17298600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14641500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16362400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4453400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>745209000</v>
+        <v>701432000</v>
       </c>
       <c r="E66" s="3">
-        <v>775491000</v>
+        <v>758521000</v>
       </c>
       <c r="F66" s="3">
-        <v>752218000</v>
+        <v>789344000</v>
       </c>
       <c r="G66" s="3">
-        <v>918627000</v>
+        <v>765655000</v>
       </c>
       <c r="H66" s="3">
-        <v>846947000</v>
+        <v>935037000</v>
       </c>
       <c r="I66" s="3">
-        <v>869873000</v>
+        <v>862077000</v>
       </c>
       <c r="J66" s="3">
+        <v>885412000</v>
+      </c>
+      <c r="K66" s="3">
         <v>866074000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>845292000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>840351000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>777665000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>799115000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25513700</v>
+        <v>26762000</v>
       </c>
       <c r="E72" s="3">
-        <v>30667200</v>
+        <v>52570000</v>
       </c>
       <c r="F72" s="3">
-        <v>27436100</v>
+        <v>53049200</v>
       </c>
       <c r="G72" s="3">
-        <v>28085700</v>
+        <v>48740500</v>
       </c>
       <c r="H72" s="3">
-        <v>33952300</v>
+        <v>41042800</v>
       </c>
       <c r="I72" s="3">
-        <v>31163400</v>
+        <v>51780600</v>
       </c>
       <c r="J72" s="3">
+        <v>47489100</v>
+      </c>
+      <c r="K72" s="3">
         <v>30534900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27829100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>85131200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59954100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24918800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75260800</v>
+        <v>48840600</v>
       </c>
       <c r="E76" s="3">
-        <v>75764400</v>
+        <v>76605300</v>
       </c>
       <c r="F76" s="3">
-        <v>73951000</v>
+        <v>77117900</v>
       </c>
       <c r="G76" s="3">
-        <v>66048800</v>
+        <v>75272100</v>
       </c>
       <c r="H76" s="3">
-        <v>73648400</v>
+        <v>67228700</v>
       </c>
       <c r="I76" s="3">
-        <v>74691600</v>
+        <v>74964100</v>
       </c>
       <c r="J76" s="3">
+        <v>76025900</v>
+      </c>
+      <c r="K76" s="3">
         <v>72446600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71148100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63307700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58859400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54484700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7511800</v>
+        <v>6992300</v>
       </c>
       <c r="E81" s="3">
-        <v>3160200</v>
+        <v>7646000</v>
       </c>
       <c r="F81" s="3">
-        <v>3813000</v>
+        <v>3216700</v>
       </c>
       <c r="G81" s="3">
-        <v>1986900</v>
+        <v>3881100</v>
       </c>
       <c r="H81" s="3">
-        <v>6326800</v>
+        <v>2022400</v>
       </c>
       <c r="I81" s="3">
-        <v>5884600</v>
+        <v>6439900</v>
       </c>
       <c r="J81" s="3">
+        <v>5989700</v>
+      </c>
+      <c r="K81" s="3">
         <v>5620100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5148000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5021600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4134000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4576700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1244200</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>1455800</v>
+        <v>936900</v>
       </c>
       <c r="F83" s="3">
-        <v>898200</v>
+        <v>1266400</v>
       </c>
       <c r="G83" s="3">
-        <v>456000</v>
+        <v>1481800</v>
       </c>
       <c r="H83" s="3">
-        <v>711000</v>
+        <v>914300</v>
       </c>
       <c r="I83" s="3">
-        <v>845300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>464100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>723700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1295500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1543800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>848700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>23945700</v>
+        <v>7961500</v>
       </c>
       <c r="E89" s="3">
-        <v>8387800</v>
+        <v>10701200</v>
       </c>
       <c r="F89" s="3">
-        <v>8076800</v>
+        <v>24373500</v>
       </c>
       <c r="G89" s="3">
-        <v>17483500</v>
+        <v>8537700</v>
       </c>
       <c r="H89" s="3">
-        <v>14324300</v>
+        <v>8221100</v>
       </c>
       <c r="I89" s="3">
-        <v>19208000</v>
+        <v>17795800</v>
       </c>
       <c r="J89" s="3">
+        <v>14580100</v>
+      </c>
+      <c r="K89" s="3">
         <v>13659800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5782900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6341100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11545500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20080400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-411600</v>
+        <v>-380100</v>
       </c>
       <c r="E91" s="3">
-        <v>-488800</v>
+        <v>-376900</v>
       </c>
       <c r="F91" s="3">
-        <v>-488800</v>
+        <v>-418900</v>
       </c>
       <c r="G91" s="3">
-        <v>-415800</v>
+        <v>-497500</v>
       </c>
       <c r="H91" s="3">
-        <v>-499400</v>
+        <v>-497500</v>
       </c>
       <c r="I91" s="3">
-        <v>-488800</v>
+        <v>-423200</v>
       </c>
       <c r="J91" s="3">
+        <v>-508300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-373500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-379600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-416300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-372200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-437800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12094000</v>
+        <v>506100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11681400</v>
+        <v>-9639300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2247200</v>
+        <v>-12310000</v>
       </c>
       <c r="G94" s="3">
-        <v>-13052500</v>
+        <v>-11890100</v>
       </c>
       <c r="H94" s="3">
-        <v>-10864600</v>
+        <v>-2287300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10080600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-13285700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11058700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-13724000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8207600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4020300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1844100</v>
+        <v>-3958700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3457500</v>
+        <v>-3757300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3612000</v>
+        <v>-1877000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3277700</v>
+        <v>-3519300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3092500</v>
+        <v>-3676500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2789900</v>
+        <v>-3336200</v>
       </c>
       <c r="J96" s="3">
+        <v>-3147800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2364600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2131600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2337400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1968700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2076500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5212800</v>
+        <v>-6594900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7381700</v>
+        <v>-4666200</v>
       </c>
       <c r="F100" s="3">
-        <v>4146300</v>
+        <v>-5305900</v>
       </c>
       <c r="G100" s="3">
-        <v>-6465400</v>
+        <v>-7513500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3044900</v>
+        <v>4220400</v>
       </c>
       <c r="I100" s="3">
-        <v>-6144900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-6580900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3099300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2294300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2905300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6526400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-779700</v>
+        <v>-463100</v>
       </c>
       <c r="E101" s="3">
-        <v>498300</v>
+        <v>217500</v>
       </c>
       <c r="F101" s="3">
-        <v>2068400</v>
+        <v>-793700</v>
       </c>
       <c r="G101" s="3">
-        <v>-515200</v>
+        <v>507200</v>
       </c>
       <c r="H101" s="3">
-        <v>-291000</v>
+        <v>2105300</v>
       </c>
       <c r="I101" s="3">
-        <v>1248400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-524500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-296100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1631600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-368900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>968400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5859200</v>
+        <v>1409700</v>
       </c>
       <c r="E102" s="3">
-        <v>-10176900</v>
+        <v>-3386900</v>
       </c>
       <c r="F102" s="3">
-        <v>12044300</v>
+        <v>5963900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2549800</v>
+        <v>-10358700</v>
       </c>
       <c r="H102" s="3">
-        <v>123800</v>
+        <v>12259400</v>
       </c>
       <c r="I102" s="3">
-        <v>4230900</v>
+        <v>-2595300</v>
       </c>
       <c r="J102" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1220900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10313500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11308900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>63700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10499700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>112601700</v>
+        <v>113354600</v>
       </c>
       <c r="E8" s="3">
-        <v>131298900</v>
+        <v>132176700</v>
       </c>
       <c r="F8" s="3">
-        <v>121560500</v>
+        <v>122373200</v>
       </c>
       <c r="G8" s="3">
-        <v>143225500</v>
+        <v>144183100</v>
       </c>
       <c r="H8" s="3">
-        <v>115958400</v>
+        <v>116733700</v>
       </c>
       <c r="I8" s="3">
-        <v>143111400</v>
+        <v>144068200</v>
       </c>
       <c r="J8" s="3">
-        <v>137656900</v>
+        <v>138577300</v>
       </c>
       <c r="K8" s="3">
         <v>122920600</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90671700</v>
+        <v>91278000</v>
       </c>
       <c r="E9" s="3">
-        <v>109291400</v>
+        <v>110022100</v>
       </c>
       <c r="F9" s="3">
-        <v>103649500</v>
+        <v>104342500</v>
       </c>
       <c r="G9" s="3">
-        <v>124627500</v>
+        <v>125460700</v>
       </c>
       <c r="H9" s="3">
-        <v>93717200</v>
+        <v>94343800</v>
       </c>
       <c r="I9" s="3">
-        <v>122830100</v>
+        <v>123651400</v>
       </c>
       <c r="J9" s="3">
-        <v>115814100</v>
+        <v>116588500</v>
       </c>
       <c r="K9" s="3">
         <v>102370000</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21930000</v>
+        <v>22076600</v>
       </c>
       <c r="E10" s="3">
-        <v>22007500</v>
+        <v>22154700</v>
       </c>
       <c r="F10" s="3">
-        <v>17911000</v>
+        <v>18030800</v>
       </c>
       <c r="G10" s="3">
-        <v>18598100</v>
+        <v>18722400</v>
       </c>
       <c r="H10" s="3">
-        <v>22241200</v>
+        <v>22389900</v>
       </c>
       <c r="I10" s="3">
-        <v>20281300</v>
+        <v>20416900</v>
       </c>
       <c r="J10" s="3">
-        <v>21842800</v>
+        <v>21988800</v>
       </c>
       <c r="K10" s="3">
         <v>20550600</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1098400</v>
+        <v>1105800</v>
       </c>
       <c r="E14" s="3">
-        <v>478100</v>
+        <v>481300</v>
       </c>
       <c r="F14" s="3">
-        <v>655800</v>
+        <v>660200</v>
       </c>
       <c r="G14" s="3">
-        <v>304800</v>
+        <v>306800</v>
       </c>
       <c r="H14" s="3">
-        <v>8305100</v>
+        <v>8360600</v>
       </c>
       <c r="I14" s="3">
-        <v>445800</v>
+        <v>448800</v>
       </c>
       <c r="J14" s="3">
-        <v>980000</v>
+        <v>986500</v>
       </c>
       <c r="K14" s="3">
         <v>887700</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>102588700</v>
+        <v>103274600</v>
       </c>
       <c r="E17" s="3">
-        <v>121519500</v>
+        <v>122332000</v>
       </c>
       <c r="F17" s="3">
-        <v>115663400</v>
+        <v>116436700</v>
       </c>
       <c r="G17" s="3">
-        <v>137196000</v>
+        <v>138113300</v>
       </c>
       <c r="H17" s="3">
-        <v>114014600</v>
+        <v>114776900</v>
       </c>
       <c r="I17" s="3">
-        <v>134781600</v>
+        <v>135682700</v>
       </c>
       <c r="J17" s="3">
-        <v>127804300</v>
+        <v>128658800</v>
       </c>
       <c r="K17" s="3">
         <v>114465000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10013000</v>
+        <v>10080000</v>
       </c>
       <c r="E18" s="3">
-        <v>9779300</v>
+        <v>9844700</v>
       </c>
       <c r="F18" s="3">
-        <v>5897100</v>
+        <v>5936500</v>
       </c>
       <c r="G18" s="3">
-        <v>6029600</v>
+        <v>6069900</v>
       </c>
       <c r="H18" s="3">
-        <v>1943800</v>
+        <v>1956800</v>
       </c>
       <c r="I18" s="3">
-        <v>8329800</v>
+        <v>8385500</v>
       </c>
       <c r="J18" s="3">
-        <v>9852600</v>
+        <v>9918400</v>
       </c>
       <c r="K18" s="3">
         <v>8455500</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-119500</v>
+        <v>-120300</v>
       </c>
       <c r="E20" s="3">
-        <v>621400</v>
+        <v>625500</v>
       </c>
       <c r="F20" s="3">
-        <v>295100</v>
+        <v>297000</v>
       </c>
       <c r="G20" s="3">
-        <v>802300</v>
+        <v>807700</v>
       </c>
       <c r="H20" s="3">
-        <v>309100</v>
+        <v>311100</v>
       </c>
       <c r="I20" s="3">
-        <v>286500</v>
+        <v>288400</v>
       </c>
       <c r="J20" s="3">
-        <v>234800</v>
+        <v>236300</v>
       </c>
       <c r="K20" s="3">
         <v>226400</v>
@@ -1202,22 +1202,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>11343700</v>
+        <v>11413400</v>
       </c>
       <c r="F21" s="3">
-        <v>7466900</v>
+        <v>7508500</v>
       </c>
       <c r="G21" s="3">
-        <v>8323300</v>
+        <v>8369300</v>
       </c>
       <c r="H21" s="3">
-        <v>3173100</v>
+        <v>3188300</v>
       </c>
       <c r="I21" s="3">
-        <v>9083400</v>
+        <v>9141100</v>
       </c>
       <c r="J21" s="3">
-        <v>10815700</v>
+        <v>10883300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>513700</v>
+        <v>517100</v>
       </c>
       <c r="E22" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="F22" s="3">
-        <v>945500</v>
+        <v>951800</v>
       </c>
       <c r="G22" s="3">
-        <v>775400</v>
+        <v>780600</v>
       </c>
       <c r="H22" s="3">
-        <v>605200</v>
+        <v>609300</v>
       </c>
       <c r="I22" s="3">
-        <v>339200</v>
+        <v>341500</v>
       </c>
       <c r="J22" s="3">
-        <v>318800</v>
+        <v>320900</v>
       </c>
       <c r="K22" s="3">
         <v>516300</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9379800</v>
+        <v>9442500</v>
       </c>
       <c r="E23" s="3">
-        <v>9903200</v>
+        <v>9969400</v>
       </c>
       <c r="F23" s="3">
-        <v>5246700</v>
+        <v>5281700</v>
       </c>
       <c r="G23" s="3">
-        <v>6056500</v>
+        <v>6097000</v>
       </c>
       <c r="H23" s="3">
-        <v>1647700</v>
+        <v>1658700</v>
       </c>
       <c r="I23" s="3">
-        <v>8277100</v>
+        <v>8332400</v>
       </c>
       <c r="J23" s="3">
-        <v>9768600</v>
+        <v>9833900</v>
       </c>
       <c r="K23" s="3">
         <v>8165600</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1997600</v>
+        <v>2011000</v>
       </c>
       <c r="E24" s="3">
-        <v>1818900</v>
+        <v>1831000</v>
       </c>
       <c r="F24" s="3">
-        <v>1659500</v>
+        <v>1670600</v>
       </c>
       <c r="G24" s="3">
-        <v>1528100</v>
+        <v>1538300</v>
       </c>
       <c r="H24" s="3">
-        <v>1587400</v>
+        <v>1598000</v>
       </c>
       <c r="I24" s="3">
-        <v>1166300</v>
+        <v>1174100</v>
       </c>
       <c r="J24" s="3">
-        <v>2625500</v>
+        <v>2643000</v>
       </c>
       <c r="K24" s="3">
         <v>1899100</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7382100</v>
+        <v>7431500</v>
       </c>
       <c r="E26" s="3">
-        <v>8084300</v>
+        <v>8138300</v>
       </c>
       <c r="F26" s="3">
-        <v>3587200</v>
+        <v>3611100</v>
       </c>
       <c r="G26" s="3">
-        <v>4528400</v>
+        <v>4558600</v>
       </c>
       <c r="H26" s="3">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="I26" s="3">
-        <v>7110800</v>
+        <v>7158300</v>
       </c>
       <c r="J26" s="3">
-        <v>7143100</v>
+        <v>7190800</v>
       </c>
       <c r="K26" s="3">
         <v>6266500</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6992300</v>
+        <v>7039100</v>
       </c>
       <c r="E27" s="3">
-        <v>7646000</v>
+        <v>7697100</v>
       </c>
       <c r="F27" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="G27" s="3">
-        <v>3907000</v>
+        <v>3933100</v>
       </c>
       <c r="H27" s="3">
-        <v>2483300</v>
+        <v>2499900</v>
       </c>
       <c r="I27" s="3">
-        <v>6439900</v>
+        <v>6482900</v>
       </c>
       <c r="J27" s="3">
-        <v>6462500</v>
+        <v>6505700</v>
       </c>
       <c r="K27" s="3">
         <v>5552400</v>
@@ -1544,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="H29" s="3">
-        <v>-460900</v>
+        <v>-464000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-472800</v>
+        <v>-475900</v>
       </c>
       <c r="K29" s="3">
         <v>67700</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>119500</v>
+        <v>120300</v>
       </c>
       <c r="E32" s="3">
-        <v>-621400</v>
+        <v>-625500</v>
       </c>
       <c r="F32" s="3">
-        <v>-295100</v>
+        <v>-297000</v>
       </c>
       <c r="G32" s="3">
-        <v>-802300</v>
+        <v>-807700</v>
       </c>
       <c r="H32" s="3">
-        <v>-309100</v>
+        <v>-311100</v>
       </c>
       <c r="I32" s="3">
-        <v>-286500</v>
+        <v>-288400</v>
       </c>
       <c r="J32" s="3">
-        <v>-234800</v>
+        <v>-236300</v>
       </c>
       <c r="K32" s="3">
         <v>-226400</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6992300</v>
+        <v>7039100</v>
       </c>
       <c r="E33" s="3">
-        <v>7646000</v>
+        <v>7697100</v>
       </c>
       <c r="F33" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="G33" s="3">
-        <v>3881100</v>
+        <v>3907100</v>
       </c>
       <c r="H33" s="3">
-        <v>2022400</v>
+        <v>2035900</v>
       </c>
       <c r="I33" s="3">
-        <v>6439900</v>
+        <v>6482900</v>
       </c>
       <c r="J33" s="3">
-        <v>5989700</v>
+        <v>6029800</v>
       </c>
       <c r="K33" s="3">
         <v>5620100</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6992300</v>
+        <v>7039100</v>
       </c>
       <c r="E35" s="3">
-        <v>7646000</v>
+        <v>7697100</v>
       </c>
       <c r="F35" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="G35" s="3">
-        <v>3881100</v>
+        <v>3907100</v>
       </c>
       <c r="H35" s="3">
-        <v>2022400</v>
+        <v>2035900</v>
       </c>
       <c r="I35" s="3">
-        <v>6439900</v>
+        <v>6482900</v>
       </c>
       <c r="J35" s="3">
-        <v>5989700</v>
+        <v>6029800</v>
       </c>
       <c r="K35" s="3">
         <v>5620100</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28177100</v>
+        <v>28367600</v>
       </c>
       <c r="E41" s="3">
-        <v>26977400</v>
+        <v>27157800</v>
       </c>
       <c r="F41" s="3">
-        <v>30408400</v>
+        <v>30611700</v>
       </c>
       <c r="G41" s="3">
-        <v>23635800</v>
+        <v>23793800</v>
       </c>
       <c r="H41" s="3">
-        <v>33738200</v>
+        <v>33963800</v>
       </c>
       <c r="I41" s="3">
-        <v>25735800</v>
+        <v>25907800</v>
       </c>
       <c r="J41" s="3">
-        <v>28337500</v>
+        <v>28527000</v>
       </c>
       <c r="K41" s="3">
         <v>27799000</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44691300</v>
+        <v>44357000</v>
       </c>
       <c r="E43" s="3">
-        <v>40292200</v>
+        <v>40561600</v>
       </c>
       <c r="F43" s="3">
-        <v>40556100</v>
+        <v>40827200</v>
       </c>
       <c r="G43" s="3">
-        <v>42526800</v>
+        <v>42811100</v>
       </c>
       <c r="H43" s="3">
-        <v>45174900</v>
+        <v>45476900</v>
       </c>
       <c r="I43" s="3">
-        <v>32566500</v>
+        <v>32784300</v>
       </c>
       <c r="J43" s="3">
-        <v>37513800</v>
+        <v>37764600</v>
       </c>
       <c r="K43" s="3">
         <v>33546000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>453365000</v>
+        <v>503105000</v>
       </c>
       <c r="E47" s="3">
-        <v>549006000</v>
+        <v>552676000</v>
       </c>
       <c r="F47" s="3">
-        <v>573812000</v>
+        <v>577649000</v>
       </c>
       <c r="G47" s="3">
-        <v>560570000</v>
+        <v>564317000</v>
       </c>
       <c r="H47" s="3">
-        <v>615276000</v>
+        <v>619390000</v>
       </c>
       <c r="I47" s="3">
-        <v>596857000</v>
+        <v>600847000</v>
       </c>
       <c r="J47" s="3">
-        <v>613458000</v>
+        <v>617560000</v>
       </c>
       <c r="K47" s="3">
         <v>572538000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33457100</v>
+        <v>33515000</v>
       </c>
       <c r="E48" s="3">
-        <v>33166400</v>
+        <v>33388100</v>
       </c>
       <c r="F48" s="3">
-        <v>30718600</v>
+        <v>30924000</v>
       </c>
       <c r="G48" s="3">
-        <v>28185700</v>
+        <v>28374100</v>
       </c>
       <c r="H48" s="3">
-        <v>24271200</v>
+        <v>24433400</v>
       </c>
       <c r="I48" s="3">
-        <v>26363600</v>
+        <v>26539900</v>
       </c>
       <c r="J48" s="3">
-        <v>24652400</v>
+        <v>24817200</v>
       </c>
       <c r="K48" s="3">
         <v>23065500</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23742400</v>
+        <v>48265200</v>
       </c>
       <c r="E49" s="3">
-        <v>23114600</v>
+        <v>23269100</v>
       </c>
       <c r="F49" s="3">
-        <v>22631100</v>
+        <v>22782400</v>
       </c>
       <c r="G49" s="3">
-        <v>24389600</v>
+        <v>24552700</v>
       </c>
       <c r="H49" s="3">
-        <v>23489300</v>
+        <v>23646400</v>
       </c>
       <c r="I49" s="3">
-        <v>19988300</v>
+        <v>20122000</v>
       </c>
       <c r="J49" s="3">
-        <v>21485200</v>
+        <v>21628900</v>
       </c>
       <c r="K49" s="3">
         <v>21518700</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19381000</v>
+        <v>18889400</v>
       </c>
       <c r="E52" s="3">
-        <v>9619900</v>
+        <v>9684300</v>
       </c>
       <c r="F52" s="3">
-        <v>36361500</v>
+        <v>36604600</v>
       </c>
       <c r="G52" s="3">
-        <v>39031200</v>
+        <v>39292100</v>
       </c>
       <c r="H52" s="3">
-        <v>29398300</v>
+        <v>29594800</v>
       </c>
       <c r="I52" s="3">
-        <v>6306300</v>
+        <v>6348500</v>
       </c>
       <c r="J52" s="3">
-        <v>2710600</v>
+        <v>2728700</v>
       </c>
       <c r="K52" s="3">
         <v>5365100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>750273000</v>
+        <v>690447000</v>
       </c>
       <c r="E54" s="3">
-        <v>835126000</v>
+        <v>840710000</v>
       </c>
       <c r="F54" s="3">
-        <v>866462000</v>
+        <v>872255000</v>
       </c>
       <c r="G54" s="3">
-        <v>840928000</v>
+        <v>846550000</v>
       </c>
       <c r="H54" s="3">
-        <v>1002270000</v>
+        <v>1008970000</v>
       </c>
       <c r="I54" s="3">
-        <v>937041000</v>
+        <v>943306000</v>
       </c>
       <c r="J54" s="3">
-        <v>961438000</v>
+        <v>967866000</v>
       </c>
       <c r="K54" s="3">
         <v>938520000</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1221200</v>
+        <v>1229400</v>
       </c>
       <c r="E58" s="3">
-        <v>1361200</v>
+        <v>1370300</v>
       </c>
       <c r="F58" s="3">
-        <v>1733800</v>
+        <v>1745400</v>
       </c>
       <c r="G58" s="3">
-        <v>750600</v>
+        <v>755600</v>
       </c>
       <c r="H58" s="3">
-        <v>1534600</v>
+        <v>1544800</v>
       </c>
       <c r="I58" s="3">
-        <v>2504900</v>
+        <v>2521600</v>
       </c>
       <c r="J58" s="3">
-        <v>4065300</v>
+        <v>4092500</v>
       </c>
       <c r="K58" s="3">
         <v>3477600</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202669000</v>
+        <v>736539000</v>
       </c>
       <c r="E59" s="3">
-        <v>218638000</v>
+        <v>220099000</v>
       </c>
       <c r="F59" s="3">
-        <v>203633000</v>
+        <v>204995000</v>
       </c>
       <c r="G59" s="3">
-        <v>192917000</v>
+        <v>194207000</v>
       </c>
       <c r="H59" s="3">
-        <v>311486000</v>
+        <v>313568000</v>
       </c>
       <c r="I59" s="3">
-        <v>317611000</v>
+        <v>319735000</v>
       </c>
       <c r="J59" s="3">
-        <v>319115000</v>
+        <v>321248000</v>
       </c>
       <c r="K59" s="3">
         <v>335035000</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25378200</v>
+        <v>26220000</v>
       </c>
       <c r="E61" s="3">
-        <v>22878700</v>
+        <v>23031700</v>
       </c>
       <c r="F61" s="3">
-        <v>22436100</v>
+        <v>22586100</v>
       </c>
       <c r="G61" s="3">
-        <v>26731900</v>
+        <v>26910600</v>
       </c>
       <c r="H61" s="3">
-        <v>26911700</v>
+        <v>27091700</v>
       </c>
       <c r="I61" s="3">
-        <v>10245600</v>
+        <v>10314100</v>
       </c>
       <c r="J61" s="3">
-        <v>9103000</v>
+        <v>9163900</v>
       </c>
       <c r="K61" s="3">
         <v>8186800</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1544300</v>
+        <v>987600</v>
       </c>
       <c r="E62" s="3">
-        <v>5744200</v>
+        <v>5782600</v>
       </c>
       <c r="F62" s="3">
-        <v>16067300</v>
+        <v>16174800</v>
       </c>
       <c r="G62" s="3">
-        <v>15348000</v>
+        <v>15450600</v>
       </c>
       <c r="H62" s="3">
-        <v>14362600</v>
+        <v>14458600</v>
       </c>
       <c r="I62" s="3">
-        <v>16001700</v>
+        <v>16108600</v>
       </c>
       <c r="J62" s="3">
-        <v>18226500</v>
+        <v>18348400</v>
       </c>
       <c r="K62" s="3">
         <v>16430700</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>701432000</v>
+        <v>640502000</v>
       </c>
       <c r="E66" s="3">
-        <v>758521000</v>
+        <v>763592000</v>
       </c>
       <c r="F66" s="3">
-        <v>789344000</v>
+        <v>794621000</v>
       </c>
       <c r="G66" s="3">
-        <v>765655000</v>
+        <v>770775000</v>
       </c>
       <c r="H66" s="3">
-        <v>935037000</v>
+        <v>941288000</v>
       </c>
       <c r="I66" s="3">
-        <v>862077000</v>
+        <v>867841000</v>
       </c>
       <c r="J66" s="3">
-        <v>885412000</v>
+        <v>891332000</v>
       </c>
       <c r="K66" s="3">
         <v>866074000</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26762000</v>
+        <v>76527700</v>
       </c>
       <c r="E72" s="3">
-        <v>52570000</v>
+        <v>52921400</v>
       </c>
       <c r="F72" s="3">
-        <v>53049200</v>
+        <v>53403900</v>
       </c>
       <c r="G72" s="3">
-        <v>48740500</v>
+        <v>49066400</v>
       </c>
       <c r="H72" s="3">
-        <v>41042800</v>
+        <v>41317200</v>
       </c>
       <c r="I72" s="3">
-        <v>51780600</v>
+        <v>52126800</v>
       </c>
       <c r="J72" s="3">
-        <v>47489100</v>
+        <v>47806600</v>
       </c>
       <c r="K72" s="3">
         <v>30534900</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48840600</v>
+        <v>49945600</v>
       </c>
       <c r="E76" s="3">
-        <v>76605300</v>
+        <v>77117500</v>
       </c>
       <c r="F76" s="3">
-        <v>77117900</v>
+        <v>77633500</v>
       </c>
       <c r="G76" s="3">
-        <v>75272100</v>
+        <v>75775300</v>
       </c>
       <c r="H76" s="3">
-        <v>67228700</v>
+        <v>67678200</v>
       </c>
       <c r="I76" s="3">
-        <v>74964100</v>
+        <v>75465300</v>
       </c>
       <c r="J76" s="3">
-        <v>76025900</v>
+        <v>76534200</v>
       </c>
       <c r="K76" s="3">
         <v>72446600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6992300</v>
+        <v>7039100</v>
       </c>
       <c r="E81" s="3">
-        <v>7646000</v>
+        <v>7697100</v>
       </c>
       <c r="F81" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="G81" s="3">
-        <v>3881100</v>
+        <v>3907100</v>
       </c>
       <c r="H81" s="3">
-        <v>2022400</v>
+        <v>2035900</v>
       </c>
       <c r="I81" s="3">
-        <v>6439900</v>
+        <v>6482900</v>
       </c>
       <c r="J81" s="3">
-        <v>5989700</v>
+        <v>6029800</v>
       </c>
       <c r="K81" s="3">
         <v>5620100</v>
@@ -3504,22 +3504,22 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>936900</v>
+        <v>943200</v>
       </c>
       <c r="F83" s="3">
-        <v>1266400</v>
+        <v>1274900</v>
       </c>
       <c r="G83" s="3">
-        <v>1481800</v>
+        <v>1491700</v>
       </c>
       <c r="H83" s="3">
-        <v>914300</v>
+        <v>920400</v>
       </c>
       <c r="I83" s="3">
-        <v>464100</v>
+        <v>467200</v>
       </c>
       <c r="J83" s="3">
-        <v>723700</v>
+        <v>728500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7961500</v>
+        <v>8014800</v>
       </c>
       <c r="E89" s="3">
-        <v>10701200</v>
+        <v>10772700</v>
       </c>
       <c r="F89" s="3">
-        <v>24373500</v>
+        <v>24536400</v>
       </c>
       <c r="G89" s="3">
-        <v>8537700</v>
+        <v>8594700</v>
       </c>
       <c r="H89" s="3">
-        <v>8221100</v>
+        <v>8276000</v>
       </c>
       <c r="I89" s="3">
-        <v>17795800</v>
+        <v>17914800</v>
       </c>
       <c r="J89" s="3">
-        <v>14580100</v>
+        <v>14677600</v>
       </c>
       <c r="K89" s="3">
         <v>13659800</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-380100</v>
+        <v>-382700</v>
       </c>
       <c r="E91" s="3">
-        <v>-376900</v>
+        <v>-379400</v>
       </c>
       <c r="F91" s="3">
-        <v>-418900</v>
+        <v>-421700</v>
       </c>
       <c r="G91" s="3">
-        <v>-497500</v>
+        <v>-500900</v>
       </c>
       <c r="H91" s="3">
-        <v>-497500</v>
+        <v>-500900</v>
       </c>
       <c r="I91" s="3">
-        <v>-423200</v>
+        <v>-426100</v>
       </c>
       <c r="J91" s="3">
-        <v>-508300</v>
+        <v>-511700</v>
       </c>
       <c r="K91" s="3">
         <v>-373500</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>506100</v>
+        <v>509500</v>
       </c>
       <c r="E94" s="3">
-        <v>-9639300</v>
+        <v>-9703800</v>
       </c>
       <c r="F94" s="3">
-        <v>-12310000</v>
+        <v>-12392300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11890100</v>
+        <v>-11969500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2287300</v>
+        <v>-2302600</v>
       </c>
       <c r="I94" s="3">
-        <v>-13285700</v>
+        <v>-13374500</v>
       </c>
       <c r="J94" s="3">
-        <v>-11058700</v>
+        <v>-11132600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3958700</v>
+        <v>-3985200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3757300</v>
+        <v>-3782400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1877000</v>
+        <v>-1889600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3519300</v>
+        <v>-3542800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3676500</v>
+        <v>-3701100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3336200</v>
+        <v>-3358500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3147800</v>
+        <v>-3168800</v>
       </c>
       <c r="K96" s="3">
         <v>-2364600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6594900</v>
+        <v>-6639000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4666200</v>
+        <v>-4697400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5305900</v>
+        <v>-5341400</v>
       </c>
       <c r="G100" s="3">
-        <v>-7513500</v>
+        <v>-7563800</v>
       </c>
       <c r="H100" s="3">
-        <v>4220400</v>
+        <v>4248600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6580900</v>
+        <v>-6624900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3099300</v>
+        <v>-3120000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-463100</v>
+        <v>-466200</v>
       </c>
       <c r="E101" s="3">
-        <v>217500</v>
+        <v>219000</v>
       </c>
       <c r="F101" s="3">
-        <v>-793700</v>
+        <v>-799000</v>
       </c>
       <c r="G101" s="3">
-        <v>507200</v>
+        <v>510600</v>
       </c>
       <c r="H101" s="3">
-        <v>2105300</v>
+        <v>2119400</v>
       </c>
       <c r="I101" s="3">
-        <v>-524500</v>
+        <v>-528000</v>
       </c>
       <c r="J101" s="3">
-        <v>-296100</v>
+        <v>-298100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1409700</v>
+        <v>1419100</v>
       </c>
       <c r="E102" s="3">
-        <v>-3386900</v>
+        <v>-3409500</v>
       </c>
       <c r="F102" s="3">
-        <v>5963900</v>
+        <v>6003700</v>
       </c>
       <c r="G102" s="3">
-        <v>-10358700</v>
+        <v>-10428000</v>
       </c>
       <c r="H102" s="3">
-        <v>12259400</v>
+        <v>12341400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2595300</v>
+        <v>-2612700</v>
       </c>
       <c r="J102" s="3">
-        <v>126000</v>
+        <v>126800</v>
       </c>
       <c r="K102" s="3">
         <v>1220900</v>

--- a/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AXAHY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>113354600</v>
+        <v>113448700</v>
       </c>
       <c r="E8" s="3">
-        <v>132176700</v>
+        <v>132286500</v>
       </c>
       <c r="F8" s="3">
-        <v>122373200</v>
+        <v>122474800</v>
       </c>
       <c r="G8" s="3">
-        <v>144183100</v>
+        <v>144302800</v>
       </c>
       <c r="H8" s="3">
-        <v>116733700</v>
+        <v>116830600</v>
       </c>
       <c r="I8" s="3">
-        <v>144068200</v>
+        <v>144187800</v>
       </c>
       <c r="J8" s="3">
-        <v>138577300</v>
+        <v>138692300</v>
       </c>
       <c r="K8" s="3">
         <v>122920600</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91278000</v>
+        <v>91353700</v>
       </c>
       <c r="E9" s="3">
-        <v>110022100</v>
+        <v>110113400</v>
       </c>
       <c r="F9" s="3">
-        <v>104342500</v>
+        <v>104429100</v>
       </c>
       <c r="G9" s="3">
-        <v>125460700</v>
+        <v>125564900</v>
       </c>
       <c r="H9" s="3">
-        <v>94343800</v>
+        <v>94422100</v>
       </c>
       <c r="I9" s="3">
-        <v>123651400</v>
+        <v>123754000</v>
       </c>
       <c r="J9" s="3">
-        <v>116588500</v>
+        <v>116685200</v>
       </c>
       <c r="K9" s="3">
         <v>102370000</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22076600</v>
+        <v>22094900</v>
       </c>
       <c r="E10" s="3">
-        <v>22154700</v>
+        <v>22173100</v>
       </c>
       <c r="F10" s="3">
-        <v>18030800</v>
+        <v>18045700</v>
       </c>
       <c r="G10" s="3">
-        <v>18722400</v>
+        <v>18738000</v>
       </c>
       <c r="H10" s="3">
-        <v>22389900</v>
+        <v>22408500</v>
       </c>
       <c r="I10" s="3">
-        <v>20416900</v>
+        <v>20433800</v>
       </c>
       <c r="J10" s="3">
-        <v>21988800</v>
+        <v>22007100</v>
       </c>
       <c r="K10" s="3">
         <v>20550600</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1105800</v>
+        <v>1106700</v>
       </c>
       <c r="E14" s="3">
-        <v>481300</v>
+        <v>481700</v>
       </c>
       <c r="F14" s="3">
-        <v>660200</v>
+        <v>660800</v>
       </c>
       <c r="G14" s="3">
-        <v>306800</v>
+        <v>307100</v>
       </c>
       <c r="H14" s="3">
-        <v>8360600</v>
+        <v>8367500</v>
       </c>
       <c r="I14" s="3">
-        <v>448800</v>
+        <v>449200</v>
       </c>
       <c r="J14" s="3">
-        <v>986500</v>
+        <v>987400</v>
       </c>
       <c r="K14" s="3">
         <v>887700</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103274600</v>
+        <v>103360400</v>
       </c>
       <c r="E17" s="3">
-        <v>122332000</v>
+        <v>122433600</v>
       </c>
       <c r="F17" s="3">
-        <v>116436700</v>
+        <v>116533300</v>
       </c>
       <c r="G17" s="3">
-        <v>138113300</v>
+        <v>138227900</v>
       </c>
       <c r="H17" s="3">
-        <v>114776900</v>
+        <v>114872200</v>
       </c>
       <c r="I17" s="3">
-        <v>135682700</v>
+        <v>135795300</v>
       </c>
       <c r="J17" s="3">
-        <v>128658800</v>
+        <v>128765600</v>
       </c>
       <c r="K17" s="3">
         <v>114465000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10080000</v>
+        <v>10088300</v>
       </c>
       <c r="E18" s="3">
-        <v>9844700</v>
+        <v>9852900</v>
       </c>
       <c r="F18" s="3">
-        <v>5936500</v>
+        <v>5941500</v>
       </c>
       <c r="G18" s="3">
-        <v>6069900</v>
+        <v>6074900</v>
       </c>
       <c r="H18" s="3">
-        <v>1956800</v>
+        <v>1958400</v>
       </c>
       <c r="I18" s="3">
-        <v>8385500</v>
+        <v>8392500</v>
       </c>
       <c r="J18" s="3">
-        <v>9918400</v>
+        <v>9926700</v>
       </c>
       <c r="K18" s="3">
         <v>8455500</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-120300</v>
+        <v>-120400</v>
       </c>
       <c r="E20" s="3">
-        <v>625500</v>
+        <v>626000</v>
       </c>
       <c r="F20" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="G20" s="3">
-        <v>807700</v>
+        <v>808300</v>
       </c>
       <c r="H20" s="3">
-        <v>311100</v>
+        <v>311400</v>
       </c>
       <c r="I20" s="3">
-        <v>288400</v>
+        <v>288600</v>
       </c>
       <c r="J20" s="3">
-        <v>236300</v>
+        <v>236500</v>
       </c>
       <c r="K20" s="3">
         <v>226400</v>
@@ -1202,22 +1202,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>11413400</v>
+        <v>11422500</v>
       </c>
       <c r="F21" s="3">
-        <v>7508500</v>
+        <v>7514200</v>
       </c>
       <c r="G21" s="3">
-        <v>8369300</v>
+        <v>8375600</v>
       </c>
       <c r="H21" s="3">
-        <v>3188300</v>
+        <v>3190600</v>
       </c>
       <c r="I21" s="3">
-        <v>9141100</v>
+        <v>9148500</v>
       </c>
       <c r="J21" s="3">
-        <v>10883300</v>
+        <v>10892000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>517100</v>
+        <v>517500</v>
       </c>
       <c r="E22" s="3">
-        <v>500900</v>
+        <v>501300</v>
       </c>
       <c r="F22" s="3">
-        <v>951800</v>
+        <v>952600</v>
       </c>
       <c r="G22" s="3">
-        <v>780600</v>
+        <v>781200</v>
       </c>
       <c r="H22" s="3">
-        <v>609300</v>
+        <v>609800</v>
       </c>
       <c r="I22" s="3">
-        <v>341500</v>
+        <v>341800</v>
       </c>
       <c r="J22" s="3">
-        <v>320900</v>
+        <v>321200</v>
       </c>
       <c r="K22" s="3">
         <v>516300</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9442500</v>
+        <v>9450400</v>
       </c>
       <c r="E23" s="3">
-        <v>9969400</v>
+        <v>9977700</v>
       </c>
       <c r="F23" s="3">
-        <v>5281700</v>
+        <v>5286100</v>
       </c>
       <c r="G23" s="3">
-        <v>6097000</v>
+        <v>6102000</v>
       </c>
       <c r="H23" s="3">
-        <v>1658700</v>
+        <v>1660100</v>
       </c>
       <c r="I23" s="3">
-        <v>8332400</v>
+        <v>8339300</v>
       </c>
       <c r="J23" s="3">
-        <v>9833900</v>
+        <v>9842000</v>
       </c>
       <c r="K23" s="3">
         <v>8165600</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2011000</v>
+        <v>2012700</v>
       </c>
       <c r="E24" s="3">
-        <v>1831000</v>
+        <v>1832600</v>
       </c>
       <c r="F24" s="3">
-        <v>1670600</v>
+        <v>1672000</v>
       </c>
       <c r="G24" s="3">
-        <v>1538300</v>
+        <v>1539600</v>
       </c>
       <c r="H24" s="3">
-        <v>1598000</v>
+        <v>1599300</v>
       </c>
       <c r="I24" s="3">
-        <v>1174100</v>
+        <v>1175100</v>
       </c>
       <c r="J24" s="3">
-        <v>2643000</v>
+        <v>2645200</v>
       </c>
       <c r="K24" s="3">
         <v>1899100</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7431500</v>
+        <v>7437700</v>
       </c>
       <c r="E26" s="3">
-        <v>8138300</v>
+        <v>8145100</v>
       </c>
       <c r="F26" s="3">
-        <v>3611100</v>
+        <v>3614100</v>
       </c>
       <c r="G26" s="3">
-        <v>4558600</v>
+        <v>4562400</v>
       </c>
       <c r="H26" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="I26" s="3">
-        <v>7158300</v>
+        <v>7164300</v>
       </c>
       <c r="J26" s="3">
-        <v>7190800</v>
+        <v>7196800</v>
       </c>
       <c r="K26" s="3">
         <v>6266500</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7039100</v>
+        <v>7044900</v>
       </c>
       <c r="E27" s="3">
-        <v>7697100</v>
+        <v>7703500</v>
       </c>
       <c r="F27" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="G27" s="3">
-        <v>3933100</v>
+        <v>3936400</v>
       </c>
       <c r="H27" s="3">
-        <v>2499900</v>
+        <v>2502000</v>
       </c>
       <c r="I27" s="3">
-        <v>6482900</v>
+        <v>6488300</v>
       </c>
       <c r="J27" s="3">
-        <v>6505700</v>
+        <v>6511100</v>
       </c>
       <c r="K27" s="3">
         <v>5552400</v>
@@ -1547,13 +1547,13 @@
         <v>-26000</v>
       </c>
       <c r="H29" s="3">
-        <v>-464000</v>
+        <v>-464400</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-475900</v>
+        <v>-476300</v>
       </c>
       <c r="K29" s="3">
         <v>67700</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>120300</v>
+        <v>120400</v>
       </c>
       <c r="E32" s="3">
-        <v>-625500</v>
+        <v>-626000</v>
       </c>
       <c r="F32" s="3">
-        <v>-297000</v>
+        <v>-297300</v>
       </c>
       <c r="G32" s="3">
-        <v>-807700</v>
+        <v>-808300</v>
       </c>
       <c r="H32" s="3">
-        <v>-311100</v>
+        <v>-311400</v>
       </c>
       <c r="I32" s="3">
-        <v>-288400</v>
+        <v>-288600</v>
       </c>
       <c r="J32" s="3">
-        <v>-236300</v>
+        <v>-236500</v>
       </c>
       <c r="K32" s="3">
         <v>-226400</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7039100</v>
+        <v>7044900</v>
       </c>
       <c r="E33" s="3">
-        <v>7697100</v>
+        <v>7703500</v>
       </c>
       <c r="F33" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="G33" s="3">
-        <v>3907100</v>
+        <v>3910300</v>
       </c>
       <c r="H33" s="3">
-        <v>2035900</v>
+        <v>2037600</v>
       </c>
       <c r="I33" s="3">
-        <v>6482900</v>
+        <v>6488300</v>
       </c>
       <c r="J33" s="3">
-        <v>6029800</v>
+        <v>6034800</v>
       </c>
       <c r="K33" s="3">
         <v>5620100</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7039100</v>
+        <v>7044900</v>
       </c>
       <c r="E35" s="3">
-        <v>7697100</v>
+        <v>7703500</v>
       </c>
       <c r="F35" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="G35" s="3">
-        <v>3907100</v>
+        <v>3910300</v>
       </c>
       <c r="H35" s="3">
-        <v>2035900</v>
+        <v>2037600</v>
       </c>
       <c r="I35" s="3">
-        <v>6482900</v>
+        <v>6488300</v>
       </c>
       <c r="J35" s="3">
-        <v>6029800</v>
+        <v>6034800</v>
       </c>
       <c r="K35" s="3">
         <v>5620100</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28367600</v>
+        <v>28391200</v>
       </c>
       <c r="E41" s="3">
-        <v>27157800</v>
+        <v>27180300</v>
       </c>
       <c r="F41" s="3">
-        <v>30611700</v>
+        <v>30637100</v>
       </c>
       <c r="G41" s="3">
-        <v>23793800</v>
+        <v>23813600</v>
       </c>
       <c r="H41" s="3">
-        <v>33963800</v>
+        <v>33992000</v>
       </c>
       <c r="I41" s="3">
-        <v>25907800</v>
+        <v>25929300</v>
       </c>
       <c r="J41" s="3">
-        <v>28527000</v>
+        <v>28550700</v>
       </c>
       <c r="K41" s="3">
         <v>27799000</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44357000</v>
+        <v>44393900</v>
       </c>
       <c r="E43" s="3">
-        <v>40561600</v>
+        <v>40595300</v>
       </c>
       <c r="F43" s="3">
-        <v>40827200</v>
+        <v>40861100</v>
       </c>
       <c r="G43" s="3">
-        <v>42811100</v>
+        <v>42846700</v>
       </c>
       <c r="H43" s="3">
-        <v>45476900</v>
+        <v>45514700</v>
       </c>
       <c r="I43" s="3">
-        <v>32784300</v>
+        <v>32811500</v>
       </c>
       <c r="J43" s="3">
-        <v>37764600</v>
+        <v>37796000</v>
       </c>
       <c r="K43" s="3">
         <v>33546000</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>503105000</v>
+        <v>503523000</v>
       </c>
       <c r="E47" s="3">
-        <v>552676000</v>
+        <v>553135000</v>
       </c>
       <c r="F47" s="3">
-        <v>577649000</v>
+        <v>578128000</v>
       </c>
       <c r="G47" s="3">
-        <v>564317000</v>
+        <v>564786000</v>
       </c>
       <c r="H47" s="3">
-        <v>619390000</v>
+        <v>619904000</v>
       </c>
       <c r="I47" s="3">
-        <v>600847000</v>
+        <v>601346000</v>
       </c>
       <c r="J47" s="3">
-        <v>617560000</v>
+        <v>618072000</v>
       </c>
       <c r="K47" s="3">
         <v>572538000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33515000</v>
+        <v>33542800</v>
       </c>
       <c r="E48" s="3">
-        <v>33388100</v>
+        <v>33415800</v>
       </c>
       <c r="F48" s="3">
-        <v>30924000</v>
+        <v>30949600</v>
       </c>
       <c r="G48" s="3">
-        <v>28374100</v>
+        <v>28397700</v>
       </c>
       <c r="H48" s="3">
-        <v>24433400</v>
+        <v>24453700</v>
       </c>
       <c r="I48" s="3">
-        <v>26539900</v>
+        <v>26561900</v>
       </c>
       <c r="J48" s="3">
-        <v>24817200</v>
+        <v>24837800</v>
       </c>
       <c r="K48" s="3">
         <v>23065500</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48265200</v>
+        <v>48305300</v>
       </c>
       <c r="E49" s="3">
-        <v>23269100</v>
+        <v>23288400</v>
       </c>
       <c r="F49" s="3">
-        <v>22782400</v>
+        <v>22801300</v>
       </c>
       <c r="G49" s="3">
-        <v>24552700</v>
+        <v>24573100</v>
       </c>
       <c r="H49" s="3">
-        <v>23646400</v>
+        <v>23666000</v>
       </c>
       <c r="I49" s="3">
-        <v>20122000</v>
+        <v>20138700</v>
       </c>
       <c r="J49" s="3">
-        <v>21628900</v>
+        <v>21646800</v>
       </c>
       <c r="K49" s="3">
         <v>21518700</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18889400</v>
+        <v>18905000</v>
       </c>
       <c r="E52" s="3">
-        <v>9684300</v>
+        <v>9692300</v>
       </c>
       <c r="F52" s="3">
-        <v>36604600</v>
+        <v>36635000</v>
       </c>
       <c r="G52" s="3">
-        <v>39292100</v>
+        <v>39324700</v>
       </c>
       <c r="H52" s="3">
-        <v>29594800</v>
+        <v>29619400</v>
       </c>
       <c r="I52" s="3">
-        <v>6348500</v>
+        <v>6353800</v>
       </c>
       <c r="J52" s="3">
-        <v>2728700</v>
+        <v>2730900</v>
       </c>
       <c r="K52" s="3">
         <v>5365100</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>690447000</v>
+        <v>691020000</v>
       </c>
       <c r="E54" s="3">
-        <v>840710000</v>
+        <v>841408000</v>
       </c>
       <c r="F54" s="3">
-        <v>872255000</v>
+        <v>872979000</v>
       </c>
       <c r="G54" s="3">
-        <v>846550000</v>
+        <v>847253000</v>
       </c>
       <c r="H54" s="3">
-        <v>1008970000</v>
+        <v>1009800000</v>
       </c>
       <c r="I54" s="3">
-        <v>943306000</v>
+        <v>944089000</v>
       </c>
       <c r="J54" s="3">
-        <v>967866000</v>
+        <v>968670000</v>
       </c>
       <c r="K54" s="3">
         <v>938520000</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1229400</v>
+        <v>1230400</v>
       </c>
       <c r="E58" s="3">
-        <v>1370300</v>
+        <v>1371400</v>
       </c>
       <c r="F58" s="3">
-        <v>1745400</v>
+        <v>1746800</v>
       </c>
       <c r="G58" s="3">
-        <v>755600</v>
+        <v>756200</v>
       </c>
       <c r="H58" s="3">
-        <v>1544800</v>
+        <v>1546100</v>
       </c>
       <c r="I58" s="3">
-        <v>2521600</v>
+        <v>2523700</v>
       </c>
       <c r="J58" s="3">
-        <v>4092500</v>
+        <v>4095900</v>
       </c>
       <c r="K58" s="3">
         <v>3477600</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>736539000</v>
+        <v>737150000</v>
       </c>
       <c r="E59" s="3">
-        <v>220099000</v>
+        <v>220282000</v>
       </c>
       <c r="F59" s="3">
-        <v>204995000</v>
+        <v>205165000</v>
       </c>
       <c r="G59" s="3">
-        <v>194207000</v>
+        <v>194368000</v>
       </c>
       <c r="H59" s="3">
-        <v>313568000</v>
+        <v>313829000</v>
       </c>
       <c r="I59" s="3">
-        <v>319735000</v>
+        <v>320000000</v>
       </c>
       <c r="J59" s="3">
-        <v>321248000</v>
+        <v>321515000</v>
       </c>
       <c r="K59" s="3">
         <v>335035000</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26220000</v>
+        <v>26241800</v>
       </c>
       <c r="E61" s="3">
-        <v>23031700</v>
+        <v>23050800</v>
       </c>
       <c r="F61" s="3">
-        <v>22586100</v>
+        <v>22604900</v>
       </c>
       <c r="G61" s="3">
-        <v>26910600</v>
+        <v>26933000</v>
       </c>
       <c r="H61" s="3">
-        <v>27091700</v>
+        <v>27114100</v>
       </c>
       <c r="I61" s="3">
-        <v>10314100</v>
+        <v>10322700</v>
       </c>
       <c r="J61" s="3">
-        <v>9163900</v>
+        <v>9171500</v>
       </c>
       <c r="K61" s="3">
         <v>8186800</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>987600</v>
+        <v>988400</v>
       </c>
       <c r="E62" s="3">
-        <v>5782600</v>
+        <v>5787400</v>
       </c>
       <c r="F62" s="3">
-        <v>16174800</v>
+        <v>16188200</v>
       </c>
       <c r="G62" s="3">
-        <v>15450600</v>
+        <v>15463400</v>
       </c>
       <c r="H62" s="3">
-        <v>14458600</v>
+        <v>14470600</v>
       </c>
       <c r="I62" s="3">
-        <v>16108600</v>
+        <v>16122000</v>
       </c>
       <c r="J62" s="3">
-        <v>18348400</v>
+        <v>18363600</v>
       </c>
       <c r="K62" s="3">
         <v>16430700</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>640502000</v>
+        <v>641033000</v>
       </c>
       <c r="E66" s="3">
-        <v>763592000</v>
+        <v>764226000</v>
       </c>
       <c r="F66" s="3">
-        <v>794621000</v>
+        <v>795281000</v>
       </c>
       <c r="G66" s="3">
-        <v>770775000</v>
+        <v>771414000</v>
       </c>
       <c r="H66" s="3">
-        <v>941288000</v>
+        <v>942070000</v>
       </c>
       <c r="I66" s="3">
-        <v>867841000</v>
+        <v>868561000</v>
       </c>
       <c r="J66" s="3">
-        <v>891332000</v>
+        <v>892072000</v>
       </c>
       <c r="K66" s="3">
         <v>866074000</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>76527700</v>
+        <v>69348900</v>
       </c>
       <c r="E72" s="3">
-        <v>52921400</v>
+        <v>33986500</v>
       </c>
       <c r="F72" s="3">
-        <v>53403900</v>
+        <v>53448200</v>
       </c>
       <c r="G72" s="3">
-        <v>49066400</v>
+        <v>49107100</v>
       </c>
       <c r="H72" s="3">
-        <v>41317200</v>
+        <v>41351500</v>
       </c>
       <c r="I72" s="3">
-        <v>52126800</v>
+        <v>52170100</v>
       </c>
       <c r="J72" s="3">
-        <v>47806600</v>
+        <v>47846300</v>
       </c>
       <c r="K72" s="3">
         <v>30534900</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49945600</v>
+        <v>49987000</v>
       </c>
       <c r="E76" s="3">
-        <v>77117500</v>
+        <v>77181500</v>
       </c>
       <c r="F76" s="3">
-        <v>77633500</v>
+        <v>77697900</v>
       </c>
       <c r="G76" s="3">
-        <v>75775300</v>
+        <v>75838200</v>
       </c>
       <c r="H76" s="3">
-        <v>67678200</v>
+        <v>67734400</v>
       </c>
       <c r="I76" s="3">
-        <v>75465300</v>
+        <v>75527900</v>
       </c>
       <c r="J76" s="3">
-        <v>76534200</v>
+        <v>76597700</v>
       </c>
       <c r="K76" s="3">
         <v>72446600</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7039100</v>
+        <v>7044900</v>
       </c>
       <c r="E81" s="3">
-        <v>7697100</v>
+        <v>7703500</v>
       </c>
       <c r="F81" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="G81" s="3">
-        <v>3907100</v>
+        <v>3910300</v>
       </c>
       <c r="H81" s="3">
-        <v>2035900</v>
+        <v>2037600</v>
       </c>
       <c r="I81" s="3">
-        <v>6482900</v>
+        <v>6488300</v>
       </c>
       <c r="J81" s="3">
-        <v>6029800</v>
+        <v>6034800</v>
       </c>
       <c r="K81" s="3">
         <v>5620100</v>
@@ -3504,22 +3504,22 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>943200</v>
+        <v>944000</v>
       </c>
       <c r="F83" s="3">
-        <v>1274900</v>
+        <v>1276000</v>
       </c>
       <c r="G83" s="3">
-        <v>1491700</v>
+        <v>1493000</v>
       </c>
       <c r="H83" s="3">
-        <v>920400</v>
+        <v>921200</v>
       </c>
       <c r="I83" s="3">
-        <v>467200</v>
+        <v>467600</v>
       </c>
       <c r="J83" s="3">
-        <v>728500</v>
+        <v>729100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8014800</v>
+        <v>8021400</v>
       </c>
       <c r="E89" s="3">
-        <v>10772700</v>
+        <v>10781600</v>
       </c>
       <c r="F89" s="3">
-        <v>24536400</v>
+        <v>24556800</v>
       </c>
       <c r="G89" s="3">
-        <v>8594700</v>
+        <v>8601900</v>
       </c>
       <c r="H89" s="3">
-        <v>8276000</v>
+        <v>8282900</v>
       </c>
       <c r="I89" s="3">
-        <v>17914800</v>
+        <v>17929600</v>
       </c>
       <c r="J89" s="3">
-        <v>14677600</v>
+        <v>14689800</v>
       </c>
       <c r="K89" s="3">
         <v>13659800</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-382700</v>
+        <v>-383000</v>
       </c>
       <c r="E91" s="3">
-        <v>-379400</v>
+        <v>-379800</v>
       </c>
       <c r="F91" s="3">
-        <v>-421700</v>
+        <v>-422100</v>
       </c>
       <c r="G91" s="3">
-        <v>-500900</v>
+        <v>-501300</v>
       </c>
       <c r="H91" s="3">
-        <v>-500900</v>
+        <v>-501300</v>
       </c>
       <c r="I91" s="3">
-        <v>-426100</v>
+        <v>-426400</v>
       </c>
       <c r="J91" s="3">
-        <v>-511700</v>
+        <v>-512100</v>
       </c>
       <c r="K91" s="3">
         <v>-373500</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>509500</v>
+        <v>510000</v>
       </c>
       <c r="E94" s="3">
-        <v>-9703800</v>
+        <v>-9711800</v>
       </c>
       <c r="F94" s="3">
-        <v>-12392300</v>
+        <v>-12402600</v>
       </c>
       <c r="G94" s="3">
-        <v>-11969500</v>
+        <v>-11979500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2302600</v>
+        <v>-2304500</v>
       </c>
       <c r="I94" s="3">
-        <v>-13374500</v>
+        <v>-13385600</v>
       </c>
       <c r="J94" s="3">
-        <v>-11132600</v>
+        <v>-11141900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3985200</v>
+        <v>-3988500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3782400</v>
+        <v>-3785600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1889600</v>
+        <v>-1891200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3542800</v>
+        <v>-3545800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3701100</v>
+        <v>-3704200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3358500</v>
+        <v>-3361300</v>
       </c>
       <c r="J96" s="3">
-        <v>-3168800</v>
+        <v>-3171500</v>
       </c>
       <c r="K96" s="3">
         <v>-2364600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6639000</v>
+        <v>-6644500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4697400</v>
+        <v>-4701300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5341400</v>
+        <v>-5345800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7563800</v>
+        <v>-7570000</v>
       </c>
       <c r="H100" s="3">
-        <v>4248600</v>
+        <v>4252100</v>
       </c>
       <c r="I100" s="3">
-        <v>-6624900</v>
+        <v>-6630400</v>
       </c>
       <c r="J100" s="3">
-        <v>-3120000</v>
+        <v>-3122600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-466200</v>
+        <v>-466600</v>
       </c>
       <c r="E101" s="3">
-        <v>219000</v>
+        <v>219200</v>
       </c>
       <c r="F101" s="3">
-        <v>-799000</v>
+        <v>-799600</v>
       </c>
       <c r="G101" s="3">
-        <v>510600</v>
+        <v>511000</v>
       </c>
       <c r="H101" s="3">
-        <v>2119400</v>
+        <v>2121200</v>
       </c>
       <c r="I101" s="3">
-        <v>-528000</v>
+        <v>-528400</v>
       </c>
       <c r="J101" s="3">
-        <v>-298100</v>
+        <v>-298400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1419100</v>
+        <v>1420300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3409500</v>
+        <v>-3412300</v>
       </c>
       <c r="F102" s="3">
-        <v>6003700</v>
+        <v>6008700</v>
       </c>
       <c r="G102" s="3">
-        <v>-10428000</v>
+        <v>-10436600</v>
       </c>
       <c r="H102" s="3">
-        <v>12341400</v>
+        <v>12351600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2612700</v>
+        <v>-2614900</v>
       </c>
       <c r="J102" s="3">
-        <v>126800</v>
+        <v>126900</v>
       </c>
       <c r="K102" s="3">
         <v>1220900</v>
